--- a/DATA/DATA.xlsx
+++ b/DATA/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Firas JANDOUBI\Desktop\Trade Project\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0643D7-83B9-4132-AA04-8559960D8D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F812574F-B81B-4AE6-8140-A745A4477A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="13620" yWindow="-16320" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -20,1107 +20,3663 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
-  <si>
-    <t>Date,"Price","Open","High","Low","Vol.","Change %"</t>
-  </si>
-  <si>
-    <t>Sep 16, 2022,"0.32885","0.32629","0.33116","0.32190","560.10M","0.76%"</t>
-  </si>
-  <si>
-    <t>Sep 15, 2022,"0.32635","0.34175","0.34268","0.32458","705.31M","-4.53%"</t>
-  </si>
-  <si>
-    <t>Sep 14, 2022,"0.34183","0.33260","0.34411","0.33153","608.62M","2.77%"</t>
-  </si>
-  <si>
-    <t>Sep 13, 2022,"0.33261","0.35977","0.36019","0.33113","652.15M","-7.55%"</t>
-  </si>
-  <si>
-    <t>Sep 12, 2022,"0.35977","0.35518","0.35999","0.34800","424.58M","1.29%"</t>
-  </si>
-  <si>
-    <t>Sep 11, 2022,"0.35520","0.35730","0.36014","0.34960","255.60M","-0.59%"</t>
-  </si>
-  <si>
-    <t>Sep 10, 2022,"0.35730","0.35691","0.36172","0.35178","330.50M","0.10%"</t>
-  </si>
-  <si>
-    <t>Sep 09, 2022,"0.35694","0.33958","0.35900","0.33946","587.11M","5.11%"</t>
-  </si>
-  <si>
-    <t>Sep 08, 2022,"0.33958","0.33684","0.34325","0.32841","434.48M","0.84%"</t>
-  </si>
-  <si>
-    <t>Sep 07, 2022,"0.33676","0.32140","0.33852","0.31367","486.16M","4.78%"</t>
-  </si>
-  <si>
-    <t>Sep 06, 2022,"0.32140","0.33288","0.34304","0.31960","590.01M","-3.47%"</t>
-  </si>
-  <si>
-    <t>Sep 05, 2022,"0.33294","0.33172","0.33354","0.32267","309.63M","0.37%"</t>
-  </si>
-  <si>
-    <t>Sep 04, 2022,"0.33172","0.32977","0.33270","0.32783","172.37M","0.64%"</t>
-  </si>
-  <si>
-    <t>Sep 03, 2022,"0.32962","0.33143","0.33356","0.32669","189.98M","-0.55%"</t>
-  </si>
-  <si>
-    <t>Sep 02, 2022,"0.33143","0.33315","0.33528","0.32531","341.49M","-0.51%"</t>
-  </si>
-  <si>
-    <t>Sep 01, 2022,"0.33313","0.32772","0.33337","0.32175","382.36M","1.65%"</t>
-  </si>
-  <si>
-    <t>Aug 31, 2022,"0.32771","0.32668","0.33389","0.32312","394.94M","0.33%"</t>
-  </si>
-  <si>
-    <t>Aug 30, 2022,"0.32662","0.33386","0.33559","0.32041","431.01M","-2.17%"</t>
-  </si>
-  <si>
-    <t>Aug 29, 2022,"0.33388","0.32234","0.33396","0.31870","480.91M","3.62%"</t>
-  </si>
-  <si>
-    <t>Aug 28, 2022,"0.32224","0.33461","0.33717","0.32167","273.06M","-3.70%"</t>
-  </si>
-  <si>
-    <t>Aug 27, 2022,"0.33461","0.33919","0.34365","0.32914","327.26M","-1.29%"</t>
-  </si>
-  <si>
-    <t>Aug 26, 2022,"0.33899","0.34910","0.37003","0.33255","782.04M","-2.90%"</t>
-  </si>
-  <si>
-    <t>Aug 25, 2022,"0.34911","0.34562","0.35209","0.34366","399.65M","1.01%"</t>
-  </si>
-  <si>
-    <t>Aug 24, 2022,"0.34561","0.34721","0.35243","0.33903","371.60M","-0.44%"</t>
-  </si>
-  <si>
-    <t>Aug 23, 2022,"0.34714","0.34408","0.34791","0.33275","425.19M","0.87%"</t>
-  </si>
-  <si>
-    <t>Aug 22, 2022,"0.34415","0.34487","0.34505","0.33158","451.15M","-0.16%"</t>
-  </si>
-  <si>
-    <t>Aug 21, 2022,"0.34471","0.33678","0.34834","0.33552","313.56M","2.35%"</t>
-  </si>
-  <si>
-    <t>Aug 20, 2022,"0.33678","0.33456","0.34266","0.33218","353.66M","0.65%"</t>
-  </si>
-  <si>
-    <t>Aug 19, 2022,"0.33459","0.37024","0.37031","0.33152","746.16M","-9.63%"</t>
-  </si>
-  <si>
-    <t>Aug 18, 2022,"0.37024","0.37957","0.38112","0.36927","375.45M","-2.46%"</t>
-  </si>
-  <si>
-    <t>Aug 17, 2022,"0.37957","0.37698","0.39182","0.36851","590.03M","0.69%"</t>
-  </si>
-  <si>
-    <t>Aug 16, 2022,"0.37696","0.37507","0.37819","0.36679","375.77M","0.49%"</t>
-  </si>
-  <si>
-    <t>Aug 15, 2022,"0.37511","0.37569","0.38491","0.36625","454.56M","-0.15%"</t>
-  </si>
-  <si>
-    <t>Aug 14, 2022,"0.37566","0.37800","0.39211","0.37410","351.61M","-0.62%"</t>
-  </si>
-  <si>
-    <t>Aug 13, 2022,"0.37799","0.37940","0.38713","0.37644","239.06M","-0.37%"</t>
-  </si>
-  <si>
-    <t>Aug 12, 2022,"0.37938","0.38015","0.38079","0.37026","349.89M","-0.20%"</t>
-  </si>
-  <si>
-    <t>Aug 11, 2022,"0.38015","0.38140","0.38554","0.37735","427.94M","-0.32%"</t>
-  </si>
-  <si>
-    <t>Aug 10, 2022,"0.38137","0.36731","0.38143","0.35862","432.45M","3.81%"</t>
-  </si>
-  <si>
-    <t>Aug 09, 2022,"0.36736","0.37878","0.37998","0.36097","355.88M","-3.02%"</t>
-  </si>
-  <si>
-    <t>Aug 08, 2022,"0.37878","0.37227","0.38453","0.37140","404.56M","1.75%"</t>
-  </si>
-  <si>
-    <t>Aug 07, 2022,"0.37227","0.37140","0.37707","0.36819","144.56M","0.24%"</t>
-  </si>
-  <si>
-    <t>Aug 06, 2022,"0.37140","0.37640","0.37760","0.37065","136.31M","-1.33%"</t>
-  </si>
-  <si>
-    <t>Aug 05, 2022,"0.37640","0.37084","0.37824","0.36748","292.34M","1.50%"</t>
-  </si>
-  <si>
-    <t>Aug 04, 2022,"0.37083","0.36951","0.37489","0.36438","290.34M","0.36%"</t>
-  </si>
-  <si>
-    <t>Aug 03, 2022,"0.36951","0.37148","0.37730","0.36322","353.81M","-0.53%"</t>
-  </si>
-  <si>
-    <t>Aug 02, 2022,"0.37147","0.37907","0.39344","0.36702","443.99M","-2.01%"</t>
-  </si>
-  <si>
-    <t>Aug 01, 2022,"0.37908","0.37927","0.38579","0.37133","342.91M","-0.05%"</t>
-  </si>
-  <si>
-    <t>Jul 31, 2022,"0.37928","0.38768","0.39865","0.37857","359.21M","-2.16%"</t>
-  </si>
-  <si>
-    <t>Jul 30, 2022,"0.38767","0.36776","0.40906","0.36339","583.13M","5.43%"</t>
-  </si>
-  <si>
-    <t>Jul 29, 2022,"0.36770","0.37380","0.37972","0.35976","443.23M","-1.62%"</t>
-  </si>
-  <si>
-    <t>Jul 28, 2022,"0.37377","0.35942","0.37895","0.34946","533.67M","3.98%"</t>
-  </si>
-  <si>
-    <t>Jul 27, 2022,"0.35948","0.33758","0.35960","0.33044","446.60M","6.48%"</t>
-  </si>
-  <si>
-    <t>Jul 26, 2022,"0.33761","0.33578","0.33835","0.32559","425.20M","0.55%"</t>
-  </si>
-  <si>
-    <t>Jul 25, 2022,"0.33577","0.35861","0.36011","0.33561","394.69M","-6.37%"</t>
-  </si>
-  <si>
-    <t>Jul 24, 2022,"0.35861","0.35929","0.36663","0.35600","242.34M","-0.20%"</t>
-  </si>
-  <si>
-    <t>Jul 23, 2022,"0.35932","0.35766","0.36276","0.34987","203.40M","0.47%"</t>
-  </si>
-  <si>
-    <t>Jul 22, 2022,"0.35765","0.36679","0.37133","0.35427","329.79M","-2.50%"</t>
-  </si>
-  <si>
-    <t>Jul 21, 2022,"0.36681","0.36256","0.36822","0.34886","394.25M","1.17%"</t>
-  </si>
-  <si>
-    <t>Jul 20, 2022,"0.36258","0.37340","0.38145","0.35761","485.32M","-2.90%"</t>
-  </si>
-  <si>
-    <t>Jul 19, 2022,"0.37341","0.36565","0.37657","0.35165","544.06M","2.11%"</t>
-  </si>
-  <si>
-    <t>Jul 18, 2022,"0.36570","0.34317","0.36963","0.34307","572.00M","6.58%"</t>
-  </si>
-  <si>
-    <t>Jul 17, 2022,"0.34314","0.35036","0.36040","0.34245","290.48M","-2.10%"</t>
-  </si>
-  <si>
-    <t>Jul 16, 2022,"0.35051","0.33403","0.35594","0.33157","385.80M","4.94%"</t>
-  </si>
-  <si>
-    <t>Jul 15, 2022,"0.33403","0.33363","0.34864","0.32777","538.80M","0.12%"</t>
-  </si>
-  <si>
-    <t>Jul 14, 2022,"0.33363","0.32370","0.33388","0.31262","456.44M","3.07%"</t>
-  </si>
-  <si>
-    <t>Jul 13, 2022,"0.32370","0.31172","0.32563","0.30335","520.81M","3.85%"</t>
-  </si>
-  <si>
-    <t>Jul 12, 2022,"0.31171","0.31510","0.31802","0.30801","375.63M","-1.08%"</t>
-  </si>
-  <si>
-    <t>Jul 11, 2022,"0.31510","0.32531","0.32888","0.31097","358.57M","-3.14%"</t>
-  </si>
-  <si>
-    <t>Jul 10, 2022,"0.32530","0.34478","0.34488","0.32058","324.31M","-5.65%"</t>
-  </si>
-  <si>
-    <t>Jul 09, 2022,"0.34478","0.34070","0.34762","0.33966","182.92M","1.18%"</t>
-  </si>
-  <si>
-    <t>Jul 08, 2022,"0.34075","0.34244","0.35837","0.33601","549.48M","-0.58%"</t>
-  </si>
-  <si>
-    <t>Jul 07, 2022,"0.34274","0.33248","0.34520","0.32692","384.27M","3.10%"</t>
-  </si>
-  <si>
-    <t>Jul 06, 2022,"0.33244","0.32567","0.33399","0.32008","450.08M","2.06%"</t>
-  </si>
-  <si>
-    <t>Jul 05, 2022,"0.32574","0.32861","0.33094","0.31339","492.08M","-0.87%"</t>
-  </si>
-  <si>
-    <t>Jul 04, 2022,"0.32859","0.32146","0.32976","0.31481","379.97M","2.22%"</t>
-  </si>
-  <si>
-    <t>Jul 03, 2022,"0.32144","0.31553","0.32562","0.30916","279.12M","1.89%"</t>
-  </si>
-  <si>
-    <t>Jul 02, 2022,"0.31549","0.31397","0.31795","0.30979","251.14M","0.49%"</t>
-  </si>
-  <si>
-    <t>Jul 01, 2022,"0.31397","0.33205","0.33446","0.31046","511.23M","-5.44%"</t>
-  </si>
-  <si>
-    <t>Jun 30, 2022,"0.33202","0.32940","0.33249","0.30612","646.65M","0.80%"</t>
-  </si>
-  <si>
-    <t>Jun 29, 2022,"0.32940","0.33743","0.34153","0.32064","474.44M","-2.38%"</t>
-  </si>
-  <si>
-    <t>Jun 28, 2022,"0.33743","0.35340","0.35560","0.33568","453.52M","-4.50%"</t>
-  </si>
-  <si>
-    <t>Jun 27, 2022,"0.35332","0.35904","0.36696","0.34904","381.45M","-1.59%"</t>
-  </si>
-  <si>
-    <t>Jun 26, 2022,"0.35903","0.36754","0.37480","0.35771","258.89M","-2.31%"</t>
-  </si>
-  <si>
-    <t>Jun 25, 2022,"0.36752","0.36734","0.37378","0.35440","292.63M","0.04%"</t>
-  </si>
-  <si>
-    <t>Jun 24, 2022,"0.36738","0.33571","0.38633","0.33513","808.82M","9.44%"</t>
-  </si>
-  <si>
-    <t>Jun 23, 2022,"0.33568","0.32224","0.33686","0.32142","408.83M","4.19%"</t>
-  </si>
-  <si>
-    <t>Jun 22, 2022,"0.32219","0.32936","0.32958","0.31907","443.83M","-2.18%"</t>
-  </si>
-  <si>
-    <t>Jun 21, 2022,"0.32936","0.32242","0.33710","0.31922","518.67M","2.15%"</t>
-  </si>
-  <si>
-    <t>Jun 20, 2022,"0.32242","0.32628","0.32861","0.31377","463.92M","-1.18%"</t>
-  </si>
-  <si>
-    <t>Jun 19, 2022,"0.32626","0.30750","0.33267","0.29839","515.68M","6.10%"</t>
-  </si>
-  <si>
-    <t>Jun 18, 2022,"0.30750","0.32092","0.32627","0.28757","717.57M","-4.18%"</t>
-  </si>
-  <si>
-    <t>Jun 17, 2022,"0.32092","0.31311","0.33948","0.31065","571.41M","2.52%"</t>
-  </si>
-  <si>
-    <t>Jun 16, 2022,"0.31304","0.34360","0.34696","0.30746","788.83M","-8.89%"</t>
-  </si>
-  <si>
-    <t>Jun 15, 2022,"0.34359","0.32173","0.34662","0.29883","1.15B","6.78%"</t>
-  </si>
-  <si>
-    <t>Jun 14, 2022,"0.32177","0.31165","0.32486","0.29388","1.06B","3.24%"</t>
-  </si>
-  <si>
-    <t>Jun 13, 2022,"0.31166","0.34322","0.34993","0.30155","1.41B","-9.18%"</t>
-  </si>
-  <si>
-    <t>Jun 12, 2022,"0.34318","0.35966","0.36513","0.33994","602.16M","-4.56%"</t>
-  </si>
-  <si>
-    <t>Jun 11, 2022,"0.35957","0.38154","0.38840","0.35634","473.87M","-5.76%"</t>
-  </si>
-  <si>
-    <t>Jun 10, 2022,"0.38155","0.40025","0.41173","0.37725","600.31M","-4.67%"</t>
-  </si>
-  <si>
-    <t>Jun 09, 2022,"0.40024","0.40055","0.40400","0.39695","396.77M","-0.07%"</t>
-  </si>
-  <si>
-    <t>Jun 08, 2022,"0.40050","0.40760","0.41019","0.39511","479.64M","-1.76%"</t>
-  </si>
-  <si>
-    <t>Jun 07, 2022,"0.40767","0.40277","0.41706","0.38513","671.05M","1.22%"</t>
-  </si>
-  <si>
-    <t>Jun 06, 2022,"0.40277","0.39543","0.40919","0.39419","415.31M","1.86%"</t>
-  </si>
-  <si>
-    <t>Jun 05, 2022,"0.39542","0.39242","0.39949","0.38965","215.22M","0.76%"</t>
-  </si>
-  <si>
-    <t>Jun 04, 2022,"0.39242","0.39037","0.39389","0.38497","216.56M","0.53%"</t>
-  </si>
-  <si>
-    <t>Jun 03, 2022,"0.39037","0.40545","0.41032","0.38432","473.68M","-3.72%"</t>
-  </si>
-  <si>
-    <t>Jun 02, 2022,"0.40545","0.39800","0.40705","0.39099","558.63M","1.86%"</t>
-  </si>
-  <si>
-    <t>Jun 01, 2022,"0.39802","0.42162","0.42625","0.38985","671.55M","-5.58%"</t>
-  </si>
-  <si>
-    <t>May 31, 2022,"0.42156","0.41861","0.43342","0.40694","634.00M","0.71%"</t>
-  </si>
-  <si>
-    <t>May 30, 2022,"0.41859","0.38910","0.41955","0.38699","552.42M","7.58%"</t>
-  </si>
-  <si>
-    <t>May 29, 2022,"0.38910","0.38631","0.39004","0.37945","279.30M","0.71%"</t>
-  </si>
-  <si>
-    <t>May 28, 2022,"0.38637","0.38155","0.38868","0.38068","333.92M","1.28%"</t>
-  </si>
-  <si>
-    <t>May 27, 2022,"0.38149","0.39256","0.40285","0.37660","792.88M","-2.84%"</t>
-  </si>
-  <si>
-    <t>May 26, 2022,"0.39265","0.40617","0.41088","0.37714","862.26M","-3.33%"</t>
-  </si>
-  <si>
-    <t>May 25, 2022,"0.40620","0.40859","0.41329","0.39577","584.59M","-0.58%"</t>
-  </si>
-  <si>
-    <t>May 24, 2022,"0.40858","0.40517","0.41350","0.39084","439.11M","0.86%"</t>
-  </si>
-  <si>
-    <t>May 23, 2022,"0.40509","0.42180","0.42854","0.40050","443.63M","-3.96%"</t>
-  </si>
-  <si>
-    <t>May 22, 2022,"0.42180","0.41446","0.42495","0.41044","268.32M","1.76%"</t>
-  </si>
-  <si>
-    <t>May 21, 2022,"0.41449","0.41021","0.41793","0.40368","251.00M","1.04%"</t>
-  </si>
-  <si>
-    <t>May 20, 2022,"0.41021","0.42026","0.43955","0.40176","619.25M","-2.39%"</t>
-  </si>
-  <si>
-    <t>May 19, 2022,"0.42026","0.40519","0.42394","0.39200","507.82M","3.71%"</t>
-  </si>
-  <si>
-    <t>May 18, 2022,"0.40523","0.43791","0.44248","0.40472","667.12M","-7.46%"</t>
-  </si>
-  <si>
-    <t>May 17, 2022,"0.43789","0.42304","0.44021","0.41732","674.39M","3.53%"</t>
-  </si>
-  <si>
-    <t>May 16, 2022,"0.42296","0.44798","0.44798","0.40952","768.30M","-5.58%"</t>
-  </si>
-  <si>
-    <t>May 15, 2022,"0.44795","0.42610","0.44953","0.41537","485.87M","5.13%"</t>
-  </si>
-  <si>
-    <t>May 14, 2022,"0.42609","0.42282","0.44069","0.39656","808.36M","0.77%"</t>
-  </si>
-  <si>
-    <t>May 13, 2022,"0.42282","0.38487","0.46321","0.38092","1.18B","9.85%"</t>
-  </si>
-  <si>
-    <t>May 12, 2022,"0.38490","0.41579","0.42880","0.33665","2.43B","-7.41%"</t>
-  </si>
-  <si>
-    <t>May 11, 2022,"0.41569","0.51326","0.52299","0.36553","2.58B","-19.00%"</t>
-  </si>
-  <si>
-    <t>May 10, 2022,"0.51321","0.48731","0.53627","0.47336","1.51B","5.24%"</t>
-  </si>
-  <si>
-    <t>May 09, 2022,"0.48766","0.56622","0.57851","0.47514","1.35B","-13.87%"</t>
-  </si>
-  <si>
-    <t>May 08, 2022,"0.56619","0.58075","0.58286","0.55848","559.53M","-2.51%"</t>
-  </si>
-  <si>
-    <t>May 07, 2022,"0.58075","0.60218","0.60430","0.56966","410.71M","-3.56%"</t>
-  </si>
-  <si>
-    <t>May 06, 2022,"0.60218","0.59815","0.61571","0.58819","627.49M","0.69%"</t>
-  </si>
-  <si>
-    <t>May 05, 2022,"0.59809","0.64606","0.65670","0.58954","737.32M","-7.43%"</t>
-  </si>
-  <si>
-    <t>May 04, 2022,"0.64609","0.60464","0.64926","0.60422","603.13M","6.86%"</t>
-  </si>
-  <si>
-    <t>May 03, 2022,"0.60461","0.61438","0.62727","0.59620","486.44M","-1.59%"</t>
-  </si>
-  <si>
-    <t>May 02, 2022,"0.61438","0.60700","0.63039","0.59860","565.44M","1.21%"</t>
-  </si>
-  <si>
-    <t>May 01, 2022,"0.60702","0.58523","0.61236","0.57763","484.63M","3.72%"</t>
-  </si>
-  <si>
-    <t>Apr 30, 2022,"0.58523","0.61153","0.62821","0.57131","572.63M","-4.30%"</t>
-  </si>
-  <si>
-    <t>Apr 29, 2022,"0.61153","0.64282","0.64692","0.60100","582.82M","-4.86%"</t>
-  </si>
-  <si>
-    <t>Apr 28, 2022,"0.64279","0.65213","0.65683","0.63450","450.14M","-1.43%"</t>
-  </si>
-  <si>
-    <t>Apr 27, 2022,"0.65211","0.64231","0.66225","0.63702","496.81M","1.51%"</t>
-  </si>
-  <si>
-    <t>Apr 26, 2022,"0.64239","0.69308","0.70558","0.62910","634.35M","-7.31%"</t>
-  </si>
-  <si>
-    <t>Apr 25, 2022,"0.69308","0.69832","0.69926","0.64634","647.88M","-0.75%"</t>
-  </si>
-  <si>
-    <t>Apr 24, 2022,"0.69835","0.70549","0.71174","0.69574","229.18M","-1.01%"</t>
-  </si>
-  <si>
-    <t>Apr 23, 2022,"0.70547","0.71783","0.72631","0.70310","348.93M","-1.72%"</t>
-  </si>
-  <si>
-    <t>Apr 22, 2022,"0.71778","0.73275","0.73862","0.71488","461.04M","-2.05%"</t>
-  </si>
-  <si>
-    <t>Apr 21, 2022,"0.73280","0.75165","0.76730","0.72050","500.74M","-2.51%"</t>
-  </si>
-  <si>
-    <t>Apr 20, 2022,"0.75164","0.77478","0.77512","0.74248","493.23M","-2.99%"</t>
-  </si>
-  <si>
-    <t>Apr 19, 2022,"0.77478","0.76963","0.78145","0.75908","567.78M","0.73%"</t>
-  </si>
-  <si>
-    <t>Apr 18, 2022,"0.76917","0.75194","0.76940","0.72817","596.69M","2.30%"</t>
-  </si>
-  <si>
-    <t>Apr 17, 2022,"0.75191","0.78102","0.78582","0.74830","422.30M","-3.73%"</t>
-  </si>
-  <si>
-    <t>Apr 16, 2022,"0.78104","0.78573","0.79880","0.76616","439.79M","-0.58%"</t>
-  </si>
-  <si>
-    <t>Apr 15, 2022,"0.78560","0.72625","0.79564","0.72621","812.68M","8.17%"</t>
-  </si>
-  <si>
-    <t>Apr 14, 2022,"0.72628","0.72291","0.74060","0.70898","462.78M","0.49%"</t>
-  </si>
-  <si>
-    <t>Apr 13, 2022,"0.72276","0.71509","0.72505","0.70203","433.36M","1.14%"</t>
-  </si>
-  <si>
-    <t>Apr 12, 2022,"0.71462","0.69461","0.72506","0.69248","500.45M","2.88%"</t>
-  </si>
-  <si>
-    <t>Apr 11, 2022,"0.69458","0.75422","0.75550","0.68415","648.89M","-7.91%"</t>
-  </si>
-  <si>
-    <t>Apr 10, 2022,"0.75420","0.76220","0.77251","0.75289","234.62M","-1.05%"</t>
-  </si>
-  <si>
-    <t>Apr 09, 2022,"0.76221","0.75509","0.76627","0.75341","197.11M","0.93%"</t>
-  </si>
-  <si>
-    <t>Apr 08, 2022,"0.75520","0.78729","0.79337","0.74696","406.46M","-4.11%"</t>
-  </si>
-  <si>
-    <t>Apr 07, 2022,"0.78756","0.75958","0.79076","0.75295","372.84M","3.68%"</t>
-  </si>
-  <si>
-    <t>Apr 06, 2022,"0.75957","0.81643","0.81846","0.75860","610.29M","-6.96%"</t>
-  </si>
-  <si>
-    <t>Apr 05, 2022,"0.81643","0.82637","0.83611","0.81476","316.93M","-1.21%"</t>
-  </si>
-  <si>
-    <t>Apr 04, 2022,"0.82647","0.84305","0.84317","0.80650","399.05M","-1.97%"</t>
-  </si>
-  <si>
-    <t>Apr 03, 2022,"0.84312","0.82392","0.84980","0.81521","294.49M","2.36%"</t>
-  </si>
-  <si>
-    <t>Apr 02, 2022,"0.82369","0.82772","0.84972","0.82030","385.67M","-0.49%"</t>
-  </si>
-  <si>
-    <t>Apr 01, 2022,"0.82774","0.81495","0.83390","0.80755","472.97M","1.56%"</t>
-  </si>
-  <si>
-    <t>Mar 31, 2022,"0.81504","0.86136","0.87264","0.79820","630.62M","-5.38%"</t>
-  </si>
-  <si>
-    <t>Mar 30, 2022,"0.86135","0.85771","0.87160","0.84659","392.68M","0.42%"</t>
-  </si>
-  <si>
-    <t>Mar 29, 2022,"0.85771","0.86287","0.88545","0.84364","484.88M","-0.59%"</t>
-  </si>
-  <si>
-    <t>Mar 28, 2022,"0.86282","0.85793","0.91125","0.85351","820.30M","0.59%"</t>
-  </si>
-  <si>
-    <t>Mar 27, 2022,"0.85775","0.83286","0.85803","0.82870","346.34M","2.99%"</t>
-  </si>
-  <si>
-    <t>Mar 26, 2022,"0.83286","0.82407","0.83493","0.82067","219.77M","1.07%"</t>
-  </si>
-  <si>
-    <t>Mar 25, 2022,"0.82408","0.84265","0.84547","0.82083","385.53M","-2.22%"</t>
-  </si>
-  <si>
-    <t>Mar 24, 2022,"0.84279","0.83763","0.84964","0.82739","515.91M","0.61%"</t>
-  </si>
-  <si>
-    <t>Mar 23, 2022,"0.83765","0.83660","0.84563","0.81880","449.85M","0.13%"</t>
-  </si>
-  <si>
-    <t>Mar 22, 2022,"0.83660","0.83734","0.86489","0.82800","554.92M","-0.09%"</t>
-  </si>
-  <si>
-    <t>Mar 21, 2022,"0.83736","0.80595","0.85426","0.78882","584.25M","3.88%"</t>
-  </si>
-  <si>
-    <t>Mar 20, 2022,"0.80606","0.81958","0.82170","0.79651","344.78M","-1.66%"</t>
-  </si>
-  <si>
-    <t>Mar 19, 2022,"0.81970","0.79652","0.82648","0.79181","467.54M","2.90%"</t>
-  </si>
-  <si>
-    <t>Mar 18, 2022,"0.79661","0.79370","0.80049","0.77704","362.68M","0.42%"</t>
-  </si>
-  <si>
-    <t>Mar 17, 2022,"0.79331","0.79204","0.80125","0.78330","436.90M","0.18%"</t>
-  </si>
-  <si>
-    <t>Mar 16, 2022,"0.79190","0.76586","0.79427","0.75816","560.47M","3.40%"</t>
-  </si>
-  <si>
-    <t>Mar 15, 2022,"0.76587","0.77453","0.77608","0.74218","407.33M","-1.12%"</t>
-  </si>
-  <si>
-    <t>Mar 14, 2022,"0.77455","0.75944","0.77961","0.74565","514.38M","1.99%"</t>
-  </si>
-  <si>
-    <t>Mar 13, 2022,"0.75943","0.78591","0.80471","0.75320","496.63M","-3.36%"</t>
-  </si>
-  <si>
-    <t>Mar 12, 2022,"0.78585","0.80295","0.84877","0.77881","976.91M","-2.15%"</t>
-  </si>
-  <si>
-    <t>Mar 11, 2022,"0.80312","0.73615","0.81280","0.72536","843.02M","9.11%"</t>
-  </si>
-  <si>
-    <t>Mar 10, 2022,"0.73610","0.76575","0.77842","0.72407","648.28M","-3.87%"</t>
-  </si>
-  <si>
-    <t>Mar 09, 2022,"0.76571","0.72080","0.77274","0.72021","628.03M","6.23%"</t>
-  </si>
-  <si>
-    <t>Mar 08, 2022,"0.72080","0.72011","0.73037","0.71395","480.81M","0.09%"</t>
-  </si>
-  <si>
-    <t>Mar 07, 2022,"0.72012","0.72476","0.75354","0.70410","793.88M","-0.64%"</t>
-  </si>
-  <si>
-    <t>Mar 06, 2022,"0.72473","0.75387","0.75845","0.72226","496.78M","-3.87%"</t>
-  </si>
-  <si>
-    <t>Mar 05, 2022,"0.75391","0.71276","0.76841","0.70512","573.88M","5.77%"</t>
-  </si>
-  <si>
-    <t>Mar 04, 2022,"0.71277","0.75158","0.75362","0.69756","618.13M","-5.19%"</t>
-  </si>
-  <si>
-    <t>Mar 03, 2022,"0.75180","0.76873","0.78857","0.73518","631.18M","-2.22%"</t>
-  </si>
-  <si>
-    <t>Mar 02, 2022,"0.76885","0.78388","0.78414","0.75660","711.25M","-1.91%"</t>
-  </si>
-  <si>
-    <t>Mar 01, 2022,"0.78384","0.78127","0.80324","0.75825","738.57M","0.33%"</t>
-  </si>
-  <si>
-    <t>Feb 28, 2022,"0.78127","0.72144","0.79257","0.70893","855.06M","8.29%"</t>
-  </si>
-  <si>
-    <t>Feb 27, 2022,"0.72144","0.75044","0.76674","0.70420","865.45M","-3.86%"</t>
-  </si>
-  <si>
-    <t>Feb 26, 2022,"0.75044","0.76923","0.79063","0.74079","909.28M","-2.45%"</t>
-  </si>
-  <si>
-    <t>Feb 25, 2022,"0.76926","0.69603","0.77591","0.68516","983.37M","10.53%"</t>
-  </si>
-  <si>
-    <t>Feb 24, 2022,"0.69600","0.69624","0.71839","0.62253","1.84B","-0.00%"</t>
-  </si>
-  <si>
-    <t>Feb 23, 2022,"0.69602","0.72101","0.74369","0.69285","868.99M","-3.49%"</t>
-  </si>
-  <si>
-    <t>Feb 22, 2022,"0.72119","0.70187","0.72636","0.67499","1.18B","2.79%"</t>
-  </si>
-  <si>
-    <t>Feb 21, 2022,"0.70162","0.77583","0.80041","0.69665","1.16B","-9.54%"</t>
-  </si>
-  <si>
-    <t>Feb 20, 2022,"0.77562","0.82174","0.82272","0.76630","968.87M","-5.60%"</t>
-  </si>
-  <si>
-    <t>Feb 19, 2022,"0.82160","0.78467","0.85354","0.77057","940.73M","4.71%"</t>
-  </si>
-  <si>
-    <t>Feb 18, 2022,"0.78468","0.76736","0.80446","0.75677","815.44M","2.34%"</t>
-  </si>
-  <si>
-    <t>Feb 17, 2022,"0.76677","0.83689","0.84449","0.75487","748.40M","-8.26%"</t>
-  </si>
-  <si>
-    <t>Feb 16, 2022,"0.83582","0.85099","0.85250","0.80911","520.13M","-1.76%"</t>
-  </si>
-  <si>
-    <t>Feb 15, 2022,"0.85083","0.80080","0.85886","0.79627","555.15M","6.25%"</t>
-  </si>
-  <si>
-    <t>Feb 14, 2022,"0.80077","0.80562","0.81193","0.78027","622.89M","-0.58%"</t>
-  </si>
-  <si>
-    <t>Feb 13, 2022,"0.80545","0.82203","0.84651","0.79278","699.44M","-1.98%"</t>
-  </si>
-  <si>
-    <t>Feb 12, 2022,"0.82171","0.75907","0.85036","0.74725","934.29M","8.27%"</t>
-  </si>
-  <si>
-    <t>Feb 11, 2022,"0.75896","0.82537","0.83309","0.75020","923.55M","-8.06%"</t>
-  </si>
-  <si>
-    <t>Feb 10, 2022,"0.82551","0.86957","0.89553","0.82379","961.48M","-5.09%"</t>
-  </si>
-  <si>
-    <t>Feb 09, 2022,"0.86980","0.87623","0.91255","0.84430","1.17B","-0.73%"</t>
-  </si>
-  <si>
-    <t>Feb 08, 2022,"0.87618","0.83146","0.91257","0.80370","1.92B","5.42%"</t>
-  </si>
-  <si>
-    <t>Feb 07, 2022,"0.83116","0.68268","0.83817","0.67173","1.20B","21.74%"</t>
-  </si>
-  <si>
-    <t>Feb 06, 2022,"0.68271","0.66618","0.68661","0.66050","311.39M","2.48%"</t>
-  </si>
-  <si>
-    <t>Feb 05, 2022,"0.66617","0.65556","0.68613","0.65019","581.98M","1.61%"</t>
-  </si>
-  <si>
-    <t>Feb 04, 2022,"0.65563","0.60956","0.65823","0.60446","523.14M","7.55%"</t>
-  </si>
-  <si>
-    <t>Feb 03, 2022,"0.60961","0.60089","0.60961","0.58941","349.86M","1.46%"</t>
-  </si>
-  <si>
-    <t>Feb 02, 2022,"0.60082","0.62824","0.63115","0.59600","379.99M","-4.36%"</t>
-  </si>
-  <si>
-    <t>Feb 01, 2022,"0.62823","0.61758","0.63066","0.61117","357.98M","1.75%"</t>
-  </si>
-  <si>
-    <t>Jan 31, 2022,"0.61746","0.60147","0.62394","0.58100","441.21M","2.66%"</t>
-  </si>
-  <si>
-    <t>Jan 30, 2022,"0.60148","0.61748","0.62292","0.59753","297.09M","-2.58%"</t>
-  </si>
-  <si>
-    <t>Jan 29, 2022,"0.61740","0.61127","0.62467","0.60914","301.82M","1.00%"</t>
-  </si>
-  <si>
-    <t>Jan 28, 2022,"0.61128","0.60895","0.61358","0.59197","459.46M","0.48%"</t>
-  </si>
-  <si>
-    <t>Jan 27, 2022,"0.60837","0.61899","0.62405","0.58965","582.23M","-1.71%"</t>
-  </si>
-  <si>
-    <t>Jan 26, 2022,"0.61896","0.61780","0.65753","0.60523","895.25M","0.22%"</t>
-  </si>
-  <si>
-    <t>Jan 25, 2022,"0.61760","0.61203","0.62270","0.58659","639.44M","0.90%"</t>
-  </si>
-  <si>
-    <t>Jan 24, 2022,"0.61208","0.62868","0.62868","0.55498","1.03B","-2.65%"</t>
-  </si>
-  <si>
-    <t>Jan 23, 2022,"0.62873","0.59679","0.63494","0.59030","658.65M","5.36%"</t>
-  </si>
-  <si>
-    <t>Jan 22, 2022,"0.59674","0.63720","0.65281","0.55200","1.45B","-6.37%"</t>
-  </si>
-  <si>
-    <t>Jan 21, 2022,"0.63732","0.72025","0.72835","0.61332","1.14B","-11.54%"</t>
-  </si>
-  <si>
-    <t>Jan 20, 2022,"0.72044","0.73819","0.76195","0.71648","398.80M","-2.38%"</t>
-  </si>
-  <si>
-    <t>Jan 19, 2022,"0.73799","0.75090","0.75318","0.72406","394.07M","-1.78%"</t>
-  </si>
-  <si>
-    <t>Jan 18, 2022,"0.75136","0.76171","0.76844","0.73567","381.76M","-1.33%"</t>
-  </si>
-  <si>
-    <t>Jan 17, 2022,"0.76147","0.77844","0.78022","0.75064","353.39M","-2.18%"</t>
-  </si>
-  <si>
-    <t>Jan 16, 2022,"0.77843","0.77921","0.78416","0.76850","241.76M","-0.12%"</t>
-  </si>
-  <si>
-    <t>Jan 15, 2022,"0.77934","0.77313","0.78921","0.76841","265.12M","0.79%"</t>
-  </si>
-  <si>
-    <t>Jan 14, 2022,"0.77323","0.76752","0.79013","0.75279","410.72M","0.78%"</t>
-  </si>
-  <si>
-    <t>Jan 13, 2022,"0.76724","0.79807","0.80210","0.76089","422.74M","-3.84%"</t>
-  </si>
-  <si>
-    <t>Jan 12, 2022,"0.79788","0.76992","0.80681","0.75762","543.02M","3.64%"</t>
-  </si>
-  <si>
-    <t>Jan 11, 2022,"0.76986","0.74011","0.77445","0.73084","495.85M","4.02%"</t>
-  </si>
-  <si>
-    <t>Jan 10, 2022,"0.74013","0.75294","0.75892","0.70058","566.01M","-1.69%"</t>
-  </si>
-  <si>
-    <t>Jan 09, 2022,"0.75283","0.74478","0.76650","0.73842","307.32M","1.09%"</t>
-  </si>
-  <si>
-    <t>Jan 08, 2022,"0.74471","0.76271","0.77617","0.72319","471.11M","-2.35%"</t>
-  </si>
-  <si>
-    <t>Jan 07, 2022,"0.76260","0.77904","0.78057","0.72996","688.04M","-2.18%"</t>
-  </si>
-  <si>
-    <t>Jan 06, 2022,"0.77960","0.77137","0.79055","0.74005","584.96M","1.08%"</t>
-  </si>
-  <si>
-    <t>Jan 05, 2022,"0.77125","0.82271","0.83655","0.71549","631.16M","-6.27%"</t>
-  </si>
-  <si>
-    <t>Jan 04, 2022,"0.82285","0.83183","0.84489","0.81716","395.68M","-1.07%"</t>
-  </si>
-  <si>
-    <t>Jan 03, 2022,"0.83173","0.85867","0.85867","0.82199","363.28M","-3.14%"</t>
-  </si>
-  <si>
-    <t>Jan 02, 2022,"0.85871","0.85003","0.86380","0.83745","254.07M","1.02%"</t>
-  </si>
-  <si>
-    <t>Jan 01, 2022,"0.85001","0.83007","0.85483","0.82553","266.53M","2.42%"</t>
-  </si>
-  <si>
-    <t>Dec 31, 2021,"0.82995","0.83871","0.85350","0.80292","457.62M","-1.04%"</t>
-  </si>
-  <si>
-    <t>Dec 30, 2021,"0.83868","0.81681","0.85856","0.80420","502.92M","2.72%"</t>
-  </si>
-  <si>
-    <t>Dec 29, 2021,"0.81650","0.85164","0.86439","0.81180","574.42M","-4.07%"</t>
-  </si>
-  <si>
-    <t>Dec 28, 2021,"0.85112","0.92664","0.92677","0.84575","604.16M","-8.11%"</t>
-  </si>
-  <si>
-    <t>Dec 27, 2021,"0.92622","0.91969","0.95497","0.91523","442.48M","0.70%"</t>
-  </si>
-  <si>
-    <t>Dec 26, 2021,"0.91982","0.92522","0.93305","0.90568","313.23M","-0.59%"</t>
-  </si>
-  <si>
-    <t>Dec 25, 2021,"0.92525","0.91059","0.93343","0.89917","464.59M","1.61%"</t>
-  </si>
-  <si>
-    <t>Dec 24, 2021,"0.91061","0.99394","0.99588","0.89383","998.32M","-8.39%"</t>
-  </si>
-  <si>
-    <t>Dec 23, 2021,"0.99398","0.95368","1.01612","0.93870","967.00M","4.21%"</t>
-  </si>
-  <si>
-    <t>Dec 22, 2021,"0.95380","0.94683","0.97227","0.92432","772.54M","0.73%"</t>
-  </si>
-  <si>
-    <t>Dec 21, 2021,"0.94692","0.87956","0.96040","0.85315","888.15M","7.78%"</t>
-  </si>
-  <si>
-    <t>Dec 20, 2021,"0.87856","0.83512","0.91359","0.82500","1.05B","5.21%"</t>
-  </si>
-  <si>
-    <t>Dec 19, 2021,"0.83508","0.82643","0.84793","0.81969","326.03M","1.05%"</t>
-  </si>
-  <si>
-    <t>Dec 18, 2021,"0.82643","0.79749","0.83415","0.79116","333.85M","3.63%"</t>
-  </si>
-  <si>
-    <t>Dec 17, 2021,"0.79749","0.80538","0.83061","0.77668","508.54M","-0.96%"</t>
-  </si>
-  <si>
-    <t>Dec 16, 2021,"0.80519","0.82623","0.83616","0.80352","410.59M","-2.56%"</t>
-  </si>
-  <si>
-    <t>Dec 15, 2021,"0.82632","0.81025","0.83954","0.77780","748.92M","1.92%"</t>
-  </si>
-  <si>
-    <t>Dec 14, 2021,"0.81079","0.78181","0.82051","0.77359","753.47M","3.71%"</t>
-  </si>
-  <si>
-    <t>Dec 13, 2021,"0.78180","0.83971","0.84387","0.76124","701.25M","-6.92%"</t>
-  </si>
-  <si>
-    <t>Dec 12, 2021,"0.83990","0.83767","0.85633","0.80961","441.73M","0.32%"</t>
-  </si>
-  <si>
-    <t>Dec 11, 2021,"0.83722","0.79999","0.84336","0.78641","561.08M","4.76%"</t>
-  </si>
-  <si>
-    <t>Dec 10, 2021,"0.79916","0.85795","0.88198","0.79526","957.23M","-6.87%"</t>
-  </si>
-  <si>
-    <t>Dec 09, 2021,"0.85809","0.86167","0.93300","0.83285","1.26B","-0.39%"</t>
-  </si>
-  <si>
-    <t>Dec 08, 2021,"0.86148","0.81535","0.88302","0.80486","811.57M","5.65%"</t>
-  </si>
-  <si>
-    <t>Dec 07, 2021,"0.81538","0.82645","0.84411","0.80487","635.49M","-1.37%"</t>
-  </si>
-  <si>
-    <t>Dec 06, 2021,"0.82668","0.80417","0.82979","0.75038","974.49M","2.81%"</t>
-  </si>
-  <si>
-    <t>Dec 05, 2021,"0.80406","0.84530","0.85931","0.77893","963.26M","-5.07%"</t>
-  </si>
-  <si>
-    <t>Dec 04, 2021,"0.84697","0.92132","0.92437","0.62065","2.19B","-8.07%"</t>
-  </si>
-  <si>
-    <t>Dec 03, 2021,"0.92135","0.97187","0.98335","0.89673","582.44M","-5.23%"</t>
-  </si>
-  <si>
-    <t>Dec 02, 2021,"0.97217","0.98955","0.98995","0.95647","429.13M","-1.76%"</t>
-  </si>
-  <si>
-    <t>Dec 01, 2021,"0.98958","0.99842","1.01722","0.98043","478.61M","-0.81%"</t>
-  </si>
-  <si>
-    <t>Nov 30, 2021,"0.99761","0.98945","1.02975","0.97116","653.91M","0.82%"</t>
-  </si>
-  <si>
-    <t>Nov 29, 2021,"0.98950","0.96887","1.00149","0.96318","598.77M","2.11%"</t>
-  </si>
-  <si>
-    <t>Nov 28, 2021,"0.96903","0.94528","0.96903","0.89020","643.46M","2.49%"</t>
-  </si>
-  <si>
-    <t>Nov 27, 2021,"0.94547","0.93854","0.96495","0.93403","443.48M","0.74%"</t>
-  </si>
-  <si>
-    <t>Nov 26, 2021,"0.93854","1.04277","1.04635","0.92297","1.15B","-9.99%"</t>
-  </si>
-  <si>
-    <t>Nov 25, 2021,"1.04267","1.03266","1.06370","1.02212","604.41M","0.93%"</t>
-  </si>
-  <si>
-    <t>Nov 24, 2021,"1.03310","1.07209","1.07289","1.00944","656.76M","-3.64%"</t>
-  </si>
-  <si>
-    <t>Nov 23, 2021,"1.07209","1.03539","1.08177","1.02151","664.53M","3.54%"</t>
-  </si>
-  <si>
-    <t>Nov 22, 2021,"1.03548","1.05808","1.06802","1.02616","647.38M","-2.13%"</t>
-  </si>
-  <si>
-    <t>Nov 21, 2021,"1.05799","1.09615","1.09715","1.05532","468.55M","-3.48%"</t>
-  </si>
-  <si>
-    <t>Nov 20, 2021,"1.09614","1.08957","1.10099","1.06209","493.24M","0.60%"</t>
-  </si>
-  <si>
-    <t>Nov 19, 2021,"1.08963","1.04144","1.09849","1.01839","711.47M","4.64%"</t>
-  </si>
-  <si>
-    <t>Nov 18, 2021,"1.04133","1.09558","1.15799","1.01932","1.34B","-4.96%"</t>
-  </si>
-  <si>
-    <t>Nov 17, 2021,"1.09570","1.08842","1.11245","1.05976","777.75M","0.66%"</t>
-  </si>
-  <si>
-    <t>Nov 16, 2021,"1.08851","1.17207","1.17222","1.04887","1.14B","-7.14%"</t>
-  </si>
-  <si>
-    <t>Nov 15, 2021,"1.17221","1.18798","1.21934","1.16787","537.98M","-1.32%"</t>
-  </si>
-  <si>
-    <t>Nov 14, 2021,"1.18792","1.18937","1.19920","1.16771","389.09M","-0.12%"</t>
-  </si>
-  <si>
-    <t>Nov 13, 2021,"1.18937","1.18828","1.20359","1.16787","467.52M","0.08%"</t>
-  </si>
-  <si>
-    <t>Nov 12, 2021,"1.18836","1.21489","1.23284","1.15537","617.77M","-2.19%"</t>
-  </si>
-  <si>
-    <t>Nov 11, 2021,"1.21499","1.19227","1.25419","1.17713","647.85M","1.91%"</t>
-  </si>
-  <si>
-    <t>Nov 10, 2021,"1.19223","1.25619","1.34634","1.13594","1.26B","-5.08%"</t>
-  </si>
-  <si>
-    <t>Nov 09, 2021,"1.25608","1.28185","1.28767","1.23000","622.97M","-2.01%"</t>
-  </si>
-  <si>
-    <t>Nov 08, 2021,"1.28185","1.21795","1.29468","1.21795","788.09M","5.25%"</t>
-  </si>
-  <si>
-    <t>Nov 07, 2021,"1.21790","1.15138","1.23613","1.14525","471.70M","5.79%"</t>
-  </si>
-  <si>
-    <t>Nov 06, 2021,"1.15120","1.15824","1.17332","1.10715","356.14M","-0.61%"</t>
-  </si>
-  <si>
-    <t>Nov 05, 2021,"1.15831","1.20139","1.20139","1.13652","464.16M","-3.59%"</t>
-  </si>
-  <si>
-    <t>Nov 04, 2021,"1.20147","1.21010","1.25508","1.16534","738.50M","-0.71%"</t>
-  </si>
-  <si>
-    <t>Nov 03, 2021,"1.21010","1.13516","1.23390","1.12586","1.12B","6.61%"</t>
-  </si>
-  <si>
-    <t>Nov 02, 2021,"1.13513","1.09204","1.14612","1.08558","518.14M","3.94%"</t>
-  </si>
-  <si>
-    <t>Nov 01, 2021,"1.09205","1.11265","1.13100","1.07103","501.80M","-1.84%"</t>
-  </si>
-  <si>
-    <t>Oct 31, 2021,"1.11257","1.08409","1.15205","1.07002","823.88M","2.63%"</t>
-  </si>
-  <si>
-    <t>Oct 30, 2021,"1.08406","1.08107","1.11542","1.06318","479.64M","0.29%"</t>
-  </si>
-  <si>
-    <t>Oct 29, 2021,"1.08098","1.05806","1.09004","1.05521","484.84M","2.18%"</t>
-  </si>
-  <si>
-    <t>Oct 28, 2021,"1.05793","0.99358","1.08086","0.98220","906.77M","6.49%"</t>
-  </si>
-  <si>
-    <t>Oct 27, 2021,"0.99349","1.10671","1.12462","0.95469","1.35B","-10.23%"</t>
-  </si>
-  <si>
-    <t>Oct 26, 2021,"1.10674","1.09527","1.15926","1.09314","589.66M","1.05%"</t>
-  </si>
-  <si>
-    <t>Oct 25, 2021,"1.09527","1.08231","1.10274","1.07836","302.26M","1.19%"</t>
-  </si>
-  <si>
-    <t>Oct 24, 2021,"1.08235","1.09354","1.09548","1.05684","315.37M","-1.02%"</t>
-  </si>
-  <si>
-    <t>Oct 23, 2021,"1.09354","1.08903","1.10149","1.07665","263.60M","0.40%"</t>
-  </si>
-  <si>
-    <t>Oct 22, 2021,"1.08919","1.08836","1.12831","1.07813","475.46M","0.08%"</t>
-  </si>
-  <si>
-    <t>Oct 21, 2021,"1.08836","1.14380","1.16343","1.08712","619.77M","-4.83%"</t>
-  </si>
-  <si>
-    <t>Oct 20, 2021,"1.14366","1.09105","1.15254","1.08703","488.43M","4.81%"</t>
-  </si>
-  <si>
-    <t>Oct 19, 2021,"1.09113","1.08310","1.09965","1.06956","349.32M","0.74%"</t>
-  </si>
-  <si>
-    <t>Oct 18, 2021,"1.08314","1.09294","1.10583","1.06503","465.84M","-0.90%"</t>
-  </si>
-  <si>
-    <t>Oct 17, 2021,"1.09294","1.13400","1.14054","1.02483","536.15M","-3.62%"</t>
-  </si>
-  <si>
-    <t>Oct 16, 2021,"1.13400","1.14136","1.18519","1.13049","473.80M","-0.63%"</t>
-  </si>
-  <si>
-    <t>Oct 15, 2021,"1.14125","1.13324","1.16356","1.09733","883.12M","0.71%"</t>
-  </si>
-  <si>
-    <t>Oct 14, 2021,"1.13316","1.12775","1.15643","1.11852","481.87M","0.47%"</t>
-  </si>
-  <si>
-    <t>Oct 13, 2021,"1.12786","1.10073","1.13807","1.07560","550.37M","2.47%"</t>
-  </si>
-  <si>
-    <t>Oct 12, 2021,"1.10069","1.13769","1.13769","1.06589","626.45M","-3.25%"</t>
-  </si>
-  <si>
-    <t>Oct 11, 2021,"1.13769","1.13554","1.18138","1.10758","580.27M","0.17%"</t>
-  </si>
-  <si>
-    <t>Oct 10, 2021,"1.13577","1.16036","1.22162","1.12951","856.25M","-2.04%"</t>
-  </si>
-  <si>
-    <t>Oct 09, 2021,"1.15945","1.06240","1.20814","1.05756","876.03M","9.19%"</t>
-  </si>
-  <si>
-    <t>Oct 08, 2021,"1.06190","1.06764","1.09167","1.05582","462.56M","-0.43%"</t>
-  </si>
-  <si>
-    <t>Oct 07, 2021,"1.06651","1.07623","1.09379","1.04492","567.98M","-0.90%"</t>
-  </si>
-  <si>
-    <t>Oct 06, 2021,"1.07619","1.08399","1.10702","1.01950","702.12M","-0.80%"</t>
-  </si>
-  <si>
-    <t>Oct 05, 2021,"1.08482","1.04172","1.08748","1.03819","580.60M","4.15%"</t>
-  </si>
-  <si>
-    <t>Oct 04, 2021,"1.04159","1.05505","1.05956","1.00670","566.15M","-1.27%"</t>
-  </si>
-  <si>
-    <t>Oct 03, 2021,"1.05503","1.03620","1.08804","1.02110","554.18M","1.82%"</t>
-  </si>
-  <si>
-    <t>Oct 02, 2021,"1.03620","1.04213","1.06994","1.00872","548.19M","-0.48%"</t>
-  </si>
-  <si>
-    <t>Oct 01, 2021,"1.04119","0.95324","1.06459","0.94442","878.85M","9.22%"</t>
-  </si>
-  <si>
-    <t>Sep 30, 2021,"0.95329","0.92671","0.96368","0.92219","449.64M","2.86%"</t>
-  </si>
-  <si>
-    <t>Sep 29, 2021,"0.92679","0.89310","0.99071","0.88656","639.76M","3.77%"</t>
-  </si>
-  <si>
-    <t>Sep 28, 2021,"0.89311","0.92192","0.94198","0.89120","450.34M","-3.12%"</t>
-  </si>
-  <si>
-    <t>Sep 27, 2021,"0.92189","0.94408","0.98126","0.92062","505.21M","-2.40%"</t>
-  </si>
-  <si>
-    <t>Sep 26, 2021,"0.94451","0.94014","0.95629","0.89226","574.12M","0.47%"</t>
-  </si>
-  <si>
-    <t>Sep 25, 2021,"0.94014","0.94405","0.95569","0.91684","496.37M","-0.48%"</t>
-  </si>
-  <si>
-    <t>Sep 24, 2021,"0.94465","1.00141","1.00242","0.88723","885.52M","-5.67%"</t>
-  </si>
-  <si>
-    <t>Sep 23, 2021,"1.00139","1.00368","1.01551","0.96860","574.02M","-0.23%"</t>
-  </si>
-  <si>
-    <t>Sep 22, 2021,"1.00373","0.87353","1.00825","0.86813","881.87M","14.94%"</t>
-  </si>
-  <si>
-    <t>Sep 21, 2021,"0.87323","0.92114","0.95866","0.85900","931.83M","-5.19%"</t>
-  </si>
-  <si>
-    <t>Sep 20, 2021,"0.92107","1.04818","1.04944","0.87844","1.28B","-12.11%"</t>
-  </si>
-  <si>
-    <t>Sep 19, 2021,"1.04801","1.07556","1.08348","1.04033","296.88M","-2.56%"</t>
-  </si>
-  <si>
-    <t>Sep 18, 2021,"1.07557","1.06601","1.09406","1.05683","274.75M","0.90%"</t>
-  </si>
-  <si>
-    <t>Sep 17, 2021,"1.06601","1.09031","1.10216","1.05127","440.08M","-2.23%"</t>
-  </si>
-  <si>
-    <t>Sep 16, 2021,"1.09030","1.12067","1.12973","1.06744","440.80M","-2.71%"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1219">
+  <si>
+    <t>Date,Close/Last,Volume,Open,High,Low</t>
+  </si>
+  <si>
+    <t>09/15/2022,0.32615,N/A,0.33561,0.32787,0.3219</t>
+  </si>
+  <si>
+    <t>09/14/2022,0.33557,N/A,0.33554,0.34221,0.33281</t>
+  </si>
+  <si>
+    <t>09/13/2022,0.33564,N/A,0.35298,0.33571,0.33153</t>
+  </si>
+  <si>
+    <t>09/12/2022,0.35223,N/A,0.3497,0.36019,0.35124</t>
+  </si>
+  <si>
+    <t>09/11/2022,0.34899,N/A,0.35617,0.35793,0.348</t>
+  </si>
+  <si>
+    <t>09/10/2022,0.35542,N/A,0.35482,0.35899,0.35485</t>
+  </si>
+  <si>
+    <t>09/09/2022,0.35662,N/A,0.34477,0.35874,0.35225</t>
+  </si>
+  <si>
+    <t>09/08/2022,0.3454,N/A,0.33219,0.34608,0.33946</t>
+  </si>
+  <si>
+    <t>09/07/2022,0.33197,N/A,0.31837,0.33735,0.33081</t>
+  </si>
+  <si>
+    <t>09/06/2022,0.3181,N/A,0.33393,0.32313,0.31367</t>
+  </si>
+  <si>
+    <t>09/05/2022,0.33361,N/A,0.33037,0.34304,0.33097</t>
+  </si>
+  <si>
+    <t>09/04/2022,0.33066,N/A,0.33038,0.3332,0.33033</t>
+  </si>
+  <si>
+    <t>09/03/2022,0.33001,N/A,0.3283,0.33128,0.32917</t>
+  </si>
+  <si>
+    <t>09/02/2022,0.32819,N/A,0.33122,0.33356,0.32771</t>
+  </si>
+  <si>
+    <t>09/01/2022,0.33126,N/A,0.32375,0.33345,0.32816</t>
+  </si>
+  <si>
+    <t>08/31/2022,0.32348,N/A,0.33217,0.3292,0.32264</t>
+  </si>
+  <si>
+    <t>08/30/2022,0.33181,N/A,0.33,0.33262,0.32668</t>
+  </si>
+  <si>
+    <t>08/29/2022,0.32917,N/A,0.32336,0.33403,0.32847</t>
+  </si>
+  <si>
+    <t>08/28/2022,0.32324,N/A,0.33428,0.32499,0.31888</t>
+  </si>
+  <si>
+    <t>08/27/2022,0.33442,N/A,0.33662,0.33614,0.33241</t>
+  </si>
+  <si>
+    <t>08/26/2022,0.33659,N/A,0.34743,0.34365,0.3327</t>
+  </si>
+  <si>
+    <t>08/25/2022,0.34699,N/A,0.34139,0.35014,0.34366</t>
+  </si>
+  <si>
+    <t>08/24/2022,0.34502,N/A,0.33972,0.35014,0.34366</t>
+  </si>
+  <si>
+    <t>08/23/2022,0.33972,N/A,0.33878,0.34752,0.33903</t>
+  </si>
+  <si>
+    <t>08/22/2022,0.3395,N/A,0.33709,0.34464,0.33921</t>
+  </si>
+  <si>
+    <t>08/21/2022,0.34437,N/A,0.3417,0.34702,0.33552</t>
+  </si>
+  <si>
+    <t>08/20/2022,0.33643,N/A,0.34003,0.33994,0.33552</t>
+  </si>
+  <si>
+    <t>08/19/2022,0.33919,N/A,0.36088,0.34088,0.33443</t>
+  </si>
+  <si>
+    <t>08/18/2022,0.36079,N/A,0.37407,0.37031,0.35981</t>
+  </si>
+  <si>
+    <t>08/17/2022,0.37372,N/A,0.38715,0.38112,0.37298</t>
+  </si>
+  <si>
+    <t>08/16/2022,0.38652,N/A,0.37159,0.39182,0.37691</t>
+  </si>
+  <si>
+    <t>08/15/2022,0.37201,N/A,0.38247,0.37721,0.36679</t>
+  </si>
+  <si>
+    <t>08/14/2022,0.3815,N/A,0.38368,0.38491,0.37431</t>
+  </si>
+  <si>
+    <t>08/13/2022,0.38439,N/A,0.3808,0.38834,0.37673</t>
+  </si>
+  <si>
+    <t>08/12/2022,0.38131,N/A,0.37635,0.3819,0.37817</t>
+  </si>
+  <si>
+    <t>08/11/2022,0.37721,N/A,0.38003,0.3805,0.37471</t>
+  </si>
+  <si>
+    <t>08/10/2022,0.38128,N/A,0.36252,0.38554,0.37943</t>
+  </si>
+  <si>
+    <t>08/09/2022,0.36154,N/A,0.37621,0.3676,0.35862</t>
+  </si>
+  <si>
+    <t>08/08/2022,0.37679,N/A,0.37267,0.37998,0.37464</t>
+  </si>
+  <si>
+    <t>08/07/2022,0.37329,N/A,0.37164,0.37444,0.3714</t>
+  </si>
+  <si>
+    <t>08/06/2022,0.3716,N/A,0.37536,0.37257,0.36819</t>
+  </si>
+  <si>
+    <t>08/05/2022,0.37389,N/A,0.3742,0.3776,0.37348</t>
+  </si>
+  <si>
+    <t>08/04/2022,0.37587,N/A,0.37113,0.37591,0.37006</t>
+  </si>
+  <si>
+    <t>08/03/2022,0.3712,N/A,0.36773,0.37438,0.36915</t>
+  </si>
+  <si>
+    <t>08/02/2022,0.36763,N/A,0.37088,0.37187,0.36322</t>
+  </si>
+  <si>
+    <t>08/01/2022,0.37086,N/A,0.38145,0.39344,0.36702</t>
+  </si>
+  <si>
+    <t>07/31/2022,0.38046,N/A,0.38855,0.38579,0.37842</t>
+  </si>
+  <si>
+    <t>07/30/2022,0.38777,N/A,0.36678,0.39376,0.38644</t>
+  </si>
+  <si>
+    <t>07/29/2022,0.36671,N/A,0.37571,0.3714,0.36481</t>
+  </si>
+  <si>
+    <t>07/28/2022,0.37623,N/A,0.35882,0.37659,0.36833</t>
+  </si>
+  <si>
+    <t>07/27/2022,0.35915,N/A,0.3308,0.3617,0.3552</t>
+  </si>
+  <si>
+    <t>07/26/2022,0.3306,N/A,0.33407,0.3395,0.33044</t>
+  </si>
+  <si>
+    <t>07/25/2022,0.33331,N/A,0.34605,0.33728,0.33043</t>
+  </si>
+  <si>
+    <t>07/24/2022,0.34534,N/A,0.3566,0.36011,0.34529</t>
+  </si>
+  <si>
+    <t>07/23/2022,0.35692,N/A,0.35847,0.36321,0.35681</t>
+  </si>
+  <si>
+    <t>07/22/2022,0.35971,N/A,0.3634,0.3604,0.3561</t>
+  </si>
+  <si>
+    <t>07/21/2022,0.36282,N/A,0.35566,0.36904,0.36189</t>
+  </si>
+  <si>
+    <t>07/20/2022,0.35608,N/A,0.3769,0.36692,0.35248</t>
+  </si>
+  <si>
+    <t>07/19/2022,0.37706,N/A,0.35505,0.37886,0.36777</t>
+  </si>
+  <si>
+    <t>07/18/2022,0.35543,N/A,0.35623,0.36911,0.35543</t>
+  </si>
+  <si>
+    <t>07/17/2022,0.35599,N/A,0.35299,0.35935,0.34307</t>
+  </si>
+  <si>
+    <t>07/16/2022,0.35271,N/A,0.33601,0.35404,0.34792</t>
+  </si>
+  <si>
+    <t>07/15/2022,0.33602,N/A,0.34445,0.33703,0.33157</t>
+  </si>
+  <si>
+    <t>07/14/2022,0.34301,N/A,0.32167,0.34864,0.33192</t>
+  </si>
+  <si>
+    <t>07/13/2022,0.32125,N/A,0.3117,0.32475,0.31957</t>
+  </si>
+  <si>
+    <t>07/12/2022,0.3116,N/A,0.31361,0.31431,0.30775</t>
+  </si>
+  <si>
+    <t>07/11/2022,0.31311,N/A,0.32559,0.31727,0.3127</t>
+  </si>
+  <si>
+    <t>07/10/2022,0.32509,N/A,0.33702,0.32888,0.3231</t>
+  </si>
+  <si>
+    <t>07/09/2022,0.33685,N/A,0.3429,0.34488,0.33627</t>
+  </si>
+  <si>
+    <t>07/08/2022,0.34315,N/A,0.35481,0.34437,0.33966</t>
+  </si>
+  <si>
+    <t>07/07/2022,0.355,N/A,0.32949,0.35837,0.34192</t>
+  </si>
+  <si>
+    <t>07/06/2022,0.32891,N/A,0.322,0.33475,0.32692</t>
+  </si>
+  <si>
+    <t>07/05/2022,0.32162,N/A,0.3265,0.32691,0.32008</t>
+  </si>
+  <si>
+    <t>07/03/2022,0.31189,N/A,0.31183,0.31663,0.30916</t>
+  </si>
+  <si>
+    <t>07/02/2022,0.31517,N/A,0.311,0.31606,0.31282</t>
+  </si>
+  <si>
+    <t>07/01/2022,0.3117,N/A,0.32213,0.31562,0.30989</t>
+  </si>
+  <si>
+    <t>06/30/2022,0.32495,N/A,0.32579,0.33446,0.32495</t>
+  </si>
+  <si>
+    <t>06/29/2022,0.32556,N/A,0.33615,0.33063,0.32249</t>
+  </si>
+  <si>
+    <t>06/28/2022,0.33513,N/A,0.34444,0.34153,0.3342</t>
+  </si>
+  <si>
+    <t>06/27/2022,0.34372,N/A,0.36458,0.3556,0.34103</t>
+  </si>
+  <si>
+    <t>06/26/2022,0.36369,N/A,0.36588,0.36696,0.3589</t>
+  </si>
+  <si>
+    <t>06/25/2022,0.36491,N/A,0.36872,0.36961,0.3631</t>
+  </si>
+  <si>
+    <t>06/24/2022,0.3699,N/A,0.36744,0.37378,0.36278</t>
+  </si>
+  <si>
+    <t>06/23/2022,0.37012,N/A,0.32399,0.37603,0.33513</t>
+  </si>
+  <si>
+    <t>06/22/2022,0.32342,N/A,0.32162,0.3297,0.32142</t>
+  </si>
+  <si>
+    <t>06/21/2022,0.32169,N/A,0.32407,0.32958,0.32161</t>
+  </si>
+  <si>
+    <t>06/20/2022,0.32363,N/A,0.31809,0.32629,0.31922</t>
+  </si>
+  <si>
+    <t>06/19/2022,0.31911,N/A,0.3008,0.32803,0.31637</t>
+  </si>
+  <si>
+    <t>06/18/2022,0.30239,N/A,0.31997,0.3111,0.301</t>
+  </si>
+  <si>
+    <t>06/17/2022,0.31986,N/A,0.32352,0.32627,0.31657</t>
+  </si>
+  <si>
+    <t>06/16/2022,0.32418,N/A,0.3349,0.3305,0.31065</t>
+  </si>
+  <si>
+    <t>06/15/2022,0.33588,N/A,0.31332,0.34696,0.33493</t>
+  </si>
+  <si>
+    <t>06/14/2022,0.31487,N/A,0.31406,0.32399,0.31448</t>
+  </si>
+  <si>
+    <t>06/13/2022,0.31435,N/A,0.33112,0.31568,0.29388</t>
+  </si>
+  <si>
+    <t>06/12/2022,0.33075,N/A,0.34489,0.34993,0.32483</t>
+  </si>
+  <si>
+    <t>06/11/2022,0.3458,N/A,0.38471,0.36233,0.34057</t>
+  </si>
+  <si>
+    <t>06/10/2022,0.38518,N/A,0.40161,0.38536,0.38089</t>
+  </si>
+  <si>
+    <t>06/09/2022,0.40274,N/A,0.40054,0.40319,0.39467</t>
+  </si>
+  <si>
+    <t>06/08/2022,0.40077,N/A,0.4044,0.40189,0.39756</t>
+  </si>
+  <si>
+    <t>06/07/2022,0.39801,N/A,0.38626,0.41019,0.39636</t>
+  </si>
+  <si>
+    <t>06/06/2022,0.38878,N/A,0.40189,0.40277,0.38513</t>
+  </si>
+  <si>
+    <t>06/05/2022,0.40294,N/A,0.39137,0.40378,0.39419</t>
+  </si>
+  <si>
+    <t>06/04/2022,0.39121,N/A,0.38614,0.39437,0.38965</t>
+  </si>
+  <si>
+    <t>06/03/2022,0.38648,N/A,0.40845,0.39118,0.38497</t>
+  </si>
+  <si>
+    <t>06/02/2022,0.40815,N/A,0.39739,0.41032,0.40391</t>
+  </si>
+  <si>
+    <t>06/01/2022,0.3941,N/A,0.41712,0.39922,0.3941</t>
+  </si>
+  <si>
+    <t>05/31/2022,0.41757,N/A,0.4186,0.42625,0.41716</t>
+  </si>
+  <si>
+    <t>05/30/2022,0.39838,N/A,0.3858,0.40495,0.38699</t>
+  </si>
+  <si>
+    <t>05/29/2022,0.39771,N/A,0.38276,0.40189,0.38699</t>
+  </si>
+  <si>
+    <t>05/28/2022,0.38207,N/A,0.38524,0.38692,0.37945</t>
+  </si>
+  <si>
+    <t>05/27/2022,0.38508,N/A,0.39866,0.3872,0.38068</t>
+  </si>
+  <si>
+    <t>05/26/2022,0.39905,N/A,0.40817,0.40001,0.38576</t>
+  </si>
+  <si>
+    <t>05/25/2022,0.40761,N/A,0.41108,0.41088,0.40582</t>
+  </si>
+  <si>
+    <t>05/24/2022,0.4113,N/A,0.41142,0.41329,0.40658</t>
+  </si>
+  <si>
+    <t>05/23/2022,0.41113,N/A,0.41995,0.41209,0.4037</t>
+  </si>
+  <si>
+    <t>05/22/2022,0.41987,N/A,0.413,0.42479,0.41774</t>
+  </si>
+  <si>
+    <t>05/21/2022,0.41245,N/A,0.41166,0.41578,0.41218</t>
+  </si>
+  <si>
+    <t>05/20/2022,0.41019,N/A,0.4313,0.41232,0.40368</t>
+  </si>
+  <si>
+    <t>05/19/2022,0.43086,N/A,0.40951,0.43395,0.41751</t>
+  </si>
+  <si>
+    <t>05/18/2022,0.4103,N/A,0.42847,0.4128,0.392</t>
+  </si>
+  <si>
+    <t>05/17/2022,0.42826,N/A,0.43483,0.44248,0.42775</t>
+  </si>
+  <si>
+    <t>05/16/2022,0.43604,N/A,0.43325,0.43708,0.42291</t>
+  </si>
+  <si>
+    <t>05/15/2022,0.43186,N/A,0.4191,0.44798,0.43077</t>
+  </si>
+  <si>
+    <t>05/14/2022,0.41847,N/A,0.4353,0.43065,0.41537</t>
+  </si>
+  <si>
+    <t>05/13/2022,0.43519,N/A,0.44527,0.44069,0.42042</t>
+  </si>
+  <si>
+    <t>05/12/2022,0.44385,N/A,0.3817,0.44485,0.38092</t>
+  </si>
+  <si>
+    <t>05/11/2022,0.38672,N/A,0.51508,0.4288,0.38088</t>
+  </si>
+  <si>
+    <t>05/10/2022,0.51651,N/A,0.49942,0.52239,0.50719</t>
+  </si>
+  <si>
+    <t>05/09/2022,0.50104,N/A,0.56429,0.50871,0.47336</t>
+  </si>
+  <si>
+    <t>05/08/2022,0.56728,N/A,0.57468,0.57851,0.55812</t>
+  </si>
+  <si>
+    <t>05/07/2022,0.57389,N/A,0.59497,0.58286,0.56973</t>
+  </si>
+  <si>
+    <t>05/06/2022,0.59702,N/A,0.60957,0.6043,0.59571</t>
+  </si>
+  <si>
+    <t>05/05/2022,0.60802,N/A,0.64894,0.61571,0.59458</t>
+  </si>
+  <si>
+    <t>05/04/2022,0.64928,N/A,0.61512,0.6567,0.64582</t>
+  </si>
+  <si>
+    <t>05/03/2022,0.61546,N/A,0.62371,0.61811,0.60422</t>
+  </si>
+  <si>
+    <t>05/02/2022,0.62283,N/A,0.61857,0.62727,0.61429</t>
+  </si>
+  <si>
+    <t>05/01/2022,0.61891,N/A,0.59145,0.6235,0.60532</t>
+  </si>
+  <si>
+    <t>04/30/2022,0.59047,N/A,0.61977,0.59385,0.57763</t>
+  </si>
+  <si>
+    <t>04/29/2022,0.62007,N/A,0.63696,0.62141,0.61054</t>
+  </si>
+  <si>
+    <t>04/28/2022,0.63646,N/A,0.64786,0.64692,0.63356</t>
+  </si>
+  <si>
+    <t>04/27/2022,0.64767,N/A,0.64926,0.65566,0.64761</t>
+  </si>
+  <si>
+    <t>04/26/2022,0.64952,N/A,0.69661,0.65172,0.63702</t>
+  </si>
+  <si>
+    <t>04/25/2022,0.69581,N/A,0.68215,0.70558,0.68946</t>
+  </si>
+  <si>
+    <t>04/24/2022,0.68231,N/A,0.70961,0.69926,0.67738</t>
+  </si>
+  <si>
+    <t>04/23/2022,0.70984,N/A,0.71247,0.71048,0.70535</t>
+  </si>
+  <si>
+    <t>04/22/2022,0.71155,N/A,0.73179,0.72631,0.70917</t>
+  </si>
+  <si>
+    <t>04/21/2022,0.73229,N/A,0.75369,0.73495,0.72901</t>
+  </si>
+  <si>
+    <t>04/20/2022,0.7536,N/A,0.76862,0.75711,0.7513</t>
+  </si>
+  <si>
+    <t>04/19/2022,0.76775,N/A,0.76933,0.77512,0.76259</t>
+  </si>
+  <si>
+    <t>04/18/2022,0.76756,N/A,0.75785,0.77639,0.76723</t>
+  </si>
+  <si>
+    <t>04/17/2022,0.77561,N/A,0.77481,0.78582,0.77148</t>
+  </si>
+  <si>
+    <t>04/16/2022,0.7752,N/A,0.78432,0.78468,0.77148</t>
+  </si>
+  <si>
+    <t>04/15/2022,0.78613,N/A,0.78681,0.7988,0.77886</t>
+  </si>
+  <si>
+    <t>04/14/2022,0.78729,N/A,0.73645,0.78729,0.72625</t>
+  </si>
+  <si>
+    <t>04/13/2022,0.73465,N/A,0.71462,0.7406,0.72221</t>
+  </si>
+  <si>
+    <t>04/12/2022,0.71571,N/A,0.70027,0.71945,0.71024</t>
+  </si>
+  <si>
+    <t>04/11/2022,0.70109,N/A,0.73872,0.70496,0.69364</t>
+  </si>
+  <si>
+    <t>04/10/2022,0.73853,N/A,0.76585,0.7555,0.7323</t>
+  </si>
+  <si>
+    <t>04/09/2022,0.7663,N/A,0.76171,0.76816,0.76001</t>
+  </si>
+  <si>
+    <t>04/08/2022,0.76109,N/A,0.79299,0.76271,0.75408</t>
+  </si>
+  <si>
+    <t>04/07/2022,0.79119,N/A,0.76899,0.79192,0.78485</t>
+  </si>
+  <si>
+    <t>04/06/2022,0.76855,N/A,0.80906,0.7733,0.75295</t>
+  </si>
+  <si>
+    <t>04/05/2022,0.80952,N/A,0.8268,0.81733,0.782</t>
+  </si>
+  <si>
+    <t>04/04/2022,0.82715,N/A,0.83026,0.83066,0.82357</t>
+  </si>
+  <si>
+    <t>04/03/2022,0.83093,N/A,0.82799,0.84317,0.82935</t>
+  </si>
+  <si>
+    <t>04/02/2022,0.82946,N/A,0.82898,0.84972,0.8203</t>
+  </si>
+  <si>
+    <t>04/01/2022,0.83707,N/A,0.82037,0.84058,0.82483</t>
+  </si>
+  <si>
+    <t>03/31/2022,0.81637,N/A,0.86191,0.83136,0.80804</t>
+  </si>
+  <si>
+    <t>03/30/2022,0.86266,N/A,0.86139,0.87097,0.85837</t>
+  </si>
+  <si>
+    <t>03/29/2022,0.86229,N/A,0.87072,0.86391,0.84659</t>
+  </si>
+  <si>
+    <t>03/28/2022,0.8707,N/A,0.87025,0.87874,0.8629</t>
+  </si>
+  <si>
+    <t>03/27/2022,0.86953,N/A,0.83584,0.87259,0.85351</t>
+  </si>
+  <si>
+    <t>03/26/2022,0.83418,N/A,0.82655,0.84235,0.83121</t>
+  </si>
+  <si>
+    <t>03/25/2022,0.82622,N/A,0.83936,0.82752,0.82067</t>
+  </si>
+  <si>
+    <t>03/24/2022,0.8387,N/A,0.83174,0.84547,0.83763</t>
+  </si>
+  <si>
+    <t>03/23/2022,0.83418,N/A,0.82801,0.84479,0.82739</t>
+  </si>
+  <si>
+    <t>03/22/2022,0.82818,N/A,0.85153,0.84563,0.82722</t>
+  </si>
+  <si>
+    <t>03/21/2022,0.85407,N/A,0.79948,0.85929,0.83486</t>
+  </si>
+  <si>
+    <t>03/20/2022,0.79872,N/A,0.8141,0.80831,0.78882</t>
+  </si>
+  <si>
+    <t>03/19/2022,0.81518,N/A,0.79672,0.8217,0.80863</t>
+  </si>
+  <si>
+    <t>03/18/2022,0.79276,N/A,0.7878,0.79915,0.79181</t>
+  </si>
+  <si>
+    <t>03/17/2022,0.7869,N/A,0.79298,0.80049,0.7839</t>
+  </si>
+  <si>
+    <t>03/16/2022,0.79274,N/A,0.76078,0.79811,0.78794</t>
+  </si>
+  <si>
+    <t>03/15/2022,0.76095,N/A,0.76235,0.78846,0.75948</t>
+  </si>
+  <si>
+    <t>03/14/2022,0.76223,N/A,0.76147,0.77608,0.75967</t>
+  </si>
+  <si>
+    <t>03/13/2022,0.75925,N/A,0.79604,0.77961,0.74565</t>
+  </si>
+  <si>
+    <t>03/12/2022,0.79806,N/A,0.81114,0.79905,0.78417</t>
+  </si>
+  <si>
+    <t>03/11/2022,0.81535,N/A,0.73642,0.84877,0.79675</t>
+  </si>
+  <si>
+    <t>03/10/2022,0.73611,N/A,0.7396,0.73966,0.72749</t>
+  </si>
+  <si>
+    <t>03/09/2022,0.74189,N/A,0.74819,0.77842,0.73828</t>
+  </si>
+  <si>
+    <t>03/08/2022,0.74835,N/A,0.72679,0.74983,0.72021</t>
+  </si>
+  <si>
+    <t>03/07/2022,0.72642,N/A,0.72136,0.7299,0.7164</t>
+  </si>
+  <si>
+    <t>03/06/2022,0.72269,N/A,0.74277,0.72627,0.7093</t>
+  </si>
+  <si>
+    <t>03/03/2022,0.7513,N/A,0.76885,0.78857,0.73518</t>
+  </si>
+  <si>
+    <t>03/02/2022,0.76931,N/A,0.77434,0.78857,0.76031</t>
+  </si>
+  <si>
+    <t>03/01/2022,0.77554,N/A,0.77677,0.78396,0.76482</t>
+  </si>
+  <si>
+    <t>02/28/2022,0.77493,N/A,0.72028,0.78835,0.76463</t>
+  </si>
+  <si>
+    <t>02/27/2022,0.72015,N/A,0.73444,0.7315,0.71108</t>
+  </si>
+  <si>
+    <t>02/26/2022,0.7359,N/A,0.77539,0.7533,0.72266</t>
+  </si>
+  <si>
+    <t>02/25/2022,0.77694,N/A,0.69964,0.79063,0.76603</t>
+  </si>
+  <si>
+    <t>02/24/2022,0.69516,N/A,0.63936,0.70459,0.68852</t>
+  </si>
+  <si>
+    <t>02/23/2022,0.64852,N/A,0.71066,0.70326,0.63021</t>
+  </si>
+  <si>
+    <t>02/22/2022,0.71538,N/A,0.67851,0.72719,0.70571</t>
+  </si>
+  <si>
+    <t>02/21/2022,0.68047,N/A,0.78734,0.71353,0.67499</t>
+  </si>
+  <si>
+    <t>02/20/2022,0.79536,N/A,0.79839,0.80041,0.76989</t>
+  </si>
+  <si>
+    <t>02/19/2022,0.79417,N/A,0.79076,0.82272,0.79006</t>
+  </si>
+  <si>
+    <t>02/18/2022,0.78953,N/A,0.78666,0.79715,0.78372</t>
+  </si>
+  <si>
+    <t>02/17/2022,0.7842,N/A,0.82262,0.79003,0.76395</t>
+  </si>
+  <si>
+    <t>02/16/2022,0.82378,N/A,0.83265,0.84449,0.81112</t>
+  </si>
+  <si>
+    <t>02/15/2022,0.8323,N/A,0.8211,0.85173,0.82582</t>
+  </si>
+  <si>
+    <t>02/14/2022,0.82162,N/A,0.79376,0.83906,0.79627</t>
+  </si>
+  <si>
+    <t>02/13/2022,0.79212,N/A,0.82014,0.81103,0.78343</t>
+  </si>
+  <si>
+    <t>02/12/2022,0.82092,N/A,0.77277,0.83649,0.81198</t>
+  </si>
+  <si>
+    <t>02/11/2022,0.77158,N/A,0.82153,0.77872,0.75453</t>
+  </si>
+  <si>
+    <t>02/10/2022,0.82329,N/A,0.87268,0.82956,0.80894</t>
+  </si>
+  <si>
+    <t>02/09/2022,0.86688,N/A,0.85629,0.87905,0.85376</t>
+  </si>
+  <si>
+    <t>02/08/2022,0.85592,N/A,0.87388,0.90057,0.8443</t>
+  </si>
+  <si>
+    <t>02/07/2022,0.87072,N/A,0.72453,0.88599,0.81374</t>
+  </si>
+  <si>
+    <t>02/06/2022,0.72215,N/A,0.66841,0.7287,0.67173</t>
+  </si>
+  <si>
+    <t>02/05/2022,0.66822,N/A,0.67086,0.67438,0.66448</t>
+  </si>
+  <si>
+    <t>02/04/2022,0.67073,N/A,0.60914,0.68613,0.65019</t>
+  </si>
+  <si>
+    <t>02/03/2022,0.60971,N/A,0.60259,0.61248,0.60446</t>
+  </si>
+  <si>
+    <t>02/02/2022,0.60362,N/A,0.62583,0.60369,0.59742</t>
+  </si>
+  <si>
+    <t>02/01/2022,0.62525,N/A,0.62392,0.63115,0.62314</t>
+  </si>
+  <si>
+    <t>01/31/2022,0.62346,N/A,0.5832,0.62757,0.61117</t>
+  </si>
+  <si>
+    <t>01/30/2022,0.58392,N/A,0.61887,0.6016,0.581</t>
+  </si>
+  <si>
+    <t>01/29/2022,0.61745,N/A,0.61313,0.61939,0.61118</t>
+  </si>
+  <si>
+    <t>01/28/2022,0.61319,N/A,0.60611,0.61551,0.60914</t>
+  </si>
+  <si>
+    <t>01/27/2022,0.6051,N/A,0.59755,0.61316,0.59869</t>
+  </si>
+  <si>
+    <t>01/26/2022,0.5974,N/A,0.63065,0.62405,0.58992</t>
+  </si>
+  <si>
+    <t>01/25/2022,0.60071,N/A,0.56824,0.61206,0.58659</t>
+  </si>
+  <si>
+    <t>01/24/2022,0.59425,N/A,0.60587,0.61206,0.59354</t>
+  </si>
+  <si>
+    <t>01/23/2022,0.60643,N/A,0.60604,0.62868,0.60621</t>
+  </si>
+  <si>
+    <t>01/22/2022,0.60559,N/A,0.64224,0.60991,0.5903</t>
+  </si>
+  <si>
+    <t>01/21/2022,0.64125,N/A,0.69595,0.65281,0.63065</t>
+  </si>
+  <si>
+    <t>01/20/2022,0.69706,N/A,0.74432,0.72835,0.68851</t>
+  </si>
+  <si>
+    <t>01/19/2022,0.74447,N/A,0.74237,0.74843,0.73786</t>
+  </si>
+  <si>
+    <t>01/18/2022,0.7426,N/A,0.75274,0.75318,0.73722</t>
+  </si>
+  <si>
+    <t>01/17/2022,0.75307,N/A,0.76212,0.76844,0.7508</t>
+  </si>
+  <si>
+    <t>01/16/2022,0.76403,N/A,0.77911,0.78022,0.76191</t>
+  </si>
+  <si>
+    <t>01/15/2022,0.77931,N/A,0.77187,0.78097,0.77289</t>
+  </si>
+  <si>
+    <t>01/14/2022,0.77148,N/A,0.77593,0.77732,0.76927</t>
+  </si>
+  <si>
+    <t>01/13/2022,0.7779,N/A,0.791,0.77799,0.76436</t>
+  </si>
+  <si>
+    <t>01/12/2022,0.7908,N/A,0.76801,0.8021,0.78527</t>
+  </si>
+  <si>
+    <t>01/11/2022,0.76893,N/A,0.75012,0.77928,0.76774</t>
+  </si>
+  <si>
+    <t>01/10/2022,0.74802,N/A,0.75848,0.75497,0.73285</t>
+  </si>
+  <si>
+    <t>01/09/2022,0.76213,N/A,0.7538,0.7665,0.73842</t>
+  </si>
+  <si>
+    <t>01/08/2022,0.75487,N/A,0.77116,0.7573,0.74147</t>
+  </si>
+  <si>
+    <t>01/07/2022,0.77191,N/A,0.74918,0.77465,0.76076</t>
+  </si>
+  <si>
+    <t>01/06/2022,0.74893,N/A,0.76097,0.78057,0.72996</t>
+  </si>
+  <si>
+    <t>01/05/2022,0.75832,N/A,0.83012,0.77778,0.74764</t>
+  </si>
+  <si>
+    <t>01/04/2022,0.83041,N/A,0.82771,0.83265,0.82124</t>
+  </si>
+  <si>
+    <t>01/03/2022,0.82721,N/A,0.84284,0.83409,0.82331</t>
+  </si>
+  <si>
+    <t>01/02/2022,0.84451,N/A,0.83942,0.85867,0.8443</t>
+  </si>
+  <si>
+    <t>01/01/2022,0.8413,N/A,0.83531,0.85081,0.84088</t>
+  </si>
+  <si>
+    <t>12/31/2021,0.83614,N/A,0.83876,0.85102,0.82997</t>
+  </si>
+  <si>
+    <t>12/30/2021,0.83887,N/A,0.82461,0.8447,0.82852</t>
+  </si>
+  <si>
+    <t>12/29/2021,0.82467,N/A,0.85869,0.82854,0.8042</t>
+  </si>
+  <si>
+    <t>12/28/2021,0.8583,N/A,0.8943,0.86439,0.85125</t>
+  </si>
+  <si>
+    <t>12/27/2021,0.88446,N/A,0.924,0.92671,0.86993</t>
+  </si>
+  <si>
+    <t>12/26/2021,0.92242,N/A,0.90789,0.92799,0.91592</t>
+  </si>
+  <si>
+    <t>12/25/2021,0.91099,N/A,0.91368,0.93305,0.90568</t>
+  </si>
+  <si>
+    <t>12/24/2021,0.92108,N/A,0.97523,0.92342,0.89917</t>
+  </si>
+  <si>
+    <t>12/23/2021,0.9739,N/A,0.99273,0.99588,0.96843</t>
+  </si>
+  <si>
+    <t>12/22/2021,0.99723,N/A,0.97009,1.01005,0.9387</t>
+  </si>
+  <si>
+    <t>12/21/2021,0.96194,N/A,0.88011,0.97141,0.93301</t>
+  </si>
+  <si>
+    <t>12/20/2021,0.87967,N/A,0.90346,0.8905,0.85315</t>
+  </si>
+  <si>
+    <t>12/19/2021,0.82782,N/A,0.83091,0.83982,0.81969</t>
+  </si>
+  <si>
+    <t>12/18/2021,0.83955,N/A,0.81097,0.83973,0.81969</t>
+  </si>
+  <si>
+    <t>12/17/2021,0.80896,N/A,0.8133,0.81006,0.79116</t>
+  </si>
+  <si>
+    <t>12/16/2021,0.81366,N/A,0.82442,0.81467,0.80319</t>
+  </si>
+  <si>
+    <t>12/15/2021,0.82432,N/A,0.80827,0.83616,0.82233</t>
+  </si>
+  <si>
+    <t>12/14/2021,0.80817,N/A,0.78684,0.82379,0.80172</t>
+  </si>
+  <si>
+    <t>12/13/2021,0.78532,N/A,0.82608,0.79616,0.77392</t>
+  </si>
+  <si>
+    <t>12/12/2021,0.82519,N/A,0.8213,0.84387,0.81727</t>
+  </si>
+  <si>
+    <t>12/11/2021,0.82235,N/A,0.8283,0.84162,0.82049</t>
+  </si>
+  <si>
+    <t>12/10/2021,0.82647,N/A,0.84748,0.82736,0.78641</t>
+  </si>
+  <si>
+    <t>12/09/2021,0.84705,N/A,0.85444,0.88198,0.84417</t>
+  </si>
+  <si>
+    <t>12/08/2021,0.85363,N/A,0.81284,0.87171,0.84339</t>
+  </si>
+  <si>
+    <t>12/07/2021,0.81001,N/A,0.83079,0.82181,0.80486</t>
+  </si>
+  <si>
+    <t>12/06/2021,0.83027,N/A,0.79716,0.84411,0.82229</t>
+  </si>
+  <si>
+    <t>12/05/2021,0.79744,N/A,0.82358,0.80683,0.77455</t>
+  </si>
+  <si>
+    <t>12/04/2021,0.79867,N/A,0.96111,0.92437,0.62065</t>
+  </si>
+  <si>
+    <t>12/03/2021,0.86083,N/A,0.96992,0.92437,0.86083</t>
+  </si>
+  <si>
+    <t>12/02/2021,0.96896,N/A,0.96983,0.97387,0.95911</t>
+  </si>
+  <si>
+    <t>12/01/2021,0.96882,N/A,1.00719,0.98995,0.95647</t>
+  </si>
+  <si>
+    <t>11/30/2021,1.00654,N/A,1.00051,1.01355,0.99363</t>
+  </si>
+  <si>
+    <t>11/29/2021,0.99996,N/A,0.9758,1.01474,0.98923</t>
+  </si>
+  <si>
+    <t>11/28/2021,0.9764,N/A,0.90674,0.98245,0.96695</t>
+  </si>
+  <si>
+    <t>11/27/2021,0.90824,N/A,0.95859,0.9464,0.89336</t>
+  </si>
+  <si>
+    <t>11/26/2021,0.95935,N/A,1.02747,0.95981,0.93563</t>
+  </si>
+  <si>
+    <t>11/25/2021,1.02818,N/A,1.03408,1.04635,1.02459</t>
+  </si>
+  <si>
+    <t>11/24/2021,1.03414,N/A,1.04355,1.05157,1.02658</t>
+  </si>
+  <si>
+    <t>11/23/2021,1.04345,N/A,1.05063,1.07289,1.03699</t>
+  </si>
+  <si>
+    <t>11/22/2021,1.05059,N/A,1.03391,1.05567,1.03082</t>
+  </si>
+  <si>
+    <t>11/21/2021,1.03914,N/A,1.07581,1.0587,1.0299</t>
+  </si>
+  <si>
+    <t>11/20/2021,1.07585,N/A,1.08739,1.09715,1.07371</t>
+  </si>
+  <si>
+    <t>11/19/2021,1.08672,N/A,1.04256,1.09946,1.08377</t>
+  </si>
+  <si>
+    <t>11/18/2021,1.03963,N/A,1.11372,1.05589,1.01839</t>
+  </si>
+  <si>
+    <t>11/17/2021,1.13403,N/A,1.07536,1.15799,1.09111</t>
+  </si>
+  <si>
+    <t>11/16/2021,1.06612,N/A,1.12899,1.09717,1.05976</t>
+  </si>
+  <si>
+    <t>11/15/2021,1.1297,N/A,1.21363,1.17222,1.10706</t>
+  </si>
+  <si>
+    <t>11/14/2021,1.21898,N/A,1.18739,1.21934,1.1881</t>
+  </si>
+  <si>
+    <t>11/13/2021,1.1874,N/A,1.1746,1.1992,1.18536</t>
+  </si>
+  <si>
+    <t>11/12/2021,1.17718,N/A,1.21487,1.19751,1.17306</t>
+  </si>
+  <si>
+    <t>11/11/2021,1.21766,N/A,1.20597,1.23284,1.19831</t>
+  </si>
+  <si>
+    <t>11/10/2021,1.20279,N/A,1.23804,1.20475,1.17713</t>
+  </si>
+  <si>
+    <t>11/09/2021,1.23754,N/A,1.27045,1.26394,1.22155</t>
+  </si>
+  <si>
+    <t>11/08/2021,1.26538,N/A,1.27495,1.28767,1.25731</t>
+  </si>
+  <si>
+    <t>11/07/2021,1.28079,N/A,1.15399,1.28237,1.21795</t>
+  </si>
+  <si>
+    <t>11/06/2021,1.15219,N/A,1.16615,1.16002,1.14525</t>
+  </si>
+  <si>
+    <t>11/05/2021,1.1652,N/A,1.19657,1.17332,1.15315</t>
+  </si>
+  <si>
+    <t>11/04/2021,1.19307,N/A,1.2256,1.20139,1.17133</t>
+  </si>
+  <si>
+    <t>11/03/2021,1.22586,N/A,1.14695,1.25508,1.19643</t>
+  </si>
+  <si>
+    <t>11/02/2021,1.14132,N/A,1.09804,1.15021,1.12586</t>
+  </si>
+  <si>
+    <t>11/01/2021,1.09675,N/A,1.07828,1.09944,1.08558</t>
+  </si>
+  <si>
+    <t>10/31/2021,1.07849,N/A,1.10655,1.131,1.07822</t>
+  </si>
+  <si>
+    <t>10/30/2021,1.10814,N/A,1.07815,1.11714,1.08369</t>
+  </si>
+  <si>
+    <t>10/29/2021,1.07959,N/A,1.08193,1.08421,1.07231</t>
+  </si>
+  <si>
+    <t>10/28/2021,1.07333,N/A,1.00388,1.0861,1.05521</t>
+  </si>
+  <si>
+    <t>10/27/2021,1.00537,N/A,1.11379,1.01009,0.9822</t>
+  </si>
+  <si>
+    <t>10/26/2021,1.11126,N/A,1.11675,1.12462,1.10065</t>
+  </si>
+  <si>
+    <t>10/25/2021,1.11375,N/A,1.09262,1.12403,1.09314</t>
+  </si>
+  <si>
+    <t>10/24/2021,1.09175,N/A,1.09047,1.09923,1.07836</t>
+  </si>
+  <si>
+    <t>10/23/2021,1.09296,N/A,1.09031,1.09548,1.08715</t>
+  </si>
+  <si>
+    <t>10/22/2021,1.09221,N/A,1.1017,1.0942,1.08186</t>
+  </si>
+  <si>
+    <t>10/21/2021,1.10757,N/A,1.14505,1.10913,1.08836</t>
+  </si>
+  <si>
+    <t>10/20/2021,1.14321,N/A,1.0998,1.16343,1.12854</t>
+  </si>
+  <si>
+    <t>10/19/2021,1.1051,N/A,1.09696,1.1078,1.08703</t>
+  </si>
+  <si>
+    <t>10/18/2021,1.09658,N/A,1.09569,1.09965,1.07762</t>
+  </si>
+  <si>
+    <t>10/17/2021,1.09249,N/A,1.13489,1.10583,1.08934</t>
+  </si>
+  <si>
+    <t>10/16/2021,1.13518,N/A,1.13747,1.13731,1.1202</t>
+  </si>
+  <si>
+    <t>10/15/2021,1.13805,N/A,1.13513,1.14914,1.13154</t>
+  </si>
+  <si>
+    <t>10/14/2021,1.13653,N/A,1.13001,1.13855,1.10549</t>
+  </si>
+  <si>
+    <t>10/13/2021,1.12942,N/A,1.11948,1.13774,1.12181</t>
+  </si>
+  <si>
+    <t>10/12/2021,1.1187,N/A,1.0922,1.12541,1.09202</t>
+  </si>
+  <si>
+    <t>10/11/2021,1.0939,N/A,1.16636,1.1363,1.0815</t>
+  </si>
+  <si>
+    <t>10/10/2021,1.16432,N/A,1.1662,1.16584,1.12901</t>
+  </si>
+  <si>
+    <t>10/09/2021,1.16263,N/A,1.06992,1.17307,1.13501</t>
+  </si>
+  <si>
+    <t>10/08/2021,1.06914,N/A,1.06535,1.07064,1.05756</t>
+  </si>
+  <si>
+    <t>10/07/2021,1.06408,N/A,1.05811,1.07911,1.05992</t>
+  </si>
+  <si>
+    <t>10/06/2021,1.06032,N/A,1.06675,1.0874,1.04492</t>
+  </si>
+  <si>
+    <t>10/05/2021,1.06782,N/A,1.04611,1.08459,1.06398</t>
+  </si>
+  <si>
+    <t>10/04/2021,1.04147,N/A,1.02662,1.05584,1.03819</t>
+  </si>
+  <si>
+    <t>10/03/2021,1.02845,N/A,1.04226,1.05956,1.02714</t>
+  </si>
+  <si>
+    <t>10/02/2021,1.03727,N/A,1.01455,1.04861,1.0211</t>
+  </si>
+  <si>
+    <t>10/01/2021,1.01617,N/A,0.94968,1.04309,1.01585</t>
+  </si>
+  <si>
+    <t>09/30/2021,0.94799,N/A,0.95861,0.9599,0.94442</t>
+  </si>
+  <si>
+    <t>09/29/2021,0.95532,N/A,0.91487,0.95841,0.92219</t>
+  </si>
+  <si>
+    <t>09/28/2021,0.91278,N/A,0.93385,0.91381,0.88656</t>
+  </si>
+  <si>
+    <t>09/27/2021,0.9658,N/A,0.91702,0.98126,0.93635</t>
+  </si>
+  <si>
+    <t>09/26/2021,0.96658,N/A,0.92589,0.98126,0.93635</t>
+  </si>
+  <si>
+    <t>09/25/2021,0.92548,N/A,0.94579,0.94252,0.91383</t>
+  </si>
+  <si>
+    <t>09/24/2021,0.94575,N/A,0.98263,0.95151,0.93116</t>
+  </si>
+  <si>
+    <t>09/23/2021,0.98605,N/A,1.01002,1.00242,0.98541</t>
+  </si>
+  <si>
+    <t>09/22/2021,1.01016,N/A,0.92248,1.01376,0.9797</t>
+  </si>
+  <si>
+    <t>09/21/2021,0.92635,N/A,0.94751,0.93669,0.86813</t>
+  </si>
+  <si>
+    <t>09/20/2021,0.93839,N/A,0.98207,0.95272,0.86745</t>
+  </si>
+  <si>
+    <t>09/19/2021,0.98318,N/A,1.06754,1.04944,0.97472</t>
+  </si>
+  <si>
+    <t>09/18/2021,1.06962,N/A,1.0775,1.07795,1.065</t>
+  </si>
+  <si>
+    <t>09/17/2021,1.07104,N/A,1.09613,1.07379,1.05683</t>
+  </si>
+  <si>
+    <t>09/16/2021,1.0928,N/A,1.10069,1.09735,1.08376</t>
+  </si>
+  <si>
+    <t>09/15/2021,1.10029,N/A,1.087,1.12973,1.09355</t>
+  </si>
+  <si>
+    <t>09/14/2021,1.08667,N/A,1.0729,1.09845,1.0841</t>
+  </si>
+  <si>
+    <t>09/13/2021,1.07538,N/A,1.06595,1.07709,1.05817</t>
+  </si>
+  <si>
+    <t>09/12/2021,1.08158,N/A,1.07778,1.12603,1.07904</t>
+  </si>
+  <si>
+    <t>09/11/2021,1.07738,N/A,1.06174,1.08423,1.05809</t>
+  </si>
+  <si>
+    <t>09/10/2021,1.05644,N/A,1.13535,1.07672,1.05134</t>
+  </si>
+  <si>
+    <t>09/09/2021,1.1329,N/A,1.09108,1.24271,1.08589</t>
+  </si>
+  <si>
+    <t>09/08/2021,1.08689,N/A,1.10083,1.12481,1.08172</t>
+  </si>
+  <si>
+    <t>09/07/2021,1.10592,N/A,1.36811,1.14727,1.0984</t>
+  </si>
+  <si>
+    <t>09/06/2021,1.36896,N/A,1.3176,1.39191,1.36621</t>
+  </si>
+  <si>
+    <t>09/05/2021,1.25809,N/A,1.2794,1.26562,1.23675</t>
+  </si>
+  <si>
+    <t>09/04/2021,1.245,N/A,1.28262,1.26562,1.24407</t>
+  </si>
+  <si>
+    <t>09/03/2021,1.2818,N/A,1.2749,1.29667,1.26761</t>
+  </si>
+  <si>
+    <t>09/02/2021,1.27081,N/A,1.25058,1.27139,1.22389</t>
+  </si>
+  <si>
+    <t>09/01/2021,1.24814,N/A,1.18296,1.25744,1.22205</t>
+  </si>
+  <si>
+    <t>08/31/2021,1.18002,N/A,1.12482,1.19478,1.15955</t>
+  </si>
+  <si>
+    <t>08/30/2021,1.1261,N/A,1.12685,1.12711,1.09152</t>
+  </si>
+  <si>
+    <t>08/29/2021,1.12632,N/A,1.12436,1.14449,1.1204</t>
+  </si>
+  <si>
+    <t>08/28/2021,1.12536,N/A,1.16401,1.16811,1.11912</t>
+  </si>
+  <si>
+    <t>08/27/2021,1.16677,N/A,1.07554,1.19791,1.16468</t>
+  </si>
+  <si>
+    <t>08/26/2021,1.11765,N/A,1.12027,1.18648,1.10403</t>
+  </si>
+  <si>
+    <t>08/25/2021,1.13967,N/A,1.14716,1.18648,1.13201</t>
+  </si>
+  <si>
+    <t>08/24/2021,1.14629,N/A,1.2348,1.1709,1.13512</t>
+  </si>
+  <si>
+    <t>08/23/2021,1.23384,N/A,1.2511,1.25101,1.21836</t>
+  </si>
+  <si>
+    <t>08/22/2021,1.24946,N/A,1.2283,1.25444,1.22118</t>
+  </si>
+  <si>
+    <t>08/21/2021,1.227,N/A,1.26845,1.24088,1.21436</t>
+  </si>
+  <si>
+    <t>08/20/2021,1.27034,N/A,1.20666,1.28262,1.23279</t>
+  </si>
+  <si>
+    <t>08/19/2021,1.20587,N/A,1.11813,1.23581,1.19994</t>
+  </si>
+  <si>
+    <t>08/18/2021,1.12694,N/A,1.10918,1.16958,1.11251</t>
+  </si>
+  <si>
+    <t>08/17/2021,1.10316,N/A,1.20792,1.11567,1.0522</t>
+  </si>
+  <si>
+    <t>08/16/2021,1.20455,N/A,1.27937,1.22197,1.12123</t>
+  </si>
+  <si>
+    <t>08/15/2021,1.28763,N/A,1.30287,1.32792,1.26062</t>
+  </si>
+  <si>
+    <t>08/14/2021,1.31202,N/A,1.087,1.34807,1.2678</t>
+  </si>
+  <si>
+    <t>08/13/2021,1.08389,N/A,0.98253,1.10883,1.07095</t>
+  </si>
+  <si>
+    <t>08/12/2021,0.98337,N/A,1.02156,0.98702,0.95173</t>
+  </si>
+  <si>
+    <t>08/11/2021,1.03529,N/A,0.87613,1.04384,0.99673</t>
+  </si>
+  <si>
+    <t>08/10/2021,0.87229,N/A,0.80436,0.88102,0.84927</t>
+  </si>
+  <si>
+    <t>08/09/2021,0.80528,N/A,0.78279,0.82236,0.80284</t>
+  </si>
+  <si>
+    <t>08/08/2021,0.78216,N/A,0.8174,0.78284,0.76058</t>
+  </si>
+  <si>
+    <t>08/07/2021,0.81531,N/A,0.7646,0.84032,0.79825</t>
+  </si>
+  <si>
+    <t>08/06/2021,0.76293,N/A,0.72897,0.76482,0.74124</t>
+  </si>
+  <si>
+    <t>08/05/2021,0.7286,N/A,0.72756,0.74109,0.72809</t>
+  </si>
+  <si>
+    <t>08/04/2021,0.72678,N/A,0.71125,0.73362,0.72005</t>
+  </si>
+  <si>
+    <t>08/03/2021,0.71283,N/A,0.72364,0.72285,0.71041</t>
+  </si>
+  <si>
+    <t>08/02/2021,0.72099,N/A,0.73031,0.74441,0.71976</t>
+  </si>
+  <si>
+    <t>08/01/2021,0.73008,N/A,0.77361,0.73262,0.71673</t>
+  </si>
+  <si>
+    <t>07/31/2021,0.77537,N/A,0.75073,0.77636,0.74092</t>
+  </si>
+  <si>
+    <t>07/30/2021,0.75167,N/A,0.75187,0.75794,0.7436</t>
+  </si>
+  <si>
+    <t>07/29/2021,0.75517,N/A,0.7044,0.76018,0.735</t>
+  </si>
+  <si>
+    <t>07/28/2021,0.7021,N/A,0.64485,0.73885,0.69777</t>
+  </si>
+  <si>
+    <t>07/27/2021,0.64138,N/A,0.61663,0.64857,0.63593</t>
+  </si>
+  <si>
+    <t>07/26/2021,0.6195,N/A,0.65081,0.6335,0.61272</t>
+  </si>
+  <si>
+    <t>07/25/2021,0.65189,N/A,0.60665,0.65885,0.60502</t>
+  </si>
+  <si>
+    <t>07/24/2021,0.60641,N/A,0.59484,0.61383,0.60219</t>
+  </si>
+  <si>
+    <t>07/23/2021,0.60639,N/A,0.59722,0.6104,0.6034</t>
+  </si>
+  <si>
+    <t>07/22/2021,0.59612,N/A,0.5651,0.60166,0.5886</t>
+  </si>
+  <si>
+    <t>07/21/2021,0.56511,N/A,0.53251,0.57785,0.56107</t>
+  </si>
+  <si>
+    <t>07/20/2021,0.53217,N/A,0.52408,0.53296,0.51981</t>
+  </si>
+  <si>
+    <t>07/19/2021,0.52325,N/A,0.58369,0.5692,0.52018</t>
+  </si>
+  <si>
+    <t>07/18/2021,0.58349,N/A,0.59538,0.58871,0.57558</t>
+  </si>
+  <si>
+    <t>07/17/2021,0.59617,N/A,0.57953,0.60112,0.58167</t>
+  </si>
+  <si>
+    <t>07/16/2021,0.57957,N/A,0.61018,0.59714,0.56785</t>
+  </si>
+  <si>
+    <t>07/15/2021,0.61036,N/A,0.61602,0.61707,0.594</t>
+  </si>
+  <si>
+    <t>07/14/2021,0.61529,N/A,0.61063,0.62613,0.61246</t>
+  </si>
+  <si>
+    <t>07/13/2021,0.59002,N/A,0.62872,0.62095,0.5869</t>
+  </si>
+  <si>
+    <t>07/12/2021,0.62803,N/A,0.64272,0.63274,0.62555</t>
+  </si>
+  <si>
+    <t>07/11/2021,0.64692,N/A,0.62255,0.64859,0.63287</t>
+  </si>
+  <si>
+    <t>07/10/2021,0.62072,N/A,0.6324,0.62955,0.62004</t>
+  </si>
+  <si>
+    <t>07/09/2021,0.63328,N/A,0.60825,0.64841,0.63052</t>
+  </si>
+  <si>
+    <t>07/08/2021,0.61717,N/A,0.63927,0.62308,0.5934</t>
+  </si>
+  <si>
+    <t>07/07/2021,0.63798,N/A,0.66935,0.65382,0.62915</t>
+  </si>
+  <si>
+    <t>07/06/2021,0.66903,N/A,0.66399,0.66903,0.65904</t>
+  </si>
+  <si>
+    <t>07/05/2021,0.66313,N/A,0.67981,0.66451,0.65185</t>
+  </si>
+  <si>
+    <t>07/04/2021,0.67704,N/A,0.67644,0.69614,0.67641</t>
+  </si>
+  <si>
+    <t>07/03/2021,0.67716,N/A,0.64468,0.68013,0.64387</t>
+  </si>
+  <si>
+    <t>07/02/2021,0.64455,N/A,0.6412,0.65805,0.64387</t>
+  </si>
+  <si>
+    <t>07/01/2021,0.64036,N/A,0.67438,0.6671,0.63987</t>
+  </si>
+  <si>
+    <t>06/30/2021,0.67421,N/A,0.67781,0.70542,0.67314</t>
+  </si>
+  <si>
+    <t>06/29/2021,0.68133,N/A,0.64872,0.714,0.68133</t>
+  </si>
+  <si>
+    <t>06/28/2021,0.64845,N/A,0.63733,0.66124,0.64228</t>
+  </si>
+  <si>
+    <t>06/27/2021,0.63858,N/A,0.6296,0.65338,0.63571</t>
+  </si>
+  <si>
+    <t>06/26/2021,0.62909,N/A,0.61834,0.62915,0.60888</t>
+  </si>
+  <si>
+    <t>06/25/2021,0.61898,N/A,0.68075,0.62592,0.60612</t>
+  </si>
+  <si>
+    <t>06/24/2021,0.67912,N/A,0.63223,0.6881,0.65806</t>
+  </si>
+  <si>
+    <t>06/23/2021,0.62668,N/A,0.60435,0.66054,0.61716</t>
+  </si>
+  <si>
+    <t>06/22/2021,0.60066,N/A,0.64124,0.61909,0.52269</t>
+  </si>
+  <si>
+    <t>06/21/2021,0.6449,N/A,0.72675,0.64888,0.57373</t>
+  </si>
+  <si>
+    <t>06/20/2021,0.72873,N/A,0.74758,0.77885,0.72631</t>
+  </si>
+  <si>
+    <t>06/19/2021,0.74807,N/A,0.78558,0.75965,0.7323</t>
+  </si>
+  <si>
+    <t>06/18/2021,0.78453,N/A,0.83898,0.80499,0.78395</t>
+  </si>
+  <si>
+    <t>06/17/2021,0.8388,N/A,0.85566,0.84141,0.83026</t>
+  </si>
+  <si>
+    <t>06/16/2021,0.85642,N/A,0.86451,0.86084,0.83126</t>
+  </si>
+  <si>
+    <t>06/15/2021,0.86513,N/A,0.88653,0.86663,0.85317</t>
+  </si>
+  <si>
+    <t>06/14/2021,0.8868,N/A,0.87023,0.90115,0.87674</t>
+  </si>
+  <si>
+    <t>06/13/2021,0.86954,N/A,0.82502,0.89154,0.86749</t>
+  </si>
+  <si>
+    <t>06/12/2021,0.82524,N/A,0.81896,0.84193,0.82394</t>
+  </si>
+  <si>
+    <t>06/11/2021,0.8111,N/A,0.86858,0.84757,0.80638</t>
+  </si>
+  <si>
+    <t>06/10/2021,0.86577,N/A,0.89349,0.87383,0.84691</t>
+  </si>
+  <si>
+    <t>06/09/2021,0.89561,N/A,0.84577,0.92699,0.89503</t>
+  </si>
+  <si>
+    <t>06/08/2021,0.84666,N/A,0.84582,0.87567,0.83149</t>
+  </si>
+  <si>
+    <t>06/07/2021,0.8451,N/A,0.96709,0.87132,0.82926</t>
+  </si>
+  <si>
+    <t>06/06/2021,0.96255,N/A,0.93605,0.97376,0.94511</t>
+  </si>
+  <si>
+    <t>06/05/2021,0.93665,N/A,0.9872,0.94091,0.91773</t>
+  </si>
+  <si>
+    <t>06/04/2021,0.98052,N/A,0.99309,0.99016,0.96324</t>
+  </si>
+  <si>
+    <t>06/03/2021,0.99688,N/A,1.01696,1.04588,0.95632</t>
+  </si>
+  <si>
+    <t>06/02/2021,1.02543,N/A,1.0025,1.0331,1.00778</t>
+  </si>
+  <si>
+    <t>06/01/2021,1.00504,N/A,1.04393,1.01631,0.98136</t>
+  </si>
+  <si>
+    <t>05/31/2021,1.03471,N/A,0.89789,1.0973,1.02705</t>
+  </si>
+  <si>
+    <t>05/30/2021,0.88959,N/A,0.83824,0.94276,0.88318</t>
+  </si>
+  <si>
+    <t>05/29/2021,0.83964,N/A,0.92868,0.84205,0.79877</t>
+  </si>
+  <si>
+    <t>05/28/2021,0.92264,N/A,0.97069,0.93534,0.89563</t>
+  </si>
+  <si>
+    <t>05/27/2021,0.96507,N/A,0.95161,0.98301,0.94933</t>
+  </si>
+  <si>
+    <t>05/26/2021,0.94243,N/A,1.00971,1.0403,0.93389</t>
+  </si>
+  <si>
+    <t>05/25/2021,1.00358,N/A,0.97741,1.01224,0.9489</t>
+  </si>
+  <si>
+    <t>05/24/2021,0.97661,N/A,0.79425,1.0527,0.95204</t>
+  </si>
+  <si>
+    <t>05/23/2021,0.79676,N/A,0.92382,0.82314,0.75667</t>
+  </si>
+  <si>
+    <t>05/22/2021,0.92247,N/A,0.93411,0.96587,0.87979</t>
+  </si>
+  <si>
+    <t>05/21/2021,0.93988,N/A,1.15021,1.01342,0.93707</t>
+  </si>
+  <si>
+    <t>05/20/2021,1.1523,N/A,1.10597,1.21581,1.14958</t>
+  </si>
+  <si>
+    <t>05/19/2021,1.09468,N/A,1.48576,1.11249,0.91194</t>
+  </si>
+  <si>
+    <t>05/18/2021,1.49511,N/A,1.52409,1.64286,1.45973</t>
+  </si>
+  <si>
+    <t>05/17/2021,1.5191,N/A,1.35541,1.5319,1.47421</t>
+  </si>
+  <si>
+    <t>05/16/2021,1.36595,N/A,1.59519,1.4484,1.34009</t>
+  </si>
+  <si>
+    <t>05/15/2021,1.57626,N/A,1.3953,1.59602,1.48591</t>
+  </si>
+  <si>
+    <t>05/14/2021,1.39694,N/A,1.3333,1.42712,1.37838</t>
+  </si>
+  <si>
+    <t>05/13/2021,1.33975,N/A,1.33282,1.37334,1.33137</t>
+  </si>
+  <si>
+    <t>05/12/2021,1.31952,N/A,1.53838,1.35212,1.20537</t>
+  </si>
+  <si>
+    <t>05/11/2021,1.52604,N/A,1.38312,1.53448,1.47261</t>
+  </si>
+  <si>
+    <t>05/10/2021,1.38523,N/A,1.58892,1.44365,1.3587</t>
+  </si>
+  <si>
+    <t>05/09/2021,1.58609,N/A,1.52148,1.59584,1.52398</t>
+  </si>
+  <si>
+    <t>05/08/2021,1.55598,N/A,1.60337,1.59317,1.5533</t>
+  </si>
+  <si>
+    <t>05/07/2021,1.60381,N/A,1.55147,1.61806,1.56182</t>
+  </si>
+  <si>
+    <t>05/06/2021,1.56578,N/A,1.69812,1.62134,1.52011</t>
+  </si>
+  <si>
+    <t>05/05/2021,1.69294,N/A,1.43376,1.76001,1.61386</t>
+  </si>
+  <si>
+    <t>05/04/2021,1.4608,N/A,1.46059,1.46216,1.39752</t>
+  </si>
+  <si>
+    <t>05/03/2021,1.4461,N/A,1.58304,1.55703,1.41283</t>
+  </si>
+  <si>
+    <t>05/02/2021,1.58014,N/A,1.55878,1.59807,1.55303</t>
+  </si>
+  <si>
+    <t>05/01/2021,1.57292,N/A,1.59563,1.65348,1.57257</t>
+  </si>
+  <si>
+    <t>04/30/2021,1.60375,N/A,1.39846,1.62527,1.55588</t>
+  </si>
+  <si>
+    <t>04/29/2021,1.39856,N/A,1.38104,1.40511,1.37604</t>
+  </si>
+  <si>
+    <t>04/28/2021,1.37516,N/A,1.38305,1.40815,1.32815</t>
+  </si>
+  <si>
+    <t>04/27/2021,1.39756,N/A,1.41821,1.44663,1.38233</t>
+  </si>
+  <si>
+    <t>04/26/2021,1.42096,N/A,1.13139,1.45828,1.34764</t>
+  </si>
+  <si>
+    <t>04/25/2021,1.1285,N/A,1.0401,1.14699,1.01794</t>
+  </si>
+  <si>
+    <t>04/24/2021,1.04257,N/A,1.12927,1.07183,1.03182</t>
+  </si>
+  <si>
+    <t>04/23/2021,1.13332,N/A,1.07064,1.17095,1.09342</t>
+  </si>
+  <si>
+    <t>04/22/2021,1.06826,N/A,1.28615,1.19593,0.89374</t>
+  </si>
+  <si>
+    <t>04/21/2021,1.28104,N/A,1.40397,1.34175,1.27003</t>
+  </si>
+  <si>
+    <t>04/20/2021,1.41184,N/A,1.25437,1.46239,1.36477</t>
+  </si>
+  <si>
+    <t>04/19/2021,1.25854,N/A,1.46116,1.32224,1.18308</t>
+  </si>
+  <si>
+    <t>04/18/2021,1.47586,N/A,1.33832,1.47647,1.36135</t>
+  </si>
+  <si>
+    <t>04/17/2021,1.25931,N/A,1.61141,1.56266,1.16193</t>
+  </si>
+  <si>
+    <t>04/16/2021,1.60176,N/A,1.73369,1.64544,1.53728</t>
+  </si>
+  <si>
+    <t>04/15/2021,1.73997,N/A,1.7662,1.80402,1.71021</t>
+  </si>
+  <si>
+    <t>04/14/2021,1.75813,N/A,1.81966,1.88408,1.71221</t>
+  </si>
+  <si>
+    <t>04/13/2021,1.80931,N/A,1.44644,1.84071,1.74907</t>
+  </si>
+  <si>
+    <t>04/12/2021,1.44305,N/A,1.34722,1.47542,1.42122</t>
+  </si>
+  <si>
+    <t>04/11/2021,1.34773,N/A,1.44451,1.36864,1.3197</t>
+  </si>
+  <si>
+    <t>04/10/2021,1.43871,N/A,1.07012,1.48162,1.34919</t>
+  </si>
+  <si>
+    <t>04/09/2021,1.06395,N/A,1.02164,1.06729,1.00711</t>
+  </si>
+  <si>
+    <t>04/08/2021,1.02005,N/A,0.92128,1.05998,1.01013</t>
+  </si>
+  <si>
+    <t>04/07/2021,0.91549,N/A,1.05278,0.94407,0.90415</t>
+  </si>
+  <si>
+    <t>04/06/2021,1.05902,N/A,0.8696,1.10128,1.03184</t>
+  </si>
+  <si>
+    <t>04/05/2021,0.88472,N/A,0.68088,0.93929,0.81318</t>
+  </si>
+  <si>
+    <t>04/04/2021,0.68523,N/A,0.59125,0.70123,0.61963</t>
+  </si>
+  <si>
+    <t>04/03/2021,0.59044,N/A,0.62267,0.59597,0.56884</t>
+  </si>
+  <si>
+    <t>04/02/2021,0.61885,N/A,0.57032,0.63635,0.60656</t>
+  </si>
+  <si>
+    <t>04/01/2021,0.57217,N/A,0.57757,0.58113,0.56818</t>
+  </si>
+  <si>
+    <t>03/31/2021,0.57154,N/A,0.56138,0.59179,0.56473</t>
+  </si>
+  <si>
+    <t>03/30/2021,0.54632,N/A,0.56266,0.57137,0.53095</t>
+  </si>
+  <si>
+    <t>03/29/2021,0.56053,N/A,0.55741,0.56917,0.55924</t>
+  </si>
+  <si>
+    <t>03/28/2021,0.55893,N/A,0.55115,0.56448,0.54371</t>
+  </si>
+  <si>
+    <t>03/27/2021,0.54969,N/A,0.55861,0.55416,0.54377</t>
+  </si>
+  <si>
+    <t>03/26/2021,0.55845,N/A,0.52662,0.57414,0.55556</t>
+  </si>
+  <si>
+    <t>03/25/2021,0.53379,N/A,0.48495,0.53551,0.51046</t>
+  </si>
+  <si>
+    <t>03/24/2021,0.48258,N/A,0.54355,0.49169,0.46029</t>
+  </si>
+  <si>
+    <t>03/23/2021,0.54399,N/A,0.5788,0.55184,0.53643</t>
+  </si>
+  <si>
+    <t>03/22/2021,0.57554,N/A,0.51426,0.59555,0.54244</t>
+  </si>
+  <si>
+    <t>03/21/2021,0.51441,N/A,0.51632,0.5185,0.5024</t>
+  </si>
+  <si>
+    <t>03/20/2021,0.51607,N/A,0.47345,0.54625,0.50654</t>
+  </si>
+  <si>
+    <t>03/19/2021,0.474,N/A,0.46901,0.47892,0.46472</t>
+  </si>
+  <si>
+    <t>03/18/2021,0.46913,N/A,0.47293,0.47114,0.45977</t>
+  </si>
+  <si>
+    <t>03/17/2021,0.47283,N/A,0.47141,0.47847,0.46582</t>
+  </si>
+  <si>
+    <t>03/16/2021,0.47363,N/A,0.45809,0.48159,0.45749</t>
+  </si>
+  <si>
+    <t>03/15/2021,0.45784,N/A,0.44248,0.4632,0.42752</t>
+  </si>
+  <si>
+    <t>03/14/2021,0.44266,N/A,0.45898,0.44538,0.43551</t>
+  </si>
+  <si>
+    <t>03/13/2021,0.457,N/A,0.44238,0.4615,0.45202</t>
+  </si>
+  <si>
+    <t>03/12/2021,0.44131,N/A,0.45579,0.4415,0.43274</t>
+  </si>
+  <si>
+    <t>03/11/2021,0.45564,N/A,0.45685,0.46385,0.44568</t>
+  </si>
+  <si>
+    <t>03/10/2021,0.45605,N/A,0.4655,0.4641,0.45066</t>
+  </si>
+  <si>
+    <t>03/09/2021,0.46449,N/A,0.48027,0.48804,0.456</t>
+  </si>
+  <si>
+    <t>03/08/2021,0.48117,N/A,0.46495,0.48656,0.47178</t>
+  </si>
+  <si>
+    <t>03/07/2021,0.46507,N/A,0.4608,0.47267,0.46221</t>
+  </si>
+  <si>
+    <t>03/06/2021,0.46076,N/A,0.4608,0.46646,0.45921</t>
+  </si>
+  <si>
+    <t>03/05/2021,0.45994,N/A,0.45603,0.47019,0.45404</t>
+  </si>
+  <si>
+    <t>03/04/2021,0.46143,N/A,0.43732,0.48268,0.44664</t>
+  </si>
+  <si>
+    <t>03/03/2021,0.43833,N/A,0.44139,0.45875,0.43684</t>
+  </si>
+  <si>
+    <t>03/02/2021,0.44268,N/A,0.44276,0.44302,0.4314</t>
+  </si>
+  <si>
+    <t>03/01/2021,0.44142,N/A,0.41978,0.45414,0.43783</t>
+  </si>
+  <si>
+    <t>02/28/2021,0.42046,N/A,0.4113,0.42676,0.41226</t>
+  </si>
+  <si>
+    <t>02/27/2021,0.41663,N/A,0.44229,0.43789,0.41651</t>
+  </si>
+  <si>
+    <t>02/26/2021,0.44215,N/A,0.43647,0.44399,0.42778</t>
+  </si>
+  <si>
+    <t>02/25/2021,0.43633,N/A,0.46326,0.44292,0.413</t>
+  </si>
+  <si>
+    <t>02/24/2021,0.46446,N/A,0.48937,0.48146,0.46221</t>
+  </si>
+  <si>
+    <t>02/23/2021,0.49303,N/A,0.53685,0.49854,0.45857</t>
+  </si>
+  <si>
+    <t>02/22/2021,0.53017,N/A,0.52602,0.5706,0.52581</t>
+  </si>
+  <si>
+    <t>02/21/2021,0.5233,N/A,0.52385,0.54651,0.51627</t>
+  </si>
+  <si>
+    <t>02/20/2021,0.51998,N/A,0.56768,0.53201,0.50521</t>
+  </si>
+  <si>
+    <t>02/19/2021,0.57133,N/A,0.52658,0.57385,0.55568</t>
+  </si>
+  <si>
+    <t>02/18/2021,0.52562,N/A,0.54694,0.53792,0.51489</t>
+  </si>
+  <si>
+    <t>02/17/2021,0.54476,N/A,0.50105,0.54966,0.53435</t>
+  </si>
+  <si>
+    <t>02/16/2021,0.50321,N/A,0.57291,0.52945,0.49784</t>
+  </si>
+  <si>
+    <t>02/15/2021,0.57291,N/A,0.53861,0.57897,0.53533</t>
+  </si>
+  <si>
+    <t>02/14/2021,0.53769,N/A,0.61163,0.60394,0.51117</t>
+  </si>
+  <si>
+    <t>02/13/2021,0.6138,N/A,0.62585,0.63792,0.6018</t>
+  </si>
+  <si>
+    <t>02/12/2021,0.6359,N/A,0.54995,0.64209,0.60604</t>
+  </si>
+  <si>
+    <t>02/11/2021,0.54685,N/A,0.51149,0.56858,0.51961</t>
+  </si>
+  <si>
+    <t>02/10/2021,0.51198,N/A,0.48238,0.52733,0.5015</t>
+  </si>
+  <si>
+    <t>02/09/2021,0.48212,N/A,0.4818,0.49729,0.47119</t>
+  </si>
+  <si>
+    <t>02/08/2021,0.48119,N/A,0.42141,0.48937,0.44989</t>
+  </si>
+  <si>
+    <t>02/07/2021,0.42129,N/A,0.42687,0.42836,0.4128</t>
+  </si>
+  <si>
+    <t>02/06/2021,0.42196,N/A,0.43015,0.45029,0.42195</t>
+  </si>
+  <si>
+    <t>02/05/2021,0.43297,N/A,0.44408,0.45593,0.42685</t>
+  </si>
+  <si>
+    <t>02/04/2021,0.44681,N/A,0.38725,0.47078,0.42851</t>
+  </si>
+  <si>
+    <t>02/03/2021,0.38659,N/A,0.3853,0.39847,0.38186</t>
+  </si>
+  <si>
+    <t>02/02/2021,0.38666,N/A,0.38183,0.39706,0.3723</t>
+  </si>
+  <si>
+    <t>02/01/2021,0.37869,N/A,0.57085,0.39409,0.34132</t>
+  </si>
+  <si>
+    <t>01/31/2021,0.57439,N/A,0.4062,0.59712,0.46155</t>
+  </si>
+  <si>
+    <t>01/30/2021,0.39955,N/A,0.2911,0.44424,0.39005</t>
+  </si>
+  <si>
+    <t>01/29/2021,0.28734,N/A,0.27737,0.30569,0.27879</t>
+  </si>
+  <si>
+    <t>01/28/2021,0.27133,N/A,0.25618,0.27211,0.26038</t>
+  </si>
+  <si>
+    <t>01/27/2021,0.25548,N/A,0.2649,0.25675,0.24728</t>
+  </si>
+  <si>
+    <t>01/26/2021,0.26457,N/A,0.26677,0.26861,0.2634</t>
+  </si>
+  <si>
+    <t>01/25/2021,0.26629,N/A,0.2782,0.27082,0.26317</t>
+  </si>
+  <si>
+    <t>01/24/2021,0.2778,N/A,0.27488,0.28094,0.27318</t>
+  </si>
+  <si>
+    <t>01/23/2021,0.27397,N/A,0.27708,0.27608,0.26906</t>
+  </si>
+  <si>
+    <t>01/22/2021,0.27737,N/A,0.26711,0.28303,0.2703</t>
+  </si>
+  <si>
+    <t>01/21/2021,0.26671,N/A,0.2927,0.27164,0.24165</t>
+  </si>
+  <si>
+    <t>01/20/2021,0.29486,N/A,0.28832,0.3072,0.28858</t>
+  </si>
+  <si>
+    <t>01/19/2021,0.28892,N/A,0.29017,0.29895,0.28316</t>
+  </si>
+  <si>
+    <t>01/18/2021,0.29075,N/A,0.27336,0.29436,0.28409</t>
+  </si>
+  <si>
+    <t>01/17/2021,0.27278,N/A,0.27938,0.27873,0.27171</t>
+  </si>
+  <si>
+    <t>01/16/2021,0.28081,N/A,0.28025,0.28538,0.27591</t>
+  </si>
+  <si>
+    <t>01/15/2021,0.27959,N/A,0.29285,0.28624,0.27815</t>
+  </si>
+  <si>
+    <t>01/14/2021,0.29396,N/A,0.29607,0.30301,0.29315</t>
+  </si>
+  <si>
+    <t>01/13/2021,0.29618,N/A,0.29186,0.30864,0.28358</t>
+  </si>
+  <si>
+    <t>01/12/2021,0.29108,N/A,0.30005,0.29673,0.28544</t>
+  </si>
+  <si>
+    <t>01/11/2021,0.29838,N/A,0.27835,0.30883,0.28002</t>
+  </si>
+  <si>
+    <t>01/10/2021,0.27985,N/A,0.3329,0.31567,0.25579</t>
+  </si>
+  <si>
+    <t>01/09/2021,0.33272,N/A,0.31949,0.33909,0.32433</t>
+  </si>
+  <si>
+    <t>01/08/2021,0.3201,N/A,0.31212,0.32728,0.30626</t>
+  </si>
+  <si>
+    <t>01/07/2021,0.31195,N/A,0.29247,0.34591,0.28574</t>
+  </si>
+  <si>
+    <t>01/06/2021,0.29655,N/A,0.22718,0.31613,0.2457</t>
+  </si>
+  <si>
+    <t>01/05/2021,0.22667,N/A,0.22785,0.23449,0.22162</t>
+  </si>
+  <si>
+    <t>01/04/2021,0.2299,N/A,0.23953,0.2393,0.22525</t>
+  </si>
+  <si>
+    <t>01/03/2021,0.23579,N/A,0.22282,0.23747,0.2229</t>
+  </si>
+  <si>
+    <t>01/02/2021,0.22348,N/A,0.23469,0.22488,0.21746</t>
+  </si>
+  <si>
+    <t>01/01/2021,0.23395,N/A,0.23918,0.23806,0.23083</t>
+  </si>
+  <si>
+    <t>12/31/2020,0.24277,N/A,0.21481,0.24956,0.21643</t>
+  </si>
+  <si>
+    <t>12/30/2020,0.21501,N/A,0.19817,0.21862,0.20543</t>
+  </si>
+  <si>
+    <t>12/29/2020,0.20001,N/A,0.22662,0.22278,0.19217</t>
+  </si>
+  <si>
+    <t>12/28/2020,0.22714,N/A,0.28107,0.24924,0.22037</t>
+  </si>
+  <si>
+    <t>12/27/2020,0.28132,N/A,0.29412,0.28696,0.27897</t>
+  </si>
+  <si>
+    <t>12/26/2020,0.29594,N/A,0.30954,0.30253,0.2901</t>
+  </si>
+  <si>
+    <t>12/25/2020,0.31457,N/A,0.33321,0.32293,0.30247</t>
+  </si>
+  <si>
+    <t>12/24/2020,0.33293,N/A,0.27527,0.35761,0.325</t>
+  </si>
+  <si>
+    <t>12/23/2020,0.2748,N/A,0.38231,0.30362,0.2525</t>
+  </si>
+  <si>
+    <t>12/22/2020,0.39056,N/A,0.48694,0.44785,0.3897</t>
+  </si>
+  <si>
+    <t>12/21/2020,0.48473,N/A,0.56324,0.5215,0.47731</t>
+  </si>
+  <si>
+    <t>12/20/2020,0.56223,N/A,0.57281,0.56909,0.54827</t>
+  </si>
+  <si>
+    <t>12/19/2020,0.57277,N/A,0.57276,0.57665,0.56518</t>
+  </si>
+  <si>
+    <t>12/18/2020,0.57452,N/A,0.58116,0.58539,0.56653</t>
+  </si>
+  <si>
+    <t>12/17/2020,0.58297,N/A,0.55668,0.61238,0.5516</t>
+  </si>
+  <si>
+    <t>12/16/2020,0.55887,N/A,0.44521,0.58249,0.5477</t>
+  </si>
+  <si>
+    <t>12/15/2020,0.44754,N/A,0.50112,0.46808,0.43985</t>
+  </si>
+  <si>
+    <t>12/14/2020,0.49461,N/A,0.51309,0.50706,0.49461</t>
+  </si>
+  <si>
+    <t>12/13/2020,0.50557,N/A,0.48747,0.5181,0.50397</t>
+  </si>
+  <si>
+    <t>12/12/2020,0.49194,N/A,0.53587,0.50988,0.48652</t>
+  </si>
+  <si>
+    <t>12/11/2020,0.5316,N/A,0.55672,0.54739,0.51058</t>
+  </si>
+  <si>
+    <t>12/10/2020,0.55806,N/A,0.57381,0.5736,0.54624</t>
+  </si>
+  <si>
+    <t>12/09/2020,0.57865,N/A,0.54835,0.58669,0.56613</t>
+  </si>
+  <si>
+    <t>12/08/2020,0.55381,N/A,0.60526,0.56415,0.54694</t>
+  </si>
+  <si>
+    <t>12/07/2020,0.60534,N/A,0.61514,0.61018,0.60388</t>
+  </si>
+  <si>
+    <t>12/06/2020,0.61424,N/A,0.61287,0.62317,0.60825</t>
+  </si>
+  <si>
+    <t>12/05/2020,0.61526,N/A,0.57157,0.62717,0.58533</t>
+  </si>
+  <si>
+    <t>12/04/2020,0.57862,N/A,0.61659,0.5796,0.54901</t>
+  </si>
+  <si>
+    <t>12/03/2020,0.61569,N/A,0.62055,0.63388,0.60906</t>
+  </si>
+  <si>
+    <t>12/02/2020,0.6213,N/A,0.60326,0.63701,0.61664</t>
+  </si>
+  <si>
+    <t>12/01/2020,0.60263,N/A,0.64533,0.62145,0.59552</t>
+  </si>
+  <si>
+    <t>11/30/2020,0.64917,N/A,0.62918,0.66866,0.64487</t>
+  </si>
+  <si>
+    <t>11/29/2020,0.62311,N/A,0.61058,0.64533,0.60533</t>
+  </si>
+  <si>
+    <t>11/28/2020,0.61357,N/A,0.54765,0.63024,0.58557</t>
+  </si>
+  <si>
+    <t>11/27/2020,0.54328,N/A,0.54226,0.57617,0.54032</t>
+  </si>
+  <si>
+    <t>11/26/2020,0.54255,N/A,0.5526,0.58549,0.52189</t>
+  </si>
+  <si>
+    <t>11/25/2020,0.5505,N/A,0.62401,0.65095,0.52829</t>
+  </si>
+  <si>
+    <t>11/24/2020,0.64049,N/A,0.68617,0.70711,0.62057</t>
+  </si>
+  <si>
+    <t>11/23/2020,0.67466,N/A,0.45703,0.67779,0.5813</t>
+  </si>
+  <si>
+    <t>11/22/2020,0.45584,N/A,0.44723,0.46644,0.43287</t>
+  </si>
+  <si>
+    <t>11/21/2020,0.45063,N/A,0.33658,0.49544,0.41079</t>
+  </si>
+  <si>
+    <t>11/20/2020,0.33733,N/A,0.30292,0.34401,0.32957</t>
+  </si>
+  <si>
+    <t>11/19/2020,0.30327,N/A,0.29177,0.30509,0.3005</t>
+  </si>
+  <si>
+    <t>11/18/2020,0.292,N/A,0.3012,0.29601,0.28959</t>
+  </si>
+  <si>
+    <t>11/17/2020,0.30032,N/A,0.29868,0.30782,0.29436</t>
+  </si>
+  <si>
+    <t>11/16/2020,0.2969,N/A,0.2687,0.29705,0.28731</t>
+  </si>
+  <si>
+    <t>11/15/2020,0.26797,N/A,0.27089,0.2711,0.26763</t>
+  </si>
+  <si>
+    <t>11/14/2020,0.27036,N/A,0.27257,0.27666,0.26813</t>
+  </si>
+  <si>
+    <t>11/13/2020,0.27222,N/A,0.2556,0.2771,0.26404</t>
+  </si>
+  <si>
+    <t>11/12/2020,0.25592,N/A,0.25673,0.25697,0.25435</t>
+  </si>
+  <si>
+    <t>11/11/2020,0.25646,N/A,0.25469,0.2566,0.25315</t>
+  </si>
+  <si>
+    <t>11/10/2020,0.255,N/A,0.2521,0.25879,0.25228</t>
+  </si>
+  <si>
+    <t>11/09/2020,0.25262,N/A,0.2518,0.25269,0.24807</t>
+  </si>
+  <si>
+    <t>11/08/2020,0.25182,N/A,0.25043,0.25613,0.25113</t>
+  </si>
+  <si>
+    <t>11/07/2020,0.25159,N/A,0.26427,0.25197,0.24737</t>
+  </si>
+  <si>
+    <t>11/06/2020,0.26259,N/A,0.24859,0.26725,0.25849</t>
+  </si>
+  <si>
+    <t>11/05/2020,0.24962,N/A,0.23929,0.25301,0.24512</t>
+  </si>
+  <si>
+    <t>11/04/2020,0.23983,N/A,0.23837,0.24127,0.23749</t>
+  </si>
+  <si>
+    <t>11/03/2020,0.23873,N/A,0.22995,0.24039,0.23611</t>
+  </si>
+  <si>
+    <t>11/02/2020,0.22979,N/A,0.24073,0.23674,0.22803</t>
+  </si>
+  <si>
+    <t>11/01/2020,0.24026,N/A,0.23874,0.24455,0.23948</t>
+  </si>
+  <si>
+    <t>10/31/2020,0.23857,N/A,0.2388,0.24123,0.23854</t>
+  </si>
+  <si>
+    <t>10/30/2020,0.23832,N/A,0.24087,0.24004,0.23756</t>
+  </si>
+  <si>
+    <t>10/29/2020,0.24074,N/A,0.24682,0.24389,0.24062</t>
+  </si>
+  <si>
+    <t>10/28/2020,0.24642,N/A,0.25342,0.24667,0.24438</t>
+  </si>
+  <si>
+    <t>10/27/2020,0.25433,N/A,0.24887,0.25667,0.25171</t>
+  </si>
+  <si>
+    <t>10/26/2020,0.24871,N/A,0.25691,0.24978,0.24765</t>
+  </si>
+  <si>
+    <t>10/25/2020,0.25722,N/A,0.25669,0.25904,0.25266</t>
+  </si>
+  <si>
+    <t>10/24/2020,0.2569,N/A,0.25442,0.25708,0.25464</t>
+  </si>
+  <si>
+    <t>10/23/2020,0.25457,N/A,0.25828,0.25551,0.25336</t>
+  </si>
+  <si>
+    <t>10/22/2020,0.2582,N/A,0.25538,0.25917,0.25485</t>
+  </si>
+  <si>
+    <t>10/21/2020,0.25563,N/A,0.24867,0.2576,0.25083</t>
+  </si>
+  <si>
+    <t>10/20/2020,0.24748,N/A,0.24912,0.24758,0.24261</t>
+  </si>
+  <si>
+    <t>10/19/2020,0.24968,N/A,0.24054,0.25021,0.24478</t>
+  </si>
+  <si>
+    <t>10/18/2020,0.24135,N/A,0.2411,0.24287,0.24126</t>
+  </si>
+  <si>
+    <t>10/17/2020,0.24106,N/A,0.2425,0.24157,0.24007</t>
+  </si>
+  <si>
+    <t>10/16/2020,0.242,N/A,0.24684,0.24208,0.23869</t>
+  </si>
+  <si>
+    <t>10/15/2020,0.24649,N/A,0.24727,0.24784,0.24478</t>
+  </si>
+  <si>
+    <t>10/14/2020,0.24723,N/A,0.25661,0.24912,0.24553</t>
+  </si>
+  <si>
+    <t>10/13/2020,0.25761,N/A,0.25541,0.25831,0.25556</t>
+  </si>
+  <si>
+    <t>10/12/2020,0.25565,N/A,0.25551,0.25646,0.254</t>
+  </si>
+  <si>
+    <t>10/11/2020,0.25579,N/A,0.25418,0.25579,0.25417</t>
+  </si>
+  <si>
+    <t>10/10/2020,0.25392,N/A,0.25744,0.25565,0.25327</t>
+  </si>
+  <si>
+    <t>10/09/2020,0.25735,N/A,0.25145,0.25803,0.25288</t>
+  </si>
+  <si>
+    <t>10/08/2020,0.25165,N/A,0.24715,0.25223,0.25009</t>
+  </si>
+  <si>
+    <t>10/07/2020,0.24731,N/A,0.24361,0.24917,0.2468</t>
+  </si>
+  <si>
+    <t>10/06/2020,0.24407,N/A,0.25781,0.24562,0.24097</t>
+  </si>
+  <si>
+    <t>10/05/2020,0.25818,N/A,0.24981,0.25916,0.25014</t>
+  </si>
+  <si>
+    <t>10/04/2020,0.25022,N/A,0.23211,0.2542,0.24787</t>
+  </si>
+  <si>
+    <t>10/03/2020,0.23228,N/A,0.23424,0.23359,0.23152</t>
+  </si>
+  <si>
+    <t>10/02/2020,0.23399,N/A,0.23862,0.23427,0.23277</t>
+  </si>
+  <si>
+    <t>10/01/2020,0.23795,N/A,0.24197,0.23831,0.23659</t>
+  </si>
+  <si>
+    <t>09/30/2020,0.24207,N/A,0.24054,0.243,0.24149</t>
+  </si>
+  <si>
+    <t>09/29/2020,0.2409,N/A,0.24154,0.24288,0.24035</t>
+  </si>
+  <si>
+    <t>09/28/2020,0.24171,N/A,0.24459,0.24268,0.24014</t>
+  </si>
+  <si>
+    <t>09/27/2020,0.24475,N/A,0.24417,0.2463,0.2432</t>
+  </si>
+  <si>
+    <t>09/26/2020,0.24429,N/A,0.24397,0.24438,0.24129</t>
+  </si>
+  <si>
+    <t>09/25/2020,0.24405,N/A,0.232,0.24546,0.24142</t>
+  </si>
+  <si>
+    <t>09/24/2020,0.23236,N/A,0.22353,0.23339,0.23135</t>
+  </si>
+  <si>
+    <t>09/23/2020,0.22365,N/A,0.23355,0.22431,0.21955</t>
+  </si>
+  <si>
+    <t>09/22/2020,0.23258,N/A,0.23186,0.23382,0.23229</t>
+  </si>
+  <si>
+    <t>09/21/2020,0.23153,N/A,0.24661,0.2339,0.22942</t>
+  </si>
+  <si>
+    <t>09/20/2020,0.24656,N/A,0.24938,0.24808,0.24431</t>
+  </si>
+  <si>
+    <t>09/19/2020,0.25012,N/A,0.25077,0.25131,0.24874</t>
+  </si>
+  <si>
+    <t>09/18/2020,0.24886,N/A,0.25185,0.25104,0.24841</t>
+  </si>
+  <si>
+    <t>09/17/2020,0.2535,N/A,0.25165,0.25384,0.25058</t>
+  </si>
+  <si>
+    <t>09/16/2020,0.25132,N/A,0.24113,0.25821,0.24678</t>
+  </si>
+  <si>
+    <t>09/15/2020,0.23996,N/A,0.24694,0.24331,0.23431</t>
+  </si>
+  <si>
+    <t>09/14/2020,0.24694,N/A,0.24296,0.24939,0.24502</t>
+  </si>
+  <si>
+    <t>09/13/2020,0.24294,N/A,0.25258,0.24369,0.23915</t>
+  </si>
+  <si>
+    <t>09/12/2020,0.25106,N/A,0.2425,0.25106,0.24687</t>
+  </si>
+  <si>
+    <t>09/11/2020,0.24257,N/A,0.23844,0.24265,0.24105</t>
+  </si>
+  <si>
+    <t>09/10/2020,0.23879,N/A,0.24563,0.24441,0.23701</t>
+  </si>
+  <si>
+    <t>09/09/2020,0.2456,N/A,0.23468,0.24695,0.23888</t>
+  </si>
+  <si>
+    <t>09/08/2020,0.23373,N/A,0.2408,0.23735,0.23312</t>
+  </si>
+  <si>
+    <t>09/07/2020,0.24107,N/A,0.23875,0.24355,0.2405</t>
+  </si>
+  <si>
+    <t>09/06/2020,0.23849,N/A,0.23392,0.24285,0.23724</t>
+  </si>
+  <si>
+    <t>09/05/2020,0.23478,N/A,0.25302,0.23867,0.23342</t>
+  </si>
+  <si>
+    <t>09/04/2020,0.25361,N/A,0.2491,0.25941,0.2523</t>
+  </si>
+  <si>
+    <t>09/03/2020,0.24939,N/A,0.27159,0.25117,0.24113</t>
+  </si>
+  <si>
+    <t>09/02/2020,0.27115,N/A,0.29834,0.27647,0.27096</t>
+  </si>
+  <si>
+    <t>09/01/2020,0.2984,N/A,0.28328,0.30373,0.29504</t>
+  </si>
+  <si>
+    <t>08/31/2020,0.28336,N/A,0.28375,0.28344,0.27632</t>
+  </si>
+  <si>
+    <t>08/30/2020,0.28379,N/A,0.2774,0.2845,0.28293</t>
+  </si>
+  <si>
+    <t>08/29/2020,0.27747,N/A,0.26999,0.27844,0.27381</t>
+  </si>
+  <si>
+    <t>08/28/2020,0.26974,N/A,0.26656,0.2729,0.26872</t>
+  </si>
+  <si>
+    <t>08/27/2020,0.26569,N/A,0.2753,0.26752,0.26005</t>
+  </si>
+  <si>
+    <t>08/26/2020,0.27618,N/A,0.27726,0.27826,0.2748</t>
+  </si>
+  <si>
+    <t>08/25/2020,0.27628,N/A,0.28633,0.27827,0.27435</t>
+  </si>
+  <si>
+    <t>08/24/2020,0.28643,N/A,0.28569,0.28957,0.28538</t>
+  </si>
+  <si>
+    <t>08/23/2020,0.28554,N/A,0.28226,0.28591,0.28236</t>
+  </si>
+  <si>
+    <t>08/22/2020,0.28205,N/A,0.27877,0.28794,0.28171</t>
+  </si>
+  <si>
+    <t>08/21/2020,0.27808,N/A,0.29478,0.27942,0.27353</t>
+  </si>
+  <si>
+    <t>08/20/2020,0.29266,N/A,0.28708,0.29309,0.28688</t>
+  </si>
+  <si>
+    <t>08/19/2020,0.28828,N/A,0.29331,0.29261,0.28694</t>
+  </si>
+  <si>
+    <t>08/18/2020,0.29383,N/A,0.31742,0.30587,0.29318</t>
+  </si>
+  <si>
+    <t>08/17/2020,0.31793,N/A,0.30171,0.32152,0.31468</t>
+  </si>
+  <si>
+    <t>08/16/2020,0.30236,N/A,0.29939,0.3056,0.29746</t>
+  </si>
+  <si>
+    <t>08/15/2020,0.30044,N/A,0.30027,0.30467,0.29591</t>
+  </si>
+  <si>
+    <t>08/14/2020,0.29991,N/A,0.29331,0.30522,0.29927</t>
+  </si>
+  <si>
+    <t>08/13/2020,0.29391,N/A,0.28347,0.30068,0.29097</t>
+  </si>
+  <si>
+    <t>08/12/2020,0.28294,N/A,0.28014,0.28586,0.28146</t>
+  </si>
+  <si>
+    <t>08/11/2020,0.27955,N/A,0.3026,0.28316,0.27529</t>
+  </si>
+  <si>
+    <t>08/10/2020,0.3024,N/A,0.2946,0.30713,0.29445</t>
+  </si>
+  <si>
+    <t>08/09/2020,0.29471,N/A,0.29546,0.29523,0.28795</t>
+  </si>
+  <si>
+    <t>08/08/2020,0.29545,N/A,0.29249,0.29828,0.2943</t>
+  </si>
+  <si>
+    <t>08/07/2020,0.29295,N/A,0.30423,0.29653,0.29155</t>
+  </si>
+  <si>
+    <t>08/06/2020,0.30477,N/A,0.29933,0.30673,0.30203</t>
+  </si>
+  <si>
+    <t>08/05/2020,0.29899,N/A,0.29596,0.30356,0.29792</t>
+  </si>
+  <si>
+    <t>08/04/2020,0.29556,N/A,0.31018,0.30228,0.29175</t>
+  </si>
+  <si>
+    <t>08/03/2020,0.3083,N/A,0.29314,0.31873,0.30812</t>
+  </si>
+  <si>
+    <t>08/02/2020,0.29365,N/A,0.32408,0.29948,0.28482</t>
+  </si>
+  <si>
+    <t>08/01/2020,0.32424,N/A,0.2609,0.32431,0.28975</t>
+  </si>
+  <si>
+    <t>07/31/2020,0.26105,N/A,0.24203,0.26148,0.25576</t>
+  </si>
+  <si>
+    <t>07/30/2020,0.24201,N/A,0.24027,0.24646,0.24188</t>
+  </si>
+  <si>
+    <t>07/29/2020,0.24018,N/A,0.24383,0.24329,0.23742</t>
+  </si>
+  <si>
+    <t>07/28/2020,0.24195,N/A,0.22215,0.24317,0.22955</t>
+  </si>
+  <si>
+    <t>07/27/2020,0.22203,N/A,0.21712,0.22664,0.22084</t>
+  </si>
+  <si>
+    <t>07/26/2020,0.21741,N/A,0.22009,0.2201,0.21517</t>
+  </si>
+  <si>
+    <t>07/25/2020,0.2202,N/A,0.20705,0.22116,0.21295</t>
+  </si>
+  <si>
+    <t>07/24/2020,0.20725,N/A,0.20719,0.20817,0.20367</t>
+  </si>
+  <si>
+    <t>07/23/2020,0.20721,N/A,0.20305,0.2085,0.206</t>
+  </si>
+  <si>
+    <t>07/22/2020,0.20313,N/A,0.19842,0.20527,0.20245</t>
+  </si>
+  <si>
+    <t>07/21/2020,0.19839,N/A,0.19651,0.1995,0.1982</t>
+  </si>
+  <si>
+    <t>07/20/2020,0.19626,N/A,0.19914,0.19639,0.19399</t>
+  </si>
+  <si>
+    <t>07/19/2020,0.19892,N/A,0.19795,0.20008,0.19843</t>
+  </si>
+  <si>
+    <t>07/18/2020,0.19811,N/A,0.1948,0.20198,0.19708</t>
+  </si>
+  <si>
+    <t>07/17/2020,0.19459,N/A,0.193,0.19527,0.19403</t>
+  </si>
+  <si>
+    <t>07/16/2020,0.19262,N/A,0.19676,0.19475,0.19249</t>
+  </si>
+  <si>
+    <t>07/15/2020,0.19668,N/A,0.19841,0.19752,0.1961</t>
+  </si>
+  <si>
+    <t>07/14/2020,0.19866,N/A,0.19739,0.19974,0.1986</t>
+  </si>
+  <si>
+    <t>07/13/2020,0.19795,N/A,0.19939,0.19871,0.19683</t>
+  </si>
+  <si>
+    <t>07/12/2020,0.1994,N/A,0.20174,0.20161,0.19903</t>
+  </si>
+  <si>
+    <t>07/11/2020,0.20197,N/A,0.20221,0.20312,0.20113</t>
+  </si>
+  <si>
+    <t>07/10/2020,0.20189,N/A,0.20008,0.2046,0.19874</t>
+  </si>
+  <si>
+    <t>07/09/2020,0.19952,N/A,0.20013,0.20264,0.19912</t>
+  </si>
+  <si>
+    <t>07/08/2020,0.20012,N/A,0.19983,0.20544,0.1981</t>
+  </si>
+  <si>
+    <t>07/07/2020,0.19898,N/A,0.18759,0.1998,0.18402</t>
+  </si>
+  <si>
+    <t>07/06/2020,0.18769,N/A,0.17699,0.18957,0.18719</t>
+  </si>
+  <si>
+    <t>07/05/2020,0.17681,N/A,0.17679,0.17751,0.17645</t>
+  </si>
+  <si>
+    <t>07/04/2020,0.17671,N/A,0.17768,0.17876,0.17646</t>
+  </si>
+  <si>
+    <t>07/03/2020,0.17774,N/A,0.17526,0.17869,0.17604</t>
+  </si>
+  <si>
+    <t>07/02/2020,0.17597,N/A,0.17566,0.17712,0.17539</t>
+  </si>
+  <si>
+    <t>07/01/2020,0.17703,N/A,0.17576,0.1771,0.17608</t>
+  </si>
+  <si>
+    <t>06/30/2020,0.17529,N/A,0.17686,0.17599,0.17393</t>
+  </si>
+  <si>
+    <t>06/29/2020,0.1769,N/A,0.17683,0.17756,0.17667</t>
+  </si>
+  <si>
+    <t>06/28/2020,0.17681,N/A,0.17449,0.1778,0.1764</t>
+  </si>
+  <si>
+    <t>06/27/2020,0.17432,N/A,0.18288,0.17514,0.17349</t>
+  </si>
+  <si>
+    <t>06/26/2020,0.1829,N/A,0.18265,0.18332,0.18187</t>
+  </si>
+  <si>
+    <t>06/25/2020,0.18292,N/A,0.18048,0.18321,0.181</t>
+  </si>
+  <si>
+    <t>06/24/2020,0.18014,N/A,0.18938,0.18406,0.17897</t>
+  </si>
+  <si>
+    <t>06/23/2020,0.18942,N/A,0.18915,0.18967,0.18882</t>
+  </si>
+  <si>
+    <t>06/22/2020,0.18923,N/A,0.1879,0.19042,0.18851</t>
+  </si>
+  <si>
+    <t>06/21/2020,0.18768,N/A,0.18773,0.18814,0.18584</t>
+  </si>
+  <si>
+    <t>06/20/2020,0.18758,N/A,0.18843,0.1884,0.18749</t>
+  </si>
+  <si>
+    <t>06/19/2020,0.18851,N/A,0.18805,0.18894,0.18678</t>
+  </si>
+  <si>
+    <t>06/18/2020,0.18755,N/A,0.19194,0.19002,0.18715</t>
+  </si>
+  <si>
+    <t>06/17/2020,0.19199,N/A,0.19157,0.1932,0.19139</t>
+  </si>
+  <si>
+    <t>06/16/2020,0.19159,N/A,0.19369,0.19245,0.19109</t>
+  </si>
+  <si>
+    <t>06/15/2020,0.19363,N/A,0.1863,0.19389,0.19091</t>
+  </si>
+  <si>
+    <t>06/14/2020,0.1921,N/A,0.19145,0.19248,0.1906</t>
+  </si>
+  <si>
+    <t>06/13/2020,0.19175,N/A,0.19197,0.19248,0.19163</t>
+  </si>
+  <si>
+    <t>06/12/2020,0.19235,N/A,0.19086,0.19326,0.19178</t>
+  </si>
+  <si>
+    <t>06/11/2020,0.19101,N/A,0.20261,0.1919,0.1871</t>
+  </si>
+  <si>
+    <t>06/10/2020,0.20251,N/A,0.2014,0.20343,0.20228</t>
+  </si>
+  <si>
+    <t>06/09/2020,0.20143,N/A,0.20316,0.20215,0.20108</t>
+  </si>
+  <si>
+    <t>06/08/2020,0.20327,N/A,0.20292,0.20499,0.20075</t>
+  </si>
+  <si>
+    <t>06/07/2020,0.20277,N/A,0.2045,0.20355,0.20234</t>
+  </si>
+  <si>
+    <t>06/06/2020,0.20464,N/A,0.20317,0.20495,0.20332</t>
+  </si>
+  <si>
+    <t>06/05/2020,0.20274,N/A,0.20393,0.20323,0.20144</t>
+  </si>
+  <si>
+    <t>06/04/2020,0.20298,N/A,0.20296,0.20713,0.20121</t>
+  </si>
+  <si>
+    <t>06/03/2020,0.20692,N/A,0.20197,0.20695,0.20353</t>
+  </si>
+  <si>
+    <t>06/02/2020,0.20207,N/A,0.21023,0.20356,0.20125</t>
+  </si>
+  <si>
+    <t>06/01/2020,0.21022,N/A,0.20524,0.21196,0.20941</t>
+  </si>
+  <si>
+    <t>05/31/2020,0.20586,N/A,0.20022,0.2076,0.20257</t>
+  </si>
+  <si>
+    <t>05/30/2020,0.20326,N/A,0.19773,0.2076,0.20257</t>
+  </si>
+  <si>
+    <t>05/29/2020,0.1975,N/A,0.20017,0.19774,0.19611</t>
+  </si>
+  <si>
+    <t>05/28/2020,0.20061,N/A,0.19686,0.2028,0.19986</t>
+  </si>
+  <si>
+    <t>05/27/2020,0.19688,N/A,0.19438,0.19838,0.1967</t>
+  </si>
+  <si>
+    <t>05/26/2020,0.19461,N/A,0.1955,0.19509,0.19367</t>
+  </si>
+  <si>
+    <t>05/25/2020,0.19573,N/A,0.194,0.19691,0.19446</t>
+  </si>
+  <si>
+    <t>05/24/2020,0.19394,N/A,0.19985,0.19452,0.19047</t>
+  </si>
+  <si>
+    <t>05/23/2020,0.2,N/A,0.20131,0.20045,0.19846</t>
+  </si>
+  <si>
+    <t>05/22/2020,0.20106,N/A,0.1928,0.20212,0.20031</t>
+  </si>
+  <si>
+    <t>05/21/2020,0.19304,N/A,0.20122,0.1954,0.19292</t>
+  </si>
+  <si>
+    <t>05/20/2020,0.20123,N/A,0.20474,0.20309,0.20111</t>
+  </si>
+  <si>
+    <t>05/19/2020,0.20408,N/A,0.20169,0.20549,0.20399</t>
+  </si>
+  <si>
+    <t>05/18/2020,0.20135,N/A,0.2064,0.2054,0.20119</t>
+  </si>
+  <si>
+    <t>05/17/2020,0.20651,N/A,0.20059,0.20732,0.20131</t>
+  </si>
+  <si>
+    <t>05/16/2020,0.20086,N/A,0.19889,0.20111,0.19888</t>
+  </si>
+  <si>
+    <t>05/15/2020,0.19967,N/A,0.20092,0.2008,0.19678</t>
+  </si>
+  <si>
+    <t>05/14/2020,0.20062,N/A,0.202,0.20455,0.19764</t>
+  </si>
+  <si>
+    <t>05/13/2020,0.2018,N/A,0.1984,0.20265,0.20074</t>
+  </si>
+  <si>
+    <t>05/12/2020,0.19865,N/A,0.19476,0.19948,0.19666</t>
+  </si>
+  <si>
+    <t>05/11/2020,0.19465,N/A,0.19735,0.19529,0.19132</t>
+  </si>
+  <si>
+    <t>05/10/2020,0.19583,N/A,0.2207,0.21649,0.18239</t>
+  </si>
+  <si>
+    <t>05/09/2020,0.19501,N/A,0.2204,0.21649,0.18239</t>
+  </si>
+  <si>
+    <t>05/08/2020,0.2203,N/A,0.21894,0.22117,0.21727</t>
+  </si>
+  <si>
+    <t>05/07/2020,0.21893,N/A,0.21501,0.22182,0.2174</t>
+  </si>
+  <si>
+    <t>05/06/2020,0.21514,N/A,0.21758,0.21718,0.21003</t>
+  </si>
+  <si>
+    <t>05/05/2020,0.21829,N/A,0.21842,0.21886,0.21512</t>
+  </si>
+  <si>
+    <t>05/04/2020,0.2186,N/A,0.21313,0.21971,0.21723</t>
+  </si>
+  <si>
+    <t>05/03/2020,0.21382,N/A,0.22599,0.22042,0.21037</t>
+  </si>
+  <si>
+    <t>05/02/2020,0.22615,N/A,0.21801,0.22647,0.22339</t>
+  </si>
+  <si>
+    <t>05/01/2020,0.21806,N/A,0.21318,0.21833,0.21621</t>
+  </si>
+  <si>
+    <t>04/30/2020,0.213,N/A,0.2355,0.21411,0.21128</t>
+  </si>
+  <si>
+    <t>04/29/2020,0.23455,N/A,0.21541,0.23455,0.22542</t>
+  </si>
+  <si>
+    <t>04/28/2020,0.21585,N/A,0.19649,0.21823,0.21386</t>
+  </si>
+  <si>
+    <t>04/27/2020,0.19665,N/A,0.19815,0.19751,0.19469</t>
+  </si>
+  <si>
+    <t>04/26/2020,0.19831,N/A,0.19495,0.19939,0.19619</t>
+  </si>
+  <si>
+    <t>04/25/2020,0.19492,N/A,0.19359,0.19535,0.1939</t>
+  </si>
+  <si>
+    <t>04/24/2020,0.19352,N/A,0.19523,0.19367,0.19183</t>
+  </si>
+  <si>
+    <t>04/23/2020,0.19524,N/A,0.18818,0.19627,0.19241</t>
+  </si>
+  <si>
+    <t>04/22/2020,0.18892,N/A,0.18363,0.19071,0.18726</t>
+  </si>
+  <si>
+    <t>04/21/2020,0.18368,N/A,0.1826,0.18464,0.1821</t>
+  </si>
+  <si>
+    <t>04/20/2020,0.1827,N/A,0.19301,0.18511,0.1814</t>
+  </si>
+  <si>
+    <t>04/19/2020,0.19326,N/A,0.19508,0.19414,0.18846</t>
+  </si>
+  <si>
+    <t>04/18/2020,0.19566,N/A,0.19068,0.19612,0.19344</t>
+  </si>
+  <si>
+    <t>04/17/2020,0.19049,N/A,0.18958,0.19151,0.18866</t>
+  </si>
+  <si>
+    <t>04/16/2020,0.1896,N/A,0.1784,0.19144,0.18846</t>
+  </si>
+  <si>
+    <t>04/15/2020,0.17833,N/A,0.18769,0.18058,0.17432</t>
+  </si>
+  <si>
+    <t>04/14/2020,0.18762,N/A,0.18772,0.18764,0.18462</t>
+  </si>
+  <si>
+    <t>04/13/2020,0.18759,N/A,0.18205,0.18849,0.1865</t>
+  </si>
+  <si>
+    <t>04/12/2020,0.1823,N/A,0.18703,0.18941,0.18089</t>
+  </si>
+  <si>
+    <t>04/11/2020,0.18727,N/A,0.19063,0.18954,0.18706</t>
+  </si>
+  <si>
+    <t>04/10/2020,0.19066,N/A,0.19555,0.19107,0.18743</t>
+  </si>
+  <si>
+    <t>04/09/2020,0.19581,N/A,0.19877,0.19873,0.19581</t>
+  </si>
+  <si>
+    <t>04/08/2020,0.19883,N/A,0.19888,0.20229,0.19839</t>
+  </si>
+  <si>
+    <t>04/07/2020,0.19965,N/A,0.19856,0.20039,0.19163</t>
+  </si>
+  <si>
+    <t>04/06/2020,0.19783,N/A,0.18104,0.20459,0.19553</t>
+  </si>
+  <si>
+    <t>04/05/2020,0.1807,N/A,0.1805,0.1812,0.17931</t>
+  </si>
+  <si>
+    <t>04/04/2020,0.18062,N/A,0.17904,0.18201,0.18048</t>
+  </si>
+  <si>
+    <t>04/03/2020,0.17881,N/A,0.17868,0.17993,0.17785</t>
+  </si>
+  <si>
+    <t>04/02/2020,0.17871,N/A,0.17521,0.17988,0.17784</t>
+  </si>
+  <si>
+    <t>04/01/2020,0.17486,N/A,0.17401,0.17648,0.1742</t>
+  </si>
+  <si>
+    <t>03/31/2020,0.17383,N/A,0.17214,0.1743,0.17181</t>
+  </si>
+  <si>
+    <t>03/30/2020,0.17243,N/A,0.16662,0.17338,0.17105</t>
+  </si>
+  <si>
+    <t>03/29/2020,0.1666,N/A,0.17448,0.16775,0.16256</t>
+  </si>
+  <si>
+    <t>03/28/2020,0.17472,N/A,0.16825,0.17651,0.17061</t>
+  </si>
+  <si>
+    <t>03/27/2020,0.16839,N/A,0.17674,0.17403,0.1667</t>
+  </si>
+  <si>
+    <t>03/26/2020,0.17584,N/A,0.16181,0.17927,0.17347</t>
+  </si>
+  <si>
+    <t>03/25/2020,0.1616,N/A,0.16036,0.16296,0.16035</t>
+  </si>
+  <si>
+    <t>03/24/2020,0.16055,N/A,0.15826,0.16356,0.15998</t>
+  </si>
+  <si>
+    <t>03/23/2020,0.15859,N/A,0.15145,0.16134,0.15822</t>
+  </si>
+  <si>
+    <t>03/22/2020,0.1518,N/A,0.15925,0.15233,0.14544</t>
+  </si>
+  <si>
+    <t>03/21/2020,0.16092,N/A,0.15888,0.161,0.15656</t>
+  </si>
+  <si>
+    <t>03/20/2020,0.15831,N/A,0.16169,0.16098,0.15449</t>
+  </si>
+  <si>
+    <t>03/19/2020,0.15901,N/A,0.14526,0.1666,0.15779</t>
+  </si>
+  <si>
+    <t>03/18/2020,0.14595,N/A,0.14765,0.14856,0.14445</t>
+  </si>
+  <si>
+    <t>03/17/2020,0.14856,N/A,0.14672,0.14863,0.14627</t>
+  </si>
+  <si>
+    <t>03/16/2020,0.14673,N/A,0.15282,0.15061,0.13994</t>
+  </si>
+  <si>
+    <t>03/15/2020,0.15046,N/A,0.14621,0.15314,0.14912</t>
+  </si>
+  <si>
+    <t>03/14/2020,0.14609,N/A,0.15792,0.14729,0.14479</t>
+  </si>
+  <si>
+    <t>03/13/2020,0.15815,N/A,0.12898,0.15974,0.15397</t>
+  </si>
+  <si>
+    <t>03/12/2020,0.13956,N/A,0.20024,0.15093,0.1057</t>
+  </si>
+  <si>
+    <t>03/11/2020,0.19859,N/A,0.21145,0.20973,0.19857</t>
+  </si>
+  <si>
+    <t>03/10/2020,0.21256,N/A,0.20733,0.2137,0.21116</t>
+  </si>
+  <si>
+    <t>03/09/2020,0.20849,N/A,0.20728,0.21002,0.207</t>
+  </si>
+  <si>
+    <t>03/08/2020,0.20688,N/A,0.23027,0.21048,0.20323</t>
+  </si>
+  <si>
+    <t>03/07/2020,0.23228,N/A,0.24392,0.23622,0.23021</t>
+  </si>
+  <si>
+    <t>03/06/2020,0.24303,N/A,0.23972,0.24489,0.24265</t>
+  </si>
+  <si>
+    <t>03/05/2020,0.23931,N/A,0.23557,0.24138,0.23825</t>
+  </si>
+  <si>
+    <t>03/04/2020,0.23311,N/A,0.23489,0.23816,0.23215</t>
+  </si>
+  <si>
+    <t>03/03/2020,0.23593,N/A,0.23866,0.23625,0.23281</t>
+  </si>
+  <si>
+    <t>03/02/2020,0.23706,N/A,0.22854,0.2396,0.2355</t>
+  </si>
+  <si>
+    <t>03/01/2020,0.22967,N/A,0.23339,0.22986,0.22605</t>
+  </si>
+  <si>
+    <t>02/29/2020,0.23299,N/A,0.24021,0.23564,0.229</t>
+  </si>
+  <si>
+    <t>02/28/2020,0.24023,N/A,0.23975,0.2403,0.23594</t>
+  </si>
+  <si>
+    <t>02/27/2020,0.24066,N/A,0.23037,0.24375,0.23812</t>
+  </si>
+  <si>
+    <t>02/26/2020,0.22987,N/A,0.24177,0.2306,0.22391</t>
+  </si>
+  <si>
+    <t>02/25/2020,0.24301,N/A,0.2678,0.25495,0.23564</t>
+  </si>
+  <si>
+    <t>02/24/2020,0.26791,N/A,0.27384,0.27056,0.26712</t>
+  </si>
+  <si>
+    <t>02/23/2020,0.27338,N/A,0.27908,0.28411,0.27241</t>
+  </si>
+  <si>
+    <t>02/22/2020,0.27875,N/A,0.27223,0.28081,0.27484</t>
+  </si>
+  <si>
+    <t>02/21/2020,0.27191,N/A,0.27526,0.27551,0.2716</t>
+  </si>
+  <si>
+    <t>02/20/2020,0.27488,N/A,0.27823,0.27799,0.2688</t>
+  </si>
+  <si>
+    <t>02/19/2020,0.27725,N/A,0.29545,0.28145,0.27348</t>
+  </si>
+  <si>
+    <t>02/18/2020,0.29545,N/A,0.2941,0.29851,0.29288</t>
+  </si>
+  <si>
+    <t>02/17/2020,0.2759,N/A,0.30434,0.29478,0.27037</t>
+  </si>
+  <si>
+    <t>02/16/2020,0.27677,N/A,0.31668,0.29478,0.27315</t>
+  </si>
+  <si>
+    <t>02/15/2020,0.31666,N/A,0.33634,0.31879,0.29991</t>
+  </si>
+  <si>
+    <t>02/14/2020,0.33698,N/A,0.32287,0.34553,0.3325</t>
+  </si>
+  <si>
+    <t>02/13/2020,0.32275,N/A,0.32454,0.3324,0.32079</t>
+  </si>
+  <si>
+    <t>02/12/2020,0.32477,N/A,0.28716,0.33307,0.30374</t>
+  </si>
+  <si>
+    <t>02/11/2020,0.28744,N/A,0.26856,0.2882,0.28106</t>
+  </si>
+  <si>
+    <t>02/10/2020,0.26846,N/A,0.27872,0.27362,0.26764</t>
+  </si>
+  <si>
+    <t>02/09/2020,0.27907,N/A,0.28034,0.28316,0.27733</t>
+  </si>
+  <si>
+    <t>02/08/2020,0.28019,N/A,0.27385,0.28143,0.27697</t>
+  </si>
+  <si>
+    <t>02/07/2020,0.27395,N/A,0.28279,0.27985,0.26479</t>
+  </si>
+  <si>
+    <t>02/06/2020,0.28244,N/A,0.28287,0.28804,0.2811</t>
+  </si>
+  <si>
+    <t>02/05/2020,0.28304,N/A,0.27964,0.28567,0.27303</t>
+  </si>
+  <si>
+    <t>02/04/2020,0.27933,N/A,0.25074,0.28038,0.26719</t>
+  </si>
+  <si>
+    <t>02/03/2020,0.25082,N/A,0.25193,0.25796,0.25026</t>
+  </si>
+  <si>
+    <t>02/02/2020,0.25219,N/A,0.23905,0.25908,0.2497</t>
+  </si>
+  <si>
+    <t>02/01/2020,0.23934,N/A,0.24095,0.24132,0.23619</t>
+  </si>
+  <si>
+    <t>01/31/2020,0.24174,N/A,0.24141,0.24294,0.23894</t>
+  </si>
+  <si>
+    <t>01/30/2020,0.24111,N/A,0.23474,0.2444,0.24023</t>
+  </si>
+  <si>
+    <t>01/29/2020,0.23491,N/A,0.23914,0.23549,0.23123</t>
+  </si>
+  <si>
+    <t>01/28/2020,0.2388,N/A,0.2332,0.23981,0.23773</t>
+  </si>
+  <si>
+    <t>01/27/2020,0.2335,N/A,0.22849,0.23576,0.23085</t>
+  </si>
+  <si>
+    <t>01/26/2020,0.22852,N/A,0.22079,0.23329,0.2283</t>
+  </si>
+  <si>
+    <t>01/25/2020,0.22078,N/A,0.21818,0.22238,0.21823</t>
+  </si>
+  <si>
+    <t>01/24/2020,0.21806,N/A,0.22054,0.22259,0.21688</t>
+  </si>
+  <si>
+    <t>01/23/2020,0.2203,N/A,0.23123,0.22618,0.21802</t>
+  </si>
+  <si>
+    <t>01/22/2020,0.23126,N/A,0.23711,0.23726,0.23094</t>
+  </si>
+  <si>
+    <t>01/21/2020,0.23693,N/A,0.23869,0.23863,0.23458</t>
+  </si>
+  <si>
+    <t>01/20/2020,0.23932,N/A,0.23186,0.24175,0.23164</t>
+  </si>
+  <si>
+    <t>01/19/2020,0.23224,N/A,0.24965,0.23637,0.2307</t>
+  </si>
+  <si>
+    <t>01/18/2020,0.24835,N/A,0.23496,0.24839,0.24138</t>
+  </si>
+  <si>
+    <t>01/17/2020,0.23504,N/A,0.23356,0.24193,0.23376</t>
+  </si>
+  <si>
+    <t>01/16/2020,0.23274,N/A,0.22612,0.23488,0.22672</t>
+  </si>
+  <si>
+    <t>01/15/2020,0.226,N/A,0.22812,0.23497,0.22272</t>
+  </si>
+  <si>
+    <t>01/14/2020,0.23063,N/A,0.21826,0.24313,0.22879</t>
+  </si>
+  <si>
+    <t>01/13/2020,0.21855,N/A,0.21232,0.21893,0.21133</t>
+  </si>
+  <si>
+    <t>01/12/2020,0.21251,N/A,0.21368,0.21551,0.21133</t>
+  </si>
+  <si>
+    <t>01/11/2020,0.21375,N/A,0.21138,0.215,0.20971</t>
+  </si>
+  <si>
+    <t>01/10/2020,0.21152,N/A,0.202,0.21469,0.21063</t>
+  </si>
+  <si>
+    <t>01/09/2020,0.20157,N/A,0.20686,0.20474,0.2005</t>
+  </si>
+  <si>
+    <t>01/08/2020,0.20676,N/A,0.21326,0.20871,0.20603</t>
+  </si>
+  <si>
+    <t>01/07/2020,0.21314,N/A,0.21445,0.21761,0.2119</t>
+  </si>
+  <si>
+    <t>01/06/2020,0.2144,N/A,0.19696,0.22505,0.2143</t>
+  </si>
+  <si>
+    <t>01/05/2020,0.19699,N/A,0.19512,0.19742,0.19428</t>
+  </si>
+  <si>
+    <t>01/04/2020,0.19506,N/A,0.19246,0.1954,0.19289</t>
+  </si>
+  <si>
+    <t>01/03/2020,0.19239,N/A,0.19043,0.19346,0.19196</t>
+  </si>
+  <si>
+    <t>01/02/2020,0.1903,N/A,0.19126,0.19143,0.18464</t>
+  </si>
+  <si>
+    <t>01/01/2020,0.1911,N/A,0.19362,0.1931,0.19087</t>
+  </si>
+  <si>
+    <t>12/31/2019,0.19373,N/A,0.19307,0.19428,0.19223</t>
+  </si>
+  <si>
+    <t>12/30/2019,0.19315,N/A,0.19584,0.19401,0.19255</t>
+  </si>
+  <si>
+    <t>12/29/2019,0.19562,N/A,0.19177,0.19674,0.19498</t>
+  </si>
+  <si>
+    <t>12/28/2019,0.19168,N/A,0.19157,0.19345,0.19107</t>
+  </si>
+  <si>
+    <t>12/27/2019,0.18882,N/A,0.192,0.18994,0.18539</t>
+  </si>
+  <si>
+    <t>12/26/2019,0.18928,N/A,0.18781,0.18994,0.18897</t>
+  </si>
+  <si>
+    <t>12/25/2019,0.18785,N/A,0.19005,0.18921,0.18761</t>
+  </si>
+  <si>
+    <t>12/24/2019,0.18999,N/A,0.19141,0.19127,0.18852</t>
+  </si>
+  <si>
+    <t>12/23/2019,0.19143,N/A,0.19655,0.19214,0.18886</t>
+  </si>
+  <si>
+    <t>12/22/2019,0.19669,N/A,0.19176,0.1982,0.19624</t>
+  </si>
+  <si>
+    <t>12/21/2019,0.19188,N/A,0.19328,0.19255,0.19046</t>
+  </si>
+  <si>
+    <t>12/20/2019,0.19345,N/A,0.1859,0.19595,0.19198</t>
+  </si>
+  <si>
+    <t>12/19/2019,0.18597,N/A,0.18984,0.18799,0.18516</t>
+  </si>
+  <si>
+    <t>12/18/2019,0.18971,N/A,0.18576,0.19692,0.18868</t>
+  </si>
+  <si>
+    <t>12/17/2019,0.1855,N/A,0.19606,0.18833,0.18187</t>
+  </si>
+  <si>
+    <t>12/16/2019,0.19719,N/A,0.21363,0.2057,0.19171</t>
+  </si>
+  <si>
+    <t>12/15/2019,0.21355,N/A,0.21643,0.21763,0.2124</t>
+  </si>
+  <si>
+    <t>12/14/2019,0.21645,N/A,0.22027,0.21654,0.21505</t>
+  </si>
+  <si>
+    <t>12/13/2019,0.22036,N/A,0.21931,0.22071,0.21991</t>
+  </si>
+  <si>
+    <t>12/12/2019,0.21966,N/A,0.21832,0.21997,0.21838</t>
+  </si>
+  <si>
+    <t>12/11/2019,0.21818,N/A,0.22112,0.22254,0.21734</t>
+  </si>
+  <si>
+    <t>12/10/2019,0.2212,N/A,0.22332,0.22357,0.2205</t>
+  </si>
+  <si>
+    <t>12/09/2019,0.22349,N/A,0.22856,0.22525,0.22247</t>
+  </si>
+  <si>
+    <t>12/08/2019,0.22901,N/A,0.22469,0.23015,0.22754</t>
+  </si>
+  <si>
+    <t>12/07/2019,0.22462,N/A,0.22651,0.22787,0.22386</t>
+  </si>
+  <si>
+    <t>12/06/2019,0.22675,N/A,0.22139,0.22793,0.22497</t>
+  </si>
+  <si>
+    <t>12/05/2019,0.22093,N/A,0.21345,0.22397,0.22019</t>
+  </si>
+  <si>
+    <t>12/04/2019,0.21352,N/A,0.21274,0.21612,0.21212</t>
+  </si>
+  <si>
+    <t>12/03/2019,0.21317,N/A,0.22008,0.21953,0.21214</t>
+  </si>
+  <si>
+    <t>12/02/2019,0.2197,N/A,0.2231,0.22169,0.2186</t>
+  </si>
+  <si>
+    <t>12/01/2019,0.22323,N/A,0.21945,0.22611,0.22226</t>
+  </si>
+  <si>
+    <t>11/30/2019,0.22045,N/A,0.22984,0.22556,0.21876</t>
+  </si>
+  <si>
+    <t>11/29/2019,0.22899,N/A,0.22542,0.23186,0.2288</t>
+  </si>
+  <si>
+    <t>11/28/2019,0.22492,N/A,0.22645,0.22579,0.2227</t>
+  </si>
+  <si>
+    <t>11/27/2019,0.22706,N/A,0.21973,0.22914,0.2237</t>
+  </si>
+  <si>
+    <t>11/26/2019,0.21987,N/A,0.22052,0.22359,0.2182</t>
+  </si>
+  <si>
+    <t>11/25/2019,0.21817,N/A,0.21165,0.21937,0.21379</t>
+  </si>
+  <si>
+    <t>11/24/2019,0.21178,N/A,0.23006,0.22153,0.20268</t>
+  </si>
+  <si>
+    <t>11/23/2019,0.22913,N/A,0.23027,0.23455,0.22913</t>
+  </si>
+  <si>
+    <t>11/22/2019,0.23062,N/A,0.24357,0.23075,0.22655</t>
+  </si>
+  <si>
+    <t>11/21/2019,0.24239,N/A,0.25144,0.24569,0.24218</t>
+  </si>
+  <si>
+    <t>11/20/2019,0.25132,N/A,0.25637,0.25347,0.24897</t>
+  </si>
+  <si>
+    <t>11/19/2019,0.25096,N/A,0.25431,0.25313,0.24355</t>
+  </si>
+  <si>
+    <t>11/18/2019,0.25185,N/A,0.26101,0.25313,0.25086</t>
+  </si>
+  <si>
+    <t>11/17/2019,0.26075,N/A,0.26259,0.2631,0.26052</t>
+  </si>
+  <si>
+    <t>11/16/2019,0.26261,N/A,0.26119,0.26309,0.26157</t>
+  </si>
+  <si>
+    <t>11/15/2019,0.26083,N/A,0.26422,0.2618,0.25937</t>
+  </si>
+  <si>
+    <t>11/14/2019,0.26457,N/A,0.27186,0.27217,0.26398</t>
+  </si>
+  <si>
+    <t>11/13/2019,0.27149,N/A,0.27135,0.27269,0.27148</t>
+  </si>
+  <si>
+    <t>11/12/2019,0.27108,N/A,0.27483,0.27248,0.2703</t>
+  </si>
+  <si>
+    <t>11/11/2019,0.27433,N/A,0.27973,0.27623,0.27377</t>
+  </si>
+  <si>
+    <t>11/10/2019,0.27985,N/A,0.27756,0.28105,0.27914</t>
+  </si>
+  <si>
+    <t>11/09/2019,0.27714,N/A,0.2772,0.27989,0.27684</t>
+  </si>
+  <si>
+    <t>11/08/2019,0.27838,N/A,0.29003,0.27865,0.27471</t>
+  </si>
+  <si>
+    <t>11/07/2019,0.29077,N/A,0.30366,0.29084,0.28798</t>
+  </si>
+  <si>
+    <t>11/06/2019,0.30068,N/A,0.29848,0.31422,0.29745</t>
+  </si>
+  <si>
+    <t>11/05/2019,0.29883,N/A,0.30057,0.30081,0.29708</t>
+  </si>
+  <si>
+    <t>11/04/2019,0.30044,N/A,0.29031,0.30416,0.29793</t>
+  </si>
+  <si>
+    <t>11/03/2019,0.29142,N/A,0.29537,0.2916,0.28928</t>
+  </si>
+  <si>
+    <t>11/02/2019,0.29456,N/A,0.29329,0.29586,0.2944</t>
+  </si>
+  <si>
+    <t>11/01/2019,0.29274,N/A,0.29269,0.29448,0.29133</t>
+  </si>
+  <si>
+    <t>10/31/2019,0.29295,N/A,0.29535,0.29448,0.29242</t>
+  </si>
+  <si>
+    <t>10/30/2019,0.29391,N/A,0.3044,0.29838,0.29211</t>
+  </si>
+  <si>
+    <t>10/29/2019,0.30325,N/A,0.29689,0.30527,0.30077</t>
+  </si>
+  <si>
+    <t>10/28/2019,0.29654,N/A,0.30404,0.29655,0.29441</t>
+  </si>
+  <si>
+    <t>10/27/2019,0.30058,N/A,0.29106,0.30443,0.29726</t>
+  </si>
+  <si>
+    <t>10/26/2019,0.28998,N/A,0.30798,0.29563,0.28991</t>
+  </si>
+  <si>
+    <t>10/25/2019,0.30623,N/A,0.27632,0.312,0.29739</t>
+  </si>
+  <si>
+    <t>10/24/2019,0.2767,N/A,0.26961,0.27718,0.27471</t>
+  </si>
+  <si>
+    <t>10/23/2019,0.26987,N/A,0.2909,0.2733,0.26872</t>
+  </si>
+  <si>
+    <t>10/22/2019,0.28994,N/A,0.29238,0.29119,0.28817</t>
+  </si>
+  <si>
+    <t>10/21/2019,0.29235,N/A,0.2908,0.29249,0.29071</t>
+  </si>
+  <si>
+    <t>10/20/2019,0.29141,N/A,0.28469,0.29407,0.29041</t>
+  </si>
+  <si>
+    <t>10/19/2019,0.28585,N/A,0.29034,0.29172,0.28208</t>
+  </si>
+  <si>
+    <t>10/18/2019,0.29015,N/A,0.29947,0.29474,0.28985</t>
+  </si>
+  <si>
+    <t>10/17/2019,0.29939,N/A,0.28146,0.30187,0.29812</t>
+  </si>
+  <si>
+    <t>10/16/2019,0.28165,N/A,0.29043,0.28453,0.28101</t>
+  </si>
+  <si>
+    <t>10/15/2019,0.2894,N/A,0.29556,0.29202,0.28818</t>
+  </si>
+  <si>
+    <t>10/14/2019,0.297,N/A,0.28268,0.29878,0.29428</t>
+  </si>
+  <si>
+    <t>10/13/2019,0.28475,N/A,0.27438,0.28551,0.2765</t>
+  </si>
+  <si>
+    <t>10/12/2019,0.27466,N/A,0.27114,0.27585,0.27164</t>
+  </si>
+  <si>
+    <t>10/11/2019,0.27123,N/A,0.27017,0.27307,0.26728</t>
+  </si>
+  <si>
+    <t>10/10/2019,0.26954,N/A,0.27692,0.27148,0.26772</t>
+  </si>
+  <si>
+    <t>10/09/2019,0.27656,N/A,0.27545,0.2817,0.27598</t>
+  </si>
+  <si>
+    <t>10/08/2019,0.27579,N/A,0.28274,0.27967,0.27471</t>
+  </si>
+  <si>
+    <t>10/07/2019,0.282,N/A,0.25545,0.28277,0.2748</t>
+  </si>
+  <si>
+    <t>10/06/2019,0.25166,N/A,0.25376,0.25512,0.25104</t>
+  </si>
+  <si>
+    <t>10/05/2019,0.25234,N/A,0.25171,0.25337,0.25104</t>
+  </si>
+  <si>
+    <t>10/04/2019,0.25131,N/A,0.24623,0.25252,0.25097</t>
+  </si>
+  <si>
+    <t>10/03/2019,0.24865,N/A,0.25168,0.24941,0.24493</t>
+  </si>
+  <si>
+    <t>10/02/2019,0.25179,N/A,0.24754,0.25292,0.25019</t>
+  </si>
+  <si>
+    <t>10/01/2019,0.24774,N/A,0.2579,0.24893,0.24724</t>
+  </si>
+  <si>
+    <t>09/30/2019,0.25759,N/A,0.23966,0.25759,0.25271</t>
+  </si>
+  <si>
+    <t>09/29/2019,0.23925,N/A,0.24112,0.24043,0.23769</t>
+  </si>
+  <si>
+    <t>09/28/2019,0.24115,N/A,0.24196,0.24225,0.24053</t>
+  </si>
+  <si>
+    <t>09/27/2019,0.24183,N/A,0.23861,0.24429,0.24109</t>
+  </si>
+  <si>
+    <t>09/26/2019,0.23734,N/A,0.24354,0.24343,0.23734</t>
+  </si>
+  <si>
+    <t>09/25/2019,0.24214,N/A,0.24224,0.24597,0.24183</t>
+  </si>
+  <si>
+    <t>09/24/2019,0.24044,N/A,0.26763,0.24354,0.23323</t>
+  </si>
+  <si>
+    <t>09/23/2019,0.26829,N/A,0.27433,0.26922,0.26444</t>
+  </si>
+  <si>
+    <t>09/22/2019,0.27515,N/A,0.28116,0.27706,0.27442</t>
+  </si>
+  <si>
+    <t>09/21/2019,0.28071,N/A,0.29497,0.28983,0.27921</t>
+  </si>
+  <si>
+    <t>09/20/2019,0.29629,N/A,0.29278,0.29728,0.29245</t>
+  </si>
+  <si>
+    <t>09/19/2019,0.29419,N/A,0.30155,0.30151,0.28934</t>
+  </si>
+  <si>
+    <t>09/18/2019,0.30316,N/A,0.30909,0.31348,0.298</t>
+  </si>
+  <si>
+    <t>09/17/2019,0.30384,N/A,0.26101,0.30625,0.28523</t>
+  </si>
+  <si>
+    <t>09/16/2019,0.26004,N/A,0.26219,0.26143,0.25975</t>
+  </si>
+  <si>
+    <t>09/15/2019,0.26232,N/A,0.26215,0.26299,0.26024</t>
+  </si>
+  <si>
+    <t>09/14/2019,0.26182,N/A,0.25459,0.26276,0.26131</t>
+  </si>
+  <si>
+    <t>09/13/2019,0.25472,N/A,0.25335,0.25548,0.25427</t>
+  </si>
+  <si>
+    <t>09/12/2019,0.25387,N/A,0.25451,0.25463,0.25328</t>
+  </si>
+  <si>
+    <t>09/11/2019,0.25433,N/A,0.25687,0.25559,0.25429</t>
+  </si>
+  <si>
+    <t>09/10/2019,0.25764,N/A,0.26012,0.2604,0.25669</t>
+  </si>
+  <si>
+    <t>09/09/2019,0.26131,N/A,0.25938,0.26396,0.25664</t>
+  </si>
+  <si>
+    <t>09/08/2019,0.26075,N/A,0.26055,0.26262,0.26044</t>
+  </si>
+  <si>
+    <t>09/07/2019,0.26045,N/A,0.25117,0.26104,0.25989</t>
+  </si>
+  <si>
+    <t>09/06/2019,0.25139,N/A,0.25496,0.25147,0.2503</t>
+  </si>
+  <si>
+    <t>09/05/2019,0.25521,N/A,0.25816,0.25658,0.2552</t>
+  </si>
+  <si>
+    <t>09/04/2019,0.258,N/A,0.26096,0.25852,0.25754</t>
+  </si>
+  <si>
+    <t>08/16/2019,0.26222,N/A,0.26175,0.26501,0.25534</t>
+  </si>
+  <si>
+    <t>08/15/2019,0.26387,N/A,0.26455,0.26501,0.26303</t>
+  </si>
+  <si>
+    <t>08/14/2019,0.2643,N/A,0.29558,0.26724,0.2632</t>
+  </si>
+  <si>
+    <t>08/13/2019,0.2961,N/A,0.30039,0.29853,0.29514</t>
+  </si>
+  <si>
+    <t>08/11/2019,0.30579,N/A,0.30004,0.30591,0.29551</t>
+  </si>
+  <si>
+    <t>08/10/2019,0.30036,N/A,0.30142,0.3026,0.29915</t>
+  </si>
+  <si>
+    <t>08/06/2019,0.31763,N/A,0.32672,0.32398,0.31544</t>
+  </si>
+  <si>
+    <t>08/05/2019,0.31863,N/A,0.32026,0.32229,0.3175</t>
+  </si>
+  <si>
+    <t>08/04/2019,0.32016,N/A,0.31663,0.32067,0.31828</t>
+  </si>
+  <si>
+    <t>08/03/2019,0.3166,N/A,0.31307,0.31682,0.31544</t>
+  </si>
+  <si>
+    <t>08/02/2019,0.31561,N/A,0.31447,0.31567,0.31104</t>
+  </si>
+  <si>
+    <t>08/01/2019,0.31462,N/A,0.31698,0.31594,0.31363</t>
+  </si>
+  <si>
+    <t>07/31/2019,0.31601,N/A,0.31992,0.31967,0.31568</t>
+  </si>
+  <si>
+    <t>07/30/2019,0.31848,N/A,0.30784,0.32044,0.31792</t>
+  </si>
+  <si>
+    <t>07/29/2019,0.30882,N/A,0.3126,0.31089,0.30882</t>
+  </si>
+  <si>
+    <t>07/28/2019,0.31169,N/A,0.31001,0.31422,0.31038</t>
+  </si>
+  <si>
+    <t>07/27/2019,0.30976,N/A,0.32535,0.30994,0.30859</t>
+  </si>
+  <si>
+    <t>07/26/2019,0.32375,N/A,0.3099,0.32587,0.32219</t>
+  </si>
+  <si>
+    <t>07/25/2019,0.30915,N/A,0.31992,0.31341,0.3088</t>
+  </si>
+  <si>
+    <t>07/24/2019,0.31961,N/A,0.30667,0.3219,0.31487</t>
+  </si>
+  <si>
+    <t>07/23/2019,0.30521,N/A,0.31727,0.30891,0.30412</t>
+  </si>
+  <si>
+    <t>07/22/2019,0.31797,N/A,0.32842,0.32125,0.317</t>
+  </si>
+  <si>
+    <t>07/21/2019,0.32858,N/A,0.33442,0.33213,0.32752</t>
+  </si>
+  <si>
+    <t>07/20/2019,0.33033,N/A,0.32087,0.33469,0.3302</t>
+  </si>
+  <si>
+    <t>07/19/2019,0.3217,N/A,0.31885,0.32306,0.31854</t>
+  </si>
+  <si>
+    <t>07/18/2019,0.32009,N/A,0.31316,0.32197,0.31855</t>
+  </si>
+  <si>
+    <t>07/17/2019,0.31204,N/A,0.29758,0.3134,0.30718</t>
+  </si>
+  <si>
+    <t>07/16/2019,0.2944,N/A,0.31749,0.29852,0.2933</t>
+  </si>
+  <si>
+    <t>07/15/2019,0.31428,N/A,0.30401,0.3194,0.31285</t>
+  </si>
+  <si>
+    <t>07/14/2019,0.30186,N/A,0.33282,0.30437,0.29498</t>
+  </si>
+  <si>
+    <t>07/13/2019,0.33261,N/A,0.34041,0.33506,0.33032</t>
+  </si>
+  <si>
+    <t>07/12/2019,0.3403,N/A,0.33069,0.34423,0.33816</t>
+  </si>
+  <si>
+    <t>07/11/2019,0.32988,N/A,0.35949,0.33112,0.32621</t>
+  </si>
+  <si>
+    <t>07/10/2019,0.35909,N/A,0.3956,0.36235,0.35493</t>
+  </si>
+  <si>
+    <t>07/09/2019,0.3952,N/A,0.40299,0.39611,0.39228</t>
+  </si>
+  <si>
+    <t>07/08/2019,0.4052,N/A,0.39433,0.40631,0.40059</t>
+  </si>
+  <si>
+    <t>07/07/2019,0.39397,N/A,0.38887,0.39682,0.39314</t>
+  </si>
+  <si>
+    <t>07/06/2019,0.38875,N/A,0.38295,0.39075,0.38725</t>
+  </si>
+  <si>
+    <t>07/05/2019,0.38301,N/A,0.38554,0.38398,0.37877</t>
+  </si>
+  <si>
+    <t>07/04/2019,0.38653,N/A,0.40188,0.3888,0.38608</t>
+  </si>
+  <si>
+    <t>07/03/2019,0.40196,N/A,0.40343,0.40452,0.40148</t>
+  </si>
+  <si>
+    <t>07/02/2019,0.40385,N/A,0.40069,0.40511,0.39815</t>
+  </si>
+  <si>
+    <t>07/01/2019,0.4017,N/A,0.41359,0.41065,0.39927</t>
+  </si>
+  <si>
+    <t>06/30/2019,0.41631,N/A,0.42505,0.4212,0.39376</t>
+  </si>
+  <si>
+    <t>06/29/2019,0.42491,N/A,0.41512,0.42827,0.42346</t>
+  </si>
+  <si>
+    <t>06/28/2019,0.41013,N/A,0.40824,0.42625,0.40903</t>
+  </si>
+  <si>
+    <t>06/27/2019,0.4104,N/A,0.46078,0.41723,0.40736</t>
+  </si>
+  <si>
+    <t>06/26/2019,0.45999,N/A,0.47115,0.47071,0.45811</t>
+  </si>
+  <si>
+    <t>06/25/2019,0.46865,N/A,0.47439,0.47482,0.4614</t>
+  </si>
+  <si>
+    <t>06/24/2019,0.47273,N/A,0.4584,0.47639,0.47105</t>
+  </si>
+  <si>
+    <t>06/23/2019,0.45893,N/A,0.48466,0.47018,0.451</t>
+  </si>
+  <si>
+    <t>06/22/2019,0.48377,N/A,0.44805,0.49215,0.47688</t>
+  </si>
+  <si>
+    <t>06/21/2019,0.44812,N/A,0.43712,0.4494,0.44022</t>
+  </si>
+  <si>
+    <t>06/20/2019,0.43688,N/A,0.43299,0.44178,0.42973</t>
+  </si>
+  <si>
+    <t>06/19/2019,0.43306,N/A,0.42913,0.43421,0.43204</t>
+  </si>
+  <si>
+    <t>06/18/2019,0.42755,N/A,0.44434,0.42956,0.42432</t>
+  </si>
+  <si>
+    <t>06/17/2019,0.44835,N/A,0.42814,0.45471,0.4446</t>
+  </si>
+  <si>
+    <t>06/16/2019,0.42816,N/A,0.41189,0.43139,0.42721</t>
+  </si>
+  <si>
+    <t>06/15/2019,0.41029,N/A,0.4057,0.4104,0.40683</t>
+  </si>
+  <si>
+    <t>06/14/2019,0.40725,N/A,0.39405,0.40837,0.40039</t>
+  </si>
+  <si>
+    <t>06/13/2019,0.39406,N/A,0.40492,0.39973,0.39329</t>
+  </si>
+  <si>
+    <t>06/12/2019,0.40437,N/A,0.38772,0.40797,0.39857</t>
+  </si>
+  <si>
+    <t>06/11/2019,0.38816,N/A,0.39479,0.39207,0.38752</t>
+  </si>
+  <si>
+    <t>06/10/2019,0.3949,N/A,0.38384,0.40176,0.39397</t>
+  </si>
+  <si>
+    <t>06/09/2019,0.38512,N/A,0.40425,0.38581,0.38064</t>
+  </si>
+  <si>
+    <t>06/08/2019,0.4047,N/A,0.42148,0.40844,0.40379</t>
+  </si>
+  <si>
+    <t>06/07/2019,0.41843,N/A,0.41558,0.42205,0.41817</t>
+  </si>
+  <si>
+    <t>06/06/2019,0.41594,N/A,0.40239,0.42033,0.41434</t>
+  </si>
+  <si>
+    <t>06/05/2019,0.40264,N/A,0.39845,0.40356,0.39933</t>
+  </si>
+  <si>
+    <t>06/04/2019,0.39846,N/A,0.4153,0.4028,0.39707</t>
+  </si>
+  <si>
+    <t>06/03/2019,0.4146,N/A,0.44176,0.41877,0.40051</t>
+  </si>
+  <si>
+    <t>06/02/2019,0.44201,N/A,0.43148,0.4441,0.43935</t>
+  </si>
+  <si>
+    <t>06/01/2019,0.43245,N/A,0.43836,0.43449,0.42786</t>
+  </si>
+  <si>
+    <t>05/31/2019,0.43815,N/A,0.42169,0.44121,0.43276</t>
+  </si>
+  <si>
+    <t>05/30/2019,0.42117,N/A,0.44222,0.42637,0.41732</t>
+  </si>
+  <si>
+    <t>05/29/2019,0.43981,N/A,0.44134,0.45116,0.43597</t>
+  </si>
+  <si>
+    <t>05/28/2019,0.43757,N/A,0.43217,0.44861,0.43539</t>
+  </si>
+  <si>
+    <t>05/27/2019,0.43309,N/A,0.40945,0.43918,0.42618</t>
+  </si>
+  <si>
+    <t>05/26/2019,0.40557,N/A,0.38352,0.41541,0.40447</t>
+  </si>
+  <si>
+    <t>05/25/2019,0.38499,N/A,0.38604,0.39103,0.38339</t>
+  </si>
+  <si>
+    <t>05/24/2019,0.38531,N/A,0.37724,0.3866,0.38124</t>
+  </si>
+  <si>
+    <t>05/23/2019,0.37688,N/A,0.37476,0.38167,0.37664</t>
+  </si>
+  <si>
+    <t>05/22/2019,0.37208,N/A,0.3973,0.37557,0.37146</t>
+  </si>
+  <si>
+    <t>05/21/2019,0.39834,N/A,0.39264,0.40906,0.39523</t>
+  </si>
+  <si>
+    <t>05/20/2019,0.39167,N/A,0.39691,0.40426,0.39016</t>
+  </si>
+  <si>
+    <t>05/19/2019,0.3983,N/A,0.38259,0.41542,0.39403</t>
+  </si>
+  <si>
+    <t>05/18/2019,0.3838,N/A,0.38084,0.3884,0.3708</t>
+  </si>
+  <si>
+    <t>05/17/2019,0.38045,N/A,0.40591,0.39294,0.37653</t>
+  </si>
+  <si>
+    <t>05/16/2019,0.40243,N/A,0.47518,0.42271,0.40176</t>
+  </si>
+  <si>
+    <t>05/15/2019,0.46817,N/A,0.43536,0.47574,0.45364</t>
+  </si>
+  <si>
+    <t>05/14/2019,0.43054,N/A,0.36539,0.4486,0.40908</t>
+  </si>
+  <si>
+    <t>05/13/2019,0.3688,N/A,0.31874,0.37287,0.32271</t>
+  </si>
+  <si>
+    <t>05/12/2019,0.31837,N/A,0.31405,0.32307,0.30893</t>
+  </si>
+  <si>
+    <t>05/11/2019,0.32085,N/A,0.29939,0.32541,0.29929</t>
+  </si>
+  <si>
+    <t>05/10/2019,0.30059,N/A,0.29458,0.30089,0.29929</t>
+  </si>
+  <si>
+    <t>05/09/2019,0.29551,N/A,0.30151,0.29612,0.29408</t>
+  </si>
+  <si>
+    <t>05/08/2019,0.30139,N/A,0.29959,0.30188,0.29976</t>
+  </si>
+  <si>
+    <t>05/07/2019,0.29967,N/A,0.30517,0.30097,0.29688</t>
+  </si>
+  <si>
+    <t>05/06/2019,0.30529,N/A,0.29936,0.30666,0.30294</t>
+  </si>
+  <si>
+    <t>05/05/2019,0.29903,N/A,0.30149,0.30244,0.29903</t>
+  </si>
+  <si>
+    <t>05/04/2019,0.30379,N/A,0.30361,0.30994,0.30175</t>
+  </si>
+  <si>
+    <t>05/03/2019,0.3127,N/A,0.30361,0.3127,0.30175</t>
+  </si>
+  <si>
+    <t>03/18/2019,0.31415,N/A,0.31655,0.31948,0.31241</t>
+  </si>
+  <si>
+    <t>03/17/2019,0.31613,N/A,0.32014,0.31902,0.31445</t>
+  </si>
+  <si>
+    <t>03/16/2019,0.31856,N/A,0.31537,0.32277,0.31494</t>
+  </si>
+  <si>
+    <t>03/15/2019,0.31535,N/A,0.31217,0.31665,0.31117</t>
+  </si>
+  <si>
+    <t>03/14/2019,0.31188,N/A,0.31649,0.3168,0.30686</t>
+  </si>
+  <si>
+    <t>03/13/2019,0.31652,N/A,0.3112,0.3252,0.30781</t>
+  </si>
+  <si>
+    <t>03/12/2019,0.31039,N/A,0.31039,0.31157,0.30641</t>
+  </si>
+  <si>
+    <t>03/11/2019,0.3102,N/A,0.31286,0.31447,0.30799</t>
+  </si>
+  <si>
+    <t>03/10/2019,0.31295,N/A,0.31388,0.31692,0.30933</t>
+  </si>
+  <si>
+    <t>03/09/2019,0.31388,N/A,0.30802,0.31886,0.30746</t>
+  </si>
+  <si>
+    <t>03/08/2019,0.30802,N/A,0.31324,0.31624,0.3052</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +4517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A367"/>
+  <dimension ref="A1:A1219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3802,6 +6358,4266 @@
         <v>366</v>
       </c>
     </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1206" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1207" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1208" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1211" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1212" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1213" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1214" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1215" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1216" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1217" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1218" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1219" t="s">
+        <v>1218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
